--- a/sourcecode/project/xmeeting/doc/后台数据库设计/03_06_00_会议图片(XM_MEETING_X_PICTURE).xlsx
+++ b/sourcecode/project/xmeeting/doc/后台数据库设计/03_06_00_会议图片(XM_MEETING_X_PICTURE).xlsx
@@ -649,88 +649,13 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="9" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -809,6 +734,81 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1109,8 +1109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:DS948"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20:T20"/>
+    <sheetView tabSelected="1" topLeftCell="AX1" workbookViewId="0">
+      <selection activeCell="BY24" sqref="BY24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="12"/>
@@ -1134,68 +1134,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:123" ht="24" customHeight="1" thickTop="1">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="67" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="70" t="s">
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
-      <c r="W1" s="71"/>
-      <c r="X1" s="72"/>
-      <c r="Y1" s="73" t="s">
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="46"/>
+      <c r="W1" s="46"/>
+      <c r="X1" s="47"/>
+      <c r="Y1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="Z1" s="73"/>
-      <c r="AA1" s="73"/>
-      <c r="AB1" s="73"/>
-      <c r="AC1" s="74"/>
-      <c r="AD1" s="74"/>
-      <c r="AE1" s="74"/>
-      <c r="AF1" s="74"/>
-      <c r="AG1" s="74"/>
-      <c r="AH1" s="74"/>
-      <c r="AI1" s="74"/>
-      <c r="AJ1" s="74"/>
-      <c r="AK1" s="74"/>
-      <c r="AL1" s="74"/>
-      <c r="AM1" s="73" t="s">
+      <c r="Z1" s="48"/>
+      <c r="AA1" s="48"/>
+      <c r="AB1" s="48"/>
+      <c r="AC1" s="49"/>
+      <c r="AD1" s="49"/>
+      <c r="AE1" s="49"/>
+      <c r="AF1" s="49"/>
+      <c r="AG1" s="49"/>
+      <c r="AH1" s="49"/>
+      <c r="AI1" s="49"/>
+      <c r="AJ1" s="49"/>
+      <c r="AK1" s="49"/>
+      <c r="AL1" s="49"/>
+      <c r="AM1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="AN1" s="73"/>
-      <c r="AO1" s="73"/>
-      <c r="AP1" s="73"/>
-      <c r="AQ1" s="49"/>
-      <c r="AR1" s="49"/>
-      <c r="AS1" s="49"/>
-      <c r="AT1" s="49"/>
-      <c r="AU1" s="49"/>
-      <c r="AV1" s="49"/>
-      <c r="AW1" s="49"/>
-      <c r="AX1" s="49"/>
-      <c r="AY1" s="49"/>
-      <c r="AZ1" s="50"/>
+      <c r="AN1" s="48"/>
+      <c r="AO1" s="48"/>
+      <c r="AP1" s="48"/>
+      <c r="AQ1" s="24"/>
+      <c r="AR1" s="24"/>
+      <c r="AS1" s="24"/>
+      <c r="AT1" s="24"/>
+      <c r="AU1" s="24"/>
+      <c r="AV1" s="24"/>
+      <c r="AW1" s="24"/>
+      <c r="AX1" s="24"/>
+      <c r="AY1" s="24"/>
+      <c r="AZ1" s="25"/>
       <c r="BM1" s="4"/>
       <c r="BN1" s="5"/>
       <c r="BO1" s="5"/>
@@ -1257,149 +1257,149 @@
       <c r="DS1" s="6"/>
     </row>
     <row r="2" spans="1:123" ht="21" customHeight="1" thickBot="1">
-      <c r="A2" s="64"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="51" t="s">
+      <c r="A2" s="39"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="54" t="s">
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="55"/>
-      <c r="S2" s="55"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="55"/>
-      <c r="V2" s="55"/>
-      <c r="W2" s="55"/>
-      <c r="X2" s="56"/>
-      <c r="Y2" s="57" t="s">
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="30"/>
+      <c r="W2" s="30"/>
+      <c r="X2" s="31"/>
+      <c r="Y2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="Z2" s="57"/>
-      <c r="AA2" s="57"/>
-      <c r="AB2" s="57"/>
-      <c r="AC2" s="58"/>
-      <c r="AD2" s="58"/>
-      <c r="AE2" s="58"/>
-      <c r="AF2" s="58"/>
-      <c r="AG2" s="58"/>
-      <c r="AH2" s="58"/>
-      <c r="AI2" s="58"/>
-      <c r="AJ2" s="58"/>
-      <c r="AK2" s="58"/>
-      <c r="AL2" s="58"/>
-      <c r="AM2" s="57" t="s">
+      <c r="Z2" s="32"/>
+      <c r="AA2" s="32"/>
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="33"/>
+      <c r="AD2" s="33"/>
+      <c r="AE2" s="33"/>
+      <c r="AF2" s="33"/>
+      <c r="AG2" s="33"/>
+      <c r="AH2" s="33"/>
+      <c r="AI2" s="33"/>
+      <c r="AJ2" s="33"/>
+      <c r="AK2" s="33"/>
+      <c r="AL2" s="33"/>
+      <c r="AM2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="AN2" s="57"/>
-      <c r="AO2" s="57"/>
-      <c r="AP2" s="57"/>
-      <c r="AQ2" s="59"/>
-      <c r="AR2" s="59"/>
-      <c r="AS2" s="59"/>
-      <c r="AT2" s="59"/>
-      <c r="AU2" s="59"/>
-      <c r="AV2" s="59"/>
-      <c r="AW2" s="59"/>
-      <c r="AX2" s="59"/>
-      <c r="AY2" s="59"/>
-      <c r="AZ2" s="60"/>
+      <c r="AN2" s="32"/>
+      <c r="AO2" s="32"/>
+      <c r="AP2" s="32"/>
+      <c r="AQ2" s="34"/>
+      <c r="AR2" s="34"/>
+      <c r="AS2" s="34"/>
+      <c r="AT2" s="34"/>
+      <c r="AU2" s="34"/>
+      <c r="AV2" s="34"/>
+      <c r="AW2" s="34"/>
+      <c r="AX2" s="34"/>
+      <c r="AY2" s="34"/>
+      <c r="AZ2" s="35"/>
     </row>
     <row r="3" spans="1:123" ht="12.75" thickTop="1">
       <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:123" ht="14.25">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45" t="s">
+      <c r="B4" s="50"/>
+      <c r="C4" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="46" t="s">
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="47"/>
-      <c r="S4" s="47"/>
-      <c r="T4" s="48"/>
-      <c r="U4" s="45" t="s">
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="52"/>
+      <c r="R4" s="52"/>
+      <c r="S4" s="52"/>
+      <c r="T4" s="53"/>
+      <c r="U4" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="V4" s="45"/>
-      <c r="W4" s="45"/>
-      <c r="X4" s="45"/>
-      <c r="Y4" s="45"/>
-      <c r="Z4" s="45" t="s">
+      <c r="V4" s="50"/>
+      <c r="W4" s="50"/>
+      <c r="X4" s="50"/>
+      <c r="Y4" s="50"/>
+      <c r="Z4" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="AA4" s="45"/>
-      <c r="AB4" s="45" t="s">
+      <c r="AA4" s="50"/>
+      <c r="AB4" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="AC4" s="45"/>
-      <c r="AD4" s="45"/>
-      <c r="AE4" s="45" t="s">
+      <c r="AC4" s="50"/>
+      <c r="AD4" s="50"/>
+      <c r="AE4" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="AF4" s="45"/>
-      <c r="AG4" s="45" t="s">
+      <c r="AF4" s="50"/>
+      <c r="AG4" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="AH4" s="45"/>
-      <c r="AI4" s="45" t="s">
+      <c r="AH4" s="50"/>
+      <c r="AI4" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="AJ4" s="45"/>
-      <c r="AK4" s="45" t="s">
+      <c r="AJ4" s="50"/>
+      <c r="AK4" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="AL4" s="45"/>
-      <c r="AM4" s="45" t="s">
+      <c r="AL4" s="50"/>
+      <c r="AM4" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="AN4" s="45"/>
-      <c r="AO4" s="45" t="s">
+      <c r="AN4" s="50"/>
+      <c r="AO4" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="AP4" s="45"/>
-      <c r="AQ4" s="45"/>
-      <c r="AR4" s="45"/>
-      <c r="AS4" s="45"/>
-      <c r="AT4" s="45"/>
-      <c r="AU4" s="45"/>
-      <c r="AV4" s="45"/>
-      <c r="AW4" s="45"/>
-      <c r="AX4" s="45"/>
-      <c r="AY4" s="45"/>
-      <c r="AZ4" s="45"/>
-      <c r="BA4" s="45"/>
-      <c r="BB4" s="45"/>
+      <c r="AP4" s="50"/>
+      <c r="AQ4" s="50"/>
+      <c r="AR4" s="50"/>
+      <c r="AS4" s="50"/>
+      <c r="AT4" s="50"/>
+      <c r="AU4" s="50"/>
+      <c r="AV4" s="50"/>
+      <c r="AW4" s="50"/>
+      <c r="AX4" s="50"/>
+      <c r="AY4" s="50"/>
+      <c r="AZ4" s="50"/>
+      <c r="BA4" s="50"/>
+      <c r="BB4" s="50"/>
       <c r="BM4" s="4" t="s">
         <v>32</v>
       </c>
@@ -1465,73 +1465,73 @@
       <c r="DS4" s="6"/>
     </row>
     <row r="5" spans="1:123" ht="14.25">
-      <c r="A5" s="27">
+      <c r="A5" s="56">
         <f t="shared" ref="A5:A15" si="0">ROW()-4</f>
         <v>1</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="28" t="s">
+      <c r="B5" s="56"/>
+      <c r="C5" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="28" t="s">
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="59"/>
+      <c r="L5" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="29"/>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="29"/>
-      <c r="R5" s="29"/>
-      <c r="S5" s="29"/>
-      <c r="T5" s="30"/>
-      <c r="U5" s="25" t="s">
+      <c r="M5" s="58"/>
+      <c r="N5" s="58"/>
+      <c r="O5" s="58"/>
+      <c r="P5" s="58"/>
+      <c r="Q5" s="58"/>
+      <c r="R5" s="58"/>
+      <c r="S5" s="58"/>
+      <c r="T5" s="59"/>
+      <c r="U5" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="V5" s="25"/>
-      <c r="W5" s="25"/>
-      <c r="X5" s="25"/>
-      <c r="Y5" s="25"/>
-      <c r="Z5" s="25"/>
-      <c r="AA5" s="25"/>
-      <c r="AB5" s="25"/>
-      <c r="AC5" s="25"/>
-      <c r="AD5" s="25"/>
-      <c r="AE5" s="26" t="s">
+      <c r="V5" s="55"/>
+      <c r="W5" s="55"/>
+      <c r="X5" s="55"/>
+      <c r="Y5" s="55"/>
+      <c r="Z5" s="55"/>
+      <c r="AA5" s="55"/>
+      <c r="AB5" s="55"/>
+      <c r="AC5" s="55"/>
+      <c r="AD5" s="55"/>
+      <c r="AE5" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="AF5" s="26"/>
-      <c r="AG5" s="26"/>
-      <c r="AH5" s="26"/>
-      <c r="AI5" s="26"/>
-      <c r="AJ5" s="26"/>
-      <c r="AK5" s="26" t="s">
+      <c r="AF5" s="54"/>
+      <c r="AG5" s="54"/>
+      <c r="AH5" s="54"/>
+      <c r="AI5" s="54"/>
+      <c r="AJ5" s="54"/>
+      <c r="AK5" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="AL5" s="26"/>
-      <c r="AM5" s="26"/>
-      <c r="AN5" s="26"/>
-      <c r="AO5" s="25"/>
-      <c r="AP5" s="25"/>
-      <c r="AQ5" s="25"/>
-      <c r="AR5" s="25"/>
-      <c r="AS5" s="25"/>
-      <c r="AT5" s="25"/>
-      <c r="AU5" s="25"/>
-      <c r="AV5" s="25"/>
-      <c r="AW5" s="25"/>
-      <c r="AX5" s="25"/>
-      <c r="AY5" s="25"/>
-      <c r="AZ5" s="25"/>
-      <c r="BA5" s="25"/>
-      <c r="BB5" s="25"/>
+      <c r="AL5" s="54"/>
+      <c r="AM5" s="54"/>
+      <c r="AN5" s="54"/>
+      <c r="AO5" s="55"/>
+      <c r="AP5" s="55"/>
+      <c r="AQ5" s="55"/>
+      <c r="AR5" s="55"/>
+      <c r="AS5" s="55"/>
+      <c r="AT5" s="55"/>
+      <c r="AU5" s="55"/>
+      <c r="AV5" s="55"/>
+      <c r="AW5" s="55"/>
+      <c r="AX5" s="55"/>
+      <c r="AY5" s="55"/>
+      <c r="AZ5" s="55"/>
+      <c r="BA5" s="55"/>
+      <c r="BB5" s="55"/>
       <c r="BN5" s="8" t="str">
         <f>IF(L5="",IF(AND(L6="",L4&lt;&gt;""),");",""),L5)</f>
         <v>XMMXPIC_GUID</v>
@@ -1570,69 +1570,69 @@
       </c>
     </row>
     <row r="6" spans="1:123" ht="14.25">
-      <c r="A6" s="41">
+      <c r="A6" s="62">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="42" t="s">
+      <c r="B6" s="62"/>
+      <c r="C6" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="42" t="s">
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="M6" s="43"/>
-      <c r="N6" s="43"/>
-      <c r="O6" s="43"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="43"/>
-      <c r="R6" s="43"/>
-      <c r="S6" s="43"/>
-      <c r="T6" s="44"/>
-      <c r="U6" s="40" t="s">
+      <c r="M6" s="64"/>
+      <c r="N6" s="64"/>
+      <c r="O6" s="64"/>
+      <c r="P6" s="64"/>
+      <c r="Q6" s="64"/>
+      <c r="R6" s="64"/>
+      <c r="S6" s="64"/>
+      <c r="T6" s="65"/>
+      <c r="U6" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="V6" s="40"/>
-      <c r="W6" s="40"/>
-      <c r="X6" s="40"/>
-      <c r="Y6" s="40"/>
-      <c r="Z6" s="40"/>
-      <c r="AA6" s="40"/>
-      <c r="AB6" s="40"/>
-      <c r="AC6" s="40"/>
-      <c r="AD6" s="40"/>
-      <c r="AE6" s="39"/>
-      <c r="AF6" s="39"/>
-      <c r="AG6" s="39"/>
-      <c r="AH6" s="39"/>
-      <c r="AI6" s="39"/>
-      <c r="AJ6" s="39"/>
-      <c r="AK6" s="39"/>
-      <c r="AL6" s="39"/>
-      <c r="AM6" s="39"/>
-      <c r="AN6" s="39"/>
-      <c r="AO6" s="40"/>
-      <c r="AP6" s="40"/>
-      <c r="AQ6" s="40"/>
-      <c r="AR6" s="40"/>
-      <c r="AS6" s="40"/>
-      <c r="AT6" s="40"/>
-      <c r="AU6" s="40"/>
-      <c r="AV6" s="40"/>
-      <c r="AW6" s="40"/>
-      <c r="AX6" s="40"/>
-      <c r="AY6" s="40"/>
-      <c r="AZ6" s="40"/>
-      <c r="BA6" s="40"/>
-      <c r="BB6" s="40"/>
+      <c r="V6" s="61"/>
+      <c r="W6" s="61"/>
+      <c r="X6" s="61"/>
+      <c r="Y6" s="61"/>
+      <c r="Z6" s="61"/>
+      <c r="AA6" s="61"/>
+      <c r="AB6" s="61"/>
+      <c r="AC6" s="61"/>
+      <c r="AD6" s="61"/>
+      <c r="AE6" s="60"/>
+      <c r="AF6" s="60"/>
+      <c r="AG6" s="60"/>
+      <c r="AH6" s="60"/>
+      <c r="AI6" s="60"/>
+      <c r="AJ6" s="60"/>
+      <c r="AK6" s="60"/>
+      <c r="AL6" s="60"/>
+      <c r="AM6" s="60"/>
+      <c r="AN6" s="60"/>
+      <c r="AO6" s="61"/>
+      <c r="AP6" s="61"/>
+      <c r="AQ6" s="61"/>
+      <c r="AR6" s="61"/>
+      <c r="AS6" s="61"/>
+      <c r="AT6" s="61"/>
+      <c r="AU6" s="61"/>
+      <c r="AV6" s="61"/>
+      <c r="AW6" s="61"/>
+      <c r="AX6" s="61"/>
+      <c r="AY6" s="61"/>
+      <c r="AZ6" s="61"/>
+      <c r="BA6" s="61"/>
+      <c r="BB6" s="61"/>
       <c r="BN6" s="8" t="str">
         <f t="shared" ref="BN6:BN26" si="1">IF(L6="",IF(AND(L7="",L5&lt;&gt;""),");",""),L6)</f>
         <v>XMMI_GUID</v>
@@ -1671,69 +1671,69 @@
       </c>
     </row>
     <row r="7" spans="1:123" s="3" customFormat="1" ht="14.25">
-      <c r="A7" s="41">
+      <c r="A7" s="62">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="42" t="s">
+      <c r="B7" s="62"/>
+      <c r="C7" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="42" t="s">
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="65"/>
+      <c r="L7" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="M7" s="43"/>
-      <c r="N7" s="43"/>
-      <c r="O7" s="43"/>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="43"/>
-      <c r="R7" s="43"/>
-      <c r="S7" s="43"/>
-      <c r="T7" s="44"/>
-      <c r="U7" s="40" t="s">
+      <c r="M7" s="64"/>
+      <c r="N7" s="64"/>
+      <c r="O7" s="64"/>
+      <c r="P7" s="64"/>
+      <c r="Q7" s="64"/>
+      <c r="R7" s="64"/>
+      <c r="S7" s="64"/>
+      <c r="T7" s="65"/>
+      <c r="U7" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="V7" s="40"/>
-      <c r="W7" s="40"/>
-      <c r="X7" s="40"/>
-      <c r="Y7" s="40"/>
-      <c r="Z7" s="40"/>
-      <c r="AA7" s="40"/>
-      <c r="AB7" s="40"/>
-      <c r="AC7" s="40"/>
-      <c r="AD7" s="40"/>
-      <c r="AE7" s="39"/>
-      <c r="AF7" s="39"/>
-      <c r="AG7" s="39"/>
-      <c r="AH7" s="39"/>
-      <c r="AI7" s="39"/>
-      <c r="AJ7" s="39"/>
-      <c r="AK7" s="39"/>
-      <c r="AL7" s="39"/>
-      <c r="AM7" s="39"/>
-      <c r="AN7" s="39"/>
-      <c r="AO7" s="40"/>
-      <c r="AP7" s="40"/>
-      <c r="AQ7" s="40"/>
-      <c r="AR7" s="40"/>
-      <c r="AS7" s="40"/>
-      <c r="AT7" s="40"/>
-      <c r="AU7" s="40"/>
-      <c r="AV7" s="40"/>
-      <c r="AW7" s="40"/>
-      <c r="AX7" s="40"/>
-      <c r="AY7" s="40"/>
-      <c r="AZ7" s="40"/>
-      <c r="BA7" s="40"/>
-      <c r="BB7" s="40"/>
+      <c r="V7" s="61"/>
+      <c r="W7" s="61"/>
+      <c r="X7" s="61"/>
+      <c r="Y7" s="61"/>
+      <c r="Z7" s="61"/>
+      <c r="AA7" s="61"/>
+      <c r="AB7" s="61"/>
+      <c r="AC7" s="61"/>
+      <c r="AD7" s="61"/>
+      <c r="AE7" s="60"/>
+      <c r="AF7" s="60"/>
+      <c r="AG7" s="60"/>
+      <c r="AH7" s="60"/>
+      <c r="AI7" s="60"/>
+      <c r="AJ7" s="60"/>
+      <c r="AK7" s="60"/>
+      <c r="AL7" s="60"/>
+      <c r="AM7" s="60"/>
+      <c r="AN7" s="60"/>
+      <c r="AO7" s="61"/>
+      <c r="AP7" s="61"/>
+      <c r="AQ7" s="61"/>
+      <c r="AR7" s="61"/>
+      <c r="AS7" s="61"/>
+      <c r="AT7" s="61"/>
+      <c r="AU7" s="61"/>
+      <c r="AV7" s="61"/>
+      <c r="AW7" s="61"/>
+      <c r="AX7" s="61"/>
+      <c r="AY7" s="61"/>
+      <c r="AZ7" s="61"/>
+      <c r="BA7" s="61"/>
+      <c r="BB7" s="61"/>
       <c r="BM7" s="10"/>
       <c r="BN7" s="11" t="str">
         <f t="shared" si="1"/>
@@ -1822,63 +1822,63 @@
       <c r="DS7" s="12"/>
     </row>
     <row r="8" spans="1:123" ht="14.25">
-      <c r="A8" s="23">
+      <c r="A8" s="21">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="33"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="34"/>
-      <c r="R8" s="34"/>
-      <c r="S8" s="34"/>
-      <c r="T8" s="35"/>
-      <c r="U8" s="21"/>
-      <c r="V8" s="21"/>
-      <c r="W8" s="21"/>
-      <c r="X8" s="21"/>
-      <c r="Y8" s="21"/>
-      <c r="Z8" s="32"/>
-      <c r="AA8" s="32"/>
-      <c r="AB8" s="32"/>
-      <c r="AC8" s="32"/>
-      <c r="AD8" s="32"/>
-      <c r="AE8" s="31"/>
-      <c r="AF8" s="31"/>
-      <c r="AG8" s="31"/>
-      <c r="AH8" s="31"/>
-      <c r="AI8" s="31"/>
-      <c r="AJ8" s="31"/>
-      <c r="AK8" s="31"/>
-      <c r="AL8" s="31"/>
-      <c r="AM8" s="31"/>
-      <c r="AN8" s="31"/>
-      <c r="AO8" s="32"/>
-      <c r="AP8" s="32"/>
-      <c r="AQ8" s="32"/>
-      <c r="AR8" s="32"/>
-      <c r="AS8" s="32"/>
-      <c r="AT8" s="32"/>
-      <c r="AU8" s="32"/>
-      <c r="AV8" s="32"/>
-      <c r="AW8" s="32"/>
-      <c r="AX8" s="32"/>
-      <c r="AY8" s="32"/>
-      <c r="AZ8" s="32"/>
-      <c r="BA8" s="32"/>
-      <c r="BB8" s="32"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="70"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="69"/>
+      <c r="N8" s="69"/>
+      <c r="O8" s="69"/>
+      <c r="P8" s="69"/>
+      <c r="Q8" s="69"/>
+      <c r="R8" s="69"/>
+      <c r="S8" s="69"/>
+      <c r="T8" s="70"/>
+      <c r="U8" s="22"/>
+      <c r="V8" s="22"/>
+      <c r="W8" s="22"/>
+      <c r="X8" s="22"/>
+      <c r="Y8" s="22"/>
+      <c r="Z8" s="67"/>
+      <c r="AA8" s="67"/>
+      <c r="AB8" s="67"/>
+      <c r="AC8" s="67"/>
+      <c r="AD8" s="67"/>
+      <c r="AE8" s="66"/>
+      <c r="AF8" s="66"/>
+      <c r="AG8" s="66"/>
+      <c r="AH8" s="66"/>
+      <c r="AI8" s="66"/>
+      <c r="AJ8" s="66"/>
+      <c r="AK8" s="66"/>
+      <c r="AL8" s="66"/>
+      <c r="AM8" s="66"/>
+      <c r="AN8" s="66"/>
+      <c r="AO8" s="67"/>
+      <c r="AP8" s="67"/>
+      <c r="AQ8" s="67"/>
+      <c r="AR8" s="67"/>
+      <c r="AS8" s="67"/>
+      <c r="AT8" s="67"/>
+      <c r="AU8" s="67"/>
+      <c r="AV8" s="67"/>
+      <c r="AW8" s="67"/>
+      <c r="AX8" s="67"/>
+      <c r="AY8" s="67"/>
+      <c r="AZ8" s="67"/>
+      <c r="BA8" s="67"/>
+      <c r="BB8" s="67"/>
       <c r="BN8" s="8" t="e">
         <f>IF(L8="",IF(AND(#REF!="",L7&lt;&gt;""),");",""),L8)</f>
         <v>#REF!</v>
@@ -1916,63 +1916,63 @@
       </c>
     </row>
     <row r="9" spans="1:123" ht="14.25">
-      <c r="A9" s="23">
+      <c r="A9" s="21">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="37"/>
-      <c r="N9" s="37"/>
-      <c r="O9" s="37"/>
-      <c r="P9" s="37"/>
-      <c r="Q9" s="37"/>
-      <c r="R9" s="37"/>
-      <c r="S9" s="37"/>
-      <c r="T9" s="38"/>
-      <c r="U9" s="32"/>
-      <c r="V9" s="32"/>
-      <c r="W9" s="32"/>
-      <c r="X9" s="32"/>
-      <c r="Y9" s="32"/>
-      <c r="Z9" s="32"/>
-      <c r="AA9" s="32"/>
-      <c r="AB9" s="32"/>
-      <c r="AC9" s="32"/>
-      <c r="AD9" s="32"/>
-      <c r="AE9" s="31"/>
-      <c r="AF9" s="31"/>
-      <c r="AG9" s="31"/>
-      <c r="AH9" s="31"/>
-      <c r="AI9" s="31"/>
-      <c r="AJ9" s="31"/>
-      <c r="AK9" s="31"/>
-      <c r="AL9" s="31"/>
-      <c r="AM9" s="31"/>
-      <c r="AN9" s="31"/>
-      <c r="AO9" s="32"/>
-      <c r="AP9" s="32"/>
-      <c r="AQ9" s="32"/>
-      <c r="AR9" s="32"/>
-      <c r="AS9" s="32"/>
-      <c r="AT9" s="32"/>
-      <c r="AU9" s="32"/>
-      <c r="AV9" s="32"/>
-      <c r="AW9" s="32"/>
-      <c r="AX9" s="32"/>
-      <c r="AY9" s="32"/>
-      <c r="AZ9" s="32"/>
-      <c r="BA9" s="32"/>
-      <c r="BB9" s="32"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="71"/>
+      <c r="M9" s="72"/>
+      <c r="N9" s="72"/>
+      <c r="O9" s="72"/>
+      <c r="P9" s="72"/>
+      <c r="Q9" s="72"/>
+      <c r="R9" s="72"/>
+      <c r="S9" s="72"/>
+      <c r="T9" s="73"/>
+      <c r="U9" s="67"/>
+      <c r="V9" s="67"/>
+      <c r="W9" s="67"/>
+      <c r="X9" s="67"/>
+      <c r="Y9" s="67"/>
+      <c r="Z9" s="67"/>
+      <c r="AA9" s="67"/>
+      <c r="AB9" s="67"/>
+      <c r="AC9" s="67"/>
+      <c r="AD9" s="67"/>
+      <c r="AE9" s="66"/>
+      <c r="AF9" s="66"/>
+      <c r="AG9" s="66"/>
+      <c r="AH9" s="66"/>
+      <c r="AI9" s="66"/>
+      <c r="AJ9" s="66"/>
+      <c r="AK9" s="66"/>
+      <c r="AL9" s="66"/>
+      <c r="AM9" s="66"/>
+      <c r="AN9" s="66"/>
+      <c r="AO9" s="67"/>
+      <c r="AP9" s="67"/>
+      <c r="AQ9" s="67"/>
+      <c r="AR9" s="67"/>
+      <c r="AS9" s="67"/>
+      <c r="AT9" s="67"/>
+      <c r="AU9" s="67"/>
+      <c r="AV9" s="67"/>
+      <c r="AW9" s="67"/>
+      <c r="AX9" s="67"/>
+      <c r="AY9" s="67"/>
+      <c r="AZ9" s="67"/>
+      <c r="BA9" s="67"/>
+      <c r="BB9" s="67"/>
       <c r="BN9" s="8" t="e">
         <f>IF(L9="",IF(AND(L10="",#REF!&lt;&gt;""),");",""),L9)</f>
         <v>#REF!</v>
@@ -2011,63 +2011,63 @@
       </c>
     </row>
     <row r="10" spans="1:123" ht="14.25">
-      <c r="A10" s="23">
+      <c r="A10" s="21">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="34"/>
-      <c r="Q10" s="34"/>
-      <c r="R10" s="34"/>
-      <c r="S10" s="34"/>
-      <c r="T10" s="35"/>
-      <c r="U10" s="32"/>
-      <c r="V10" s="32"/>
-      <c r="W10" s="32"/>
-      <c r="X10" s="32"/>
-      <c r="Y10" s="32"/>
-      <c r="Z10" s="32"/>
-      <c r="AA10" s="32"/>
-      <c r="AB10" s="32"/>
-      <c r="AC10" s="32"/>
-      <c r="AD10" s="32"/>
-      <c r="AE10" s="31"/>
-      <c r="AF10" s="31"/>
-      <c r="AG10" s="31"/>
-      <c r="AH10" s="31"/>
-      <c r="AI10" s="31"/>
-      <c r="AJ10" s="31"/>
-      <c r="AK10" s="31"/>
-      <c r="AL10" s="31"/>
-      <c r="AM10" s="31"/>
-      <c r="AN10" s="31"/>
-      <c r="AO10" s="32"/>
-      <c r="AP10" s="32"/>
-      <c r="AQ10" s="32"/>
-      <c r="AR10" s="32"/>
-      <c r="AS10" s="32"/>
-      <c r="AT10" s="32"/>
-      <c r="AU10" s="32"/>
-      <c r="AV10" s="32"/>
-      <c r="AW10" s="32"/>
-      <c r="AX10" s="32"/>
-      <c r="AY10" s="32"/>
-      <c r="AZ10" s="32"/>
-      <c r="BA10" s="32"/>
-      <c r="BB10" s="32"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="68"/>
+      <c r="M10" s="69"/>
+      <c r="N10" s="69"/>
+      <c r="O10" s="69"/>
+      <c r="P10" s="69"/>
+      <c r="Q10" s="69"/>
+      <c r="R10" s="69"/>
+      <c r="S10" s="69"/>
+      <c r="T10" s="70"/>
+      <c r="U10" s="67"/>
+      <c r="V10" s="67"/>
+      <c r="W10" s="67"/>
+      <c r="X10" s="67"/>
+      <c r="Y10" s="67"/>
+      <c r="Z10" s="67"/>
+      <c r="AA10" s="67"/>
+      <c r="AB10" s="67"/>
+      <c r="AC10" s="67"/>
+      <c r="AD10" s="67"/>
+      <c r="AE10" s="66"/>
+      <c r="AF10" s="66"/>
+      <c r="AG10" s="66"/>
+      <c r="AH10" s="66"/>
+      <c r="AI10" s="66"/>
+      <c r="AJ10" s="66"/>
+      <c r="AK10" s="66"/>
+      <c r="AL10" s="66"/>
+      <c r="AM10" s="66"/>
+      <c r="AN10" s="66"/>
+      <c r="AO10" s="67"/>
+      <c r="AP10" s="67"/>
+      <c r="AQ10" s="67"/>
+      <c r="AR10" s="67"/>
+      <c r="AS10" s="67"/>
+      <c r="AT10" s="67"/>
+      <c r="AU10" s="67"/>
+      <c r="AV10" s="67"/>
+      <c r="AW10" s="67"/>
+      <c r="AX10" s="67"/>
+      <c r="AY10" s="67"/>
+      <c r="AZ10" s="67"/>
+      <c r="BA10" s="67"/>
+      <c r="BB10" s="67"/>
       <c r="BN10" s="8" t="str">
         <f>IF(L10="",IF(AND(L52="",L9&lt;&gt;""),");",""),L10)</f>
         <v/>
@@ -2106,71 +2106,71 @@
       </c>
     </row>
     <row r="11" spans="1:123" s="3" customFormat="1" ht="14.25">
-      <c r="A11" s="27">
+      <c r="A11" s="56">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="28" t="s">
+      <c r="B11" s="56"/>
+      <c r="C11" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="28" t="s">
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="29"/>
-      <c r="P11" s="29"/>
-      <c r="Q11" s="29"/>
-      <c r="R11" s="29"/>
-      <c r="S11" s="29"/>
-      <c r="T11" s="30"/>
-      <c r="U11" s="25" t="s">
+      <c r="M11" s="58"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="58"/>
+      <c r="P11" s="58"/>
+      <c r="Q11" s="58"/>
+      <c r="R11" s="58"/>
+      <c r="S11" s="58"/>
+      <c r="T11" s="59"/>
+      <c r="U11" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="V11" s="25"/>
-      <c r="W11" s="25"/>
-      <c r="X11" s="25"/>
-      <c r="Y11" s="25"/>
-      <c r="Z11" s="25"/>
-      <c r="AA11" s="25"/>
-      <c r="AB11" s="25"/>
-      <c r="AC11" s="25"/>
-      <c r="AD11" s="25"/>
-      <c r="AE11" s="26"/>
-      <c r="AF11" s="26"/>
-      <c r="AG11" s="26"/>
-      <c r="AH11" s="26"/>
-      <c r="AI11" s="26"/>
-      <c r="AJ11" s="26"/>
-      <c r="AK11" s="26"/>
-      <c r="AL11" s="26"/>
-      <c r="AM11" s="26"/>
-      <c r="AN11" s="26"/>
-      <c r="AO11" s="25" t="s">
+      <c r="V11" s="55"/>
+      <c r="W11" s="55"/>
+      <c r="X11" s="55"/>
+      <c r="Y11" s="55"/>
+      <c r="Z11" s="55"/>
+      <c r="AA11" s="55"/>
+      <c r="AB11" s="55"/>
+      <c r="AC11" s="55"/>
+      <c r="AD11" s="55"/>
+      <c r="AE11" s="54"/>
+      <c r="AF11" s="54"/>
+      <c r="AG11" s="54"/>
+      <c r="AH11" s="54"/>
+      <c r="AI11" s="54"/>
+      <c r="AJ11" s="54"/>
+      <c r="AK11" s="54"/>
+      <c r="AL11" s="54"/>
+      <c r="AM11" s="54"/>
+      <c r="AN11" s="54"/>
+      <c r="AO11" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="AP11" s="25"/>
-      <c r="AQ11" s="25"/>
-      <c r="AR11" s="25"/>
-      <c r="AS11" s="25"/>
-      <c r="AT11" s="25"/>
-      <c r="AU11" s="25"/>
-      <c r="AV11" s="25"/>
-      <c r="AW11" s="25"/>
-      <c r="AX11" s="25"/>
-      <c r="AY11" s="25"/>
-      <c r="AZ11" s="25"/>
-      <c r="BA11" s="25"/>
-      <c r="BB11" s="25"/>
+      <c r="AP11" s="55"/>
+      <c r="AQ11" s="55"/>
+      <c r="AR11" s="55"/>
+      <c r="AS11" s="55"/>
+      <c r="AT11" s="55"/>
+      <c r="AU11" s="55"/>
+      <c r="AV11" s="55"/>
+      <c r="AW11" s="55"/>
+      <c r="AX11" s="55"/>
+      <c r="AY11" s="55"/>
+      <c r="AZ11" s="55"/>
+      <c r="BA11" s="55"/>
+      <c r="BB11" s="55"/>
       <c r="BM11" s="10"/>
       <c r="BN11" s="11" t="str">
         <f>IF(L11="",IF(AND(L12="",#REF!&lt;&gt;""),");",""),L11)</f>
@@ -2259,71 +2259,71 @@
       <c r="DS11" s="12"/>
     </row>
     <row r="12" spans="1:123" s="3" customFormat="1" ht="14.25">
-      <c r="A12" s="27">
+      <c r="A12" s="56">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="28" t="s">
+      <c r="B12" s="56"/>
+      <c r="C12" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="28" t="s">
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="59"/>
+      <c r="L12" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="29"/>
-      <c r="R12" s="29"/>
-      <c r="S12" s="29"/>
-      <c r="T12" s="30"/>
-      <c r="U12" s="25" t="s">
+      <c r="M12" s="58"/>
+      <c r="N12" s="58"/>
+      <c r="O12" s="58"/>
+      <c r="P12" s="58"/>
+      <c r="Q12" s="58"/>
+      <c r="R12" s="58"/>
+      <c r="S12" s="58"/>
+      <c r="T12" s="59"/>
+      <c r="U12" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="V12" s="25"/>
-      <c r="W12" s="25"/>
-      <c r="X12" s="25"/>
-      <c r="Y12" s="25"/>
-      <c r="Z12" s="25"/>
-      <c r="AA12" s="25"/>
-      <c r="AB12" s="25"/>
-      <c r="AC12" s="25"/>
-      <c r="AD12" s="25"/>
-      <c r="AE12" s="26"/>
-      <c r="AF12" s="26"/>
-      <c r="AG12" s="26"/>
-      <c r="AH12" s="26"/>
-      <c r="AI12" s="26"/>
-      <c r="AJ12" s="26"/>
-      <c r="AK12" s="26"/>
-      <c r="AL12" s="26"/>
-      <c r="AM12" s="26"/>
-      <c r="AN12" s="26"/>
-      <c r="AO12" s="25" t="s">
+      <c r="V12" s="55"/>
+      <c r="W12" s="55"/>
+      <c r="X12" s="55"/>
+      <c r="Y12" s="55"/>
+      <c r="Z12" s="55"/>
+      <c r="AA12" s="55"/>
+      <c r="AB12" s="55"/>
+      <c r="AC12" s="55"/>
+      <c r="AD12" s="55"/>
+      <c r="AE12" s="54"/>
+      <c r="AF12" s="54"/>
+      <c r="AG12" s="54"/>
+      <c r="AH12" s="54"/>
+      <c r="AI12" s="54"/>
+      <c r="AJ12" s="54"/>
+      <c r="AK12" s="54"/>
+      <c r="AL12" s="54"/>
+      <c r="AM12" s="54"/>
+      <c r="AN12" s="54"/>
+      <c r="AO12" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="AP12" s="25"/>
-      <c r="AQ12" s="25"/>
-      <c r="AR12" s="25"/>
-      <c r="AS12" s="25"/>
-      <c r="AT12" s="25"/>
-      <c r="AU12" s="25"/>
-      <c r="AV12" s="25"/>
-      <c r="AW12" s="25"/>
-      <c r="AX12" s="25"/>
-      <c r="AY12" s="25"/>
-      <c r="AZ12" s="25"/>
-      <c r="BA12" s="25"/>
-      <c r="BB12" s="25"/>
+      <c r="AP12" s="55"/>
+      <c r="AQ12" s="55"/>
+      <c r="AR12" s="55"/>
+      <c r="AS12" s="55"/>
+      <c r="AT12" s="55"/>
+      <c r="AU12" s="55"/>
+      <c r="AV12" s="55"/>
+      <c r="AW12" s="55"/>
+      <c r="AX12" s="55"/>
+      <c r="AY12" s="55"/>
+      <c r="AZ12" s="55"/>
+      <c r="BA12" s="55"/>
+      <c r="BB12" s="55"/>
       <c r="BM12" s="10"/>
       <c r="BN12" s="11" t="str">
         <f>IF(L12="",IF(AND(#REF!="",L11&lt;&gt;""),");",""),L12)</f>
@@ -2412,71 +2412,71 @@
       <c r="DS12" s="12"/>
     </row>
     <row r="13" spans="1:123" s="3" customFormat="1" ht="14.25">
-      <c r="A13" s="27">
+      <c r="A13" s="56">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="28" t="s">
+      <c r="B13" s="56"/>
+      <c r="C13" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="28" t="s">
+      <c r="D13" s="58"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="29"/>
-      <c r="R13" s="29"/>
-      <c r="S13" s="29"/>
-      <c r="T13" s="30"/>
-      <c r="U13" s="25" t="s">
+      <c r="M13" s="58"/>
+      <c r="N13" s="58"/>
+      <c r="O13" s="58"/>
+      <c r="P13" s="58"/>
+      <c r="Q13" s="58"/>
+      <c r="R13" s="58"/>
+      <c r="S13" s="58"/>
+      <c r="T13" s="59"/>
+      <c r="U13" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="V13" s="25"/>
-      <c r="W13" s="25"/>
-      <c r="X13" s="25"/>
-      <c r="Y13" s="25"/>
-      <c r="Z13" s="25"/>
-      <c r="AA13" s="25"/>
-      <c r="AB13" s="25"/>
-      <c r="AC13" s="25"/>
-      <c r="AD13" s="25"/>
-      <c r="AE13" s="26"/>
-      <c r="AF13" s="26"/>
-      <c r="AG13" s="26"/>
-      <c r="AH13" s="26"/>
-      <c r="AI13" s="26"/>
-      <c r="AJ13" s="26"/>
-      <c r="AK13" s="26"/>
-      <c r="AL13" s="26"/>
-      <c r="AM13" s="26"/>
-      <c r="AN13" s="26"/>
-      <c r="AO13" s="25" t="s">
+      <c r="V13" s="55"/>
+      <c r="W13" s="55"/>
+      <c r="X13" s="55"/>
+      <c r="Y13" s="55"/>
+      <c r="Z13" s="55"/>
+      <c r="AA13" s="55"/>
+      <c r="AB13" s="55"/>
+      <c r="AC13" s="55"/>
+      <c r="AD13" s="55"/>
+      <c r="AE13" s="54"/>
+      <c r="AF13" s="54"/>
+      <c r="AG13" s="54"/>
+      <c r="AH13" s="54"/>
+      <c r="AI13" s="54"/>
+      <c r="AJ13" s="54"/>
+      <c r="AK13" s="54"/>
+      <c r="AL13" s="54"/>
+      <c r="AM13" s="54"/>
+      <c r="AN13" s="54"/>
+      <c r="AO13" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="AP13" s="25"/>
-      <c r="AQ13" s="25"/>
-      <c r="AR13" s="25"/>
-      <c r="AS13" s="25"/>
-      <c r="AT13" s="25"/>
-      <c r="AU13" s="25"/>
-      <c r="AV13" s="25"/>
-      <c r="AW13" s="25"/>
-      <c r="AX13" s="25"/>
-      <c r="AY13" s="25"/>
-      <c r="AZ13" s="25"/>
-      <c r="BA13" s="25"/>
-      <c r="BB13" s="25"/>
+      <c r="AP13" s="55"/>
+      <c r="AQ13" s="55"/>
+      <c r="AR13" s="55"/>
+      <c r="AS13" s="55"/>
+      <c r="AT13" s="55"/>
+      <c r="AU13" s="55"/>
+      <c r="AV13" s="55"/>
+      <c r="AW13" s="55"/>
+      <c r="AX13" s="55"/>
+      <c r="AY13" s="55"/>
+      <c r="AZ13" s="55"/>
+      <c r="BA13" s="55"/>
+      <c r="BB13" s="55"/>
       <c r="BM13" s="10"/>
       <c r="BN13" s="11" t="str">
         <f>IF(L13="",IF(AND(L17="",L16&lt;&gt;""),");",""),L13)</f>
@@ -2565,71 +2565,71 @@
       <c r="DS13" s="12"/>
     </row>
     <row r="14" spans="1:123" s="3" customFormat="1" ht="14.25">
-      <c r="A14" s="27">
+      <c r="A14" s="56">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B14" s="27"/>
-      <c r="C14" s="28" t="s">
+      <c r="B14" s="56"/>
+      <c r="C14" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="28" t="s">
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="29"/>
-      <c r="R14" s="29"/>
-      <c r="S14" s="29"/>
-      <c r="T14" s="30"/>
-      <c r="U14" s="25" t="s">
+      <c r="M14" s="58"/>
+      <c r="N14" s="58"/>
+      <c r="O14" s="58"/>
+      <c r="P14" s="58"/>
+      <c r="Q14" s="58"/>
+      <c r="R14" s="58"/>
+      <c r="S14" s="58"/>
+      <c r="T14" s="59"/>
+      <c r="U14" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="V14" s="25"/>
-      <c r="W14" s="25"/>
-      <c r="X14" s="25"/>
-      <c r="Y14" s="25"/>
-      <c r="Z14" s="25"/>
-      <c r="AA14" s="25"/>
-      <c r="AB14" s="25"/>
-      <c r="AC14" s="25"/>
-      <c r="AD14" s="25"/>
-      <c r="AE14" s="26"/>
-      <c r="AF14" s="26"/>
-      <c r="AG14" s="26"/>
-      <c r="AH14" s="26"/>
-      <c r="AI14" s="26"/>
-      <c r="AJ14" s="26"/>
-      <c r="AK14" s="26"/>
-      <c r="AL14" s="26"/>
-      <c r="AM14" s="26"/>
-      <c r="AN14" s="26"/>
-      <c r="AO14" s="25" t="s">
+      <c r="V14" s="55"/>
+      <c r="W14" s="55"/>
+      <c r="X14" s="55"/>
+      <c r="Y14" s="55"/>
+      <c r="Z14" s="55"/>
+      <c r="AA14" s="55"/>
+      <c r="AB14" s="55"/>
+      <c r="AC14" s="55"/>
+      <c r="AD14" s="55"/>
+      <c r="AE14" s="54"/>
+      <c r="AF14" s="54"/>
+      <c r="AG14" s="54"/>
+      <c r="AH14" s="54"/>
+      <c r="AI14" s="54"/>
+      <c r="AJ14" s="54"/>
+      <c r="AK14" s="54"/>
+      <c r="AL14" s="54"/>
+      <c r="AM14" s="54"/>
+      <c r="AN14" s="54"/>
+      <c r="AO14" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="AP14" s="25"/>
-      <c r="AQ14" s="25"/>
-      <c r="AR14" s="25"/>
-      <c r="AS14" s="25"/>
-      <c r="AT14" s="25"/>
-      <c r="AU14" s="25"/>
-      <c r="AV14" s="25"/>
-      <c r="AW14" s="25"/>
-      <c r="AX14" s="25"/>
-      <c r="AY14" s="25"/>
-      <c r="AZ14" s="25"/>
-      <c r="BA14" s="25"/>
-      <c r="BB14" s="25"/>
+      <c r="AP14" s="55"/>
+      <c r="AQ14" s="55"/>
+      <c r="AR14" s="55"/>
+      <c r="AS14" s="55"/>
+      <c r="AT14" s="55"/>
+      <c r="AU14" s="55"/>
+      <c r="AV14" s="55"/>
+      <c r="AW14" s="55"/>
+      <c r="AX14" s="55"/>
+      <c r="AY14" s="55"/>
+      <c r="AZ14" s="55"/>
+      <c r="BA14" s="55"/>
+      <c r="BB14" s="55"/>
       <c r="BM14" s="10"/>
       <c r="BN14" s="11" t="str">
         <f>IF(L14="",IF(AND(L18="",L17&lt;&gt;""),");",""),L14)</f>
@@ -2718,71 +2718,71 @@
       <c r="DS14" s="12"/>
     </row>
     <row r="15" spans="1:123" s="3" customFormat="1" ht="14.25">
-      <c r="A15" s="27">
+      <c r="A15" s="56">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="28" t="s">
+      <c r="B15" s="56"/>
+      <c r="C15" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="28" t="s">
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="29"/>
-      <c r="P15" s="29"/>
-      <c r="Q15" s="29"/>
-      <c r="R15" s="29"/>
-      <c r="S15" s="29"/>
-      <c r="T15" s="30"/>
-      <c r="U15" s="25" t="s">
+      <c r="M15" s="58"/>
+      <c r="N15" s="58"/>
+      <c r="O15" s="58"/>
+      <c r="P15" s="58"/>
+      <c r="Q15" s="58"/>
+      <c r="R15" s="58"/>
+      <c r="S15" s="58"/>
+      <c r="T15" s="59"/>
+      <c r="U15" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="V15" s="25"/>
-      <c r="W15" s="25"/>
-      <c r="X15" s="25"/>
-      <c r="Y15" s="25"/>
-      <c r="Z15" s="25"/>
-      <c r="AA15" s="25"/>
-      <c r="AB15" s="25"/>
-      <c r="AC15" s="25"/>
-      <c r="AD15" s="25"/>
-      <c r="AE15" s="26"/>
-      <c r="AF15" s="26"/>
-      <c r="AG15" s="26"/>
-      <c r="AH15" s="26"/>
-      <c r="AI15" s="26"/>
-      <c r="AJ15" s="26"/>
-      <c r="AK15" s="26"/>
-      <c r="AL15" s="26"/>
-      <c r="AM15" s="26"/>
-      <c r="AN15" s="26"/>
-      <c r="AO15" s="25" t="s">
+      <c r="V15" s="55"/>
+      <c r="W15" s="55"/>
+      <c r="X15" s="55"/>
+      <c r="Y15" s="55"/>
+      <c r="Z15" s="55"/>
+      <c r="AA15" s="55"/>
+      <c r="AB15" s="55"/>
+      <c r="AC15" s="55"/>
+      <c r="AD15" s="55"/>
+      <c r="AE15" s="54"/>
+      <c r="AF15" s="54"/>
+      <c r="AG15" s="54"/>
+      <c r="AH15" s="54"/>
+      <c r="AI15" s="54"/>
+      <c r="AJ15" s="54"/>
+      <c r="AK15" s="54"/>
+      <c r="AL15" s="54"/>
+      <c r="AM15" s="54"/>
+      <c r="AN15" s="54"/>
+      <c r="AO15" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="AP15" s="25"/>
-      <c r="AQ15" s="25"/>
-      <c r="AR15" s="25"/>
-      <c r="AS15" s="25"/>
-      <c r="AT15" s="25"/>
-      <c r="AU15" s="25"/>
-      <c r="AV15" s="25"/>
-      <c r="AW15" s="25"/>
-      <c r="AX15" s="25"/>
-      <c r="AY15" s="25"/>
-      <c r="AZ15" s="25"/>
-      <c r="BA15" s="25"/>
-      <c r="BB15" s="25"/>
+      <c r="AP15" s="55"/>
+      <c r="AQ15" s="55"/>
+      <c r="AR15" s="55"/>
+      <c r="AS15" s="55"/>
+      <c r="AT15" s="55"/>
+      <c r="AU15" s="55"/>
+      <c r="AV15" s="55"/>
+      <c r="AW15" s="55"/>
+      <c r="AX15" s="55"/>
+      <c r="AY15" s="55"/>
+      <c r="AZ15" s="55"/>
+      <c r="BA15" s="55"/>
+      <c r="BB15" s="55"/>
       <c r="BM15" s="10"/>
       <c r="BN15" s="11" t="str">
         <f>IF(L15="",IF(AND(L16="",#REF!&lt;&gt;""),");",""),L15)</f>
@@ -2871,8 +2871,8 @@
       <c r="DS15" s="12"/>
     </row>
     <row r="16" spans="1:123" s="3" customFormat="1" ht="14.25">
-      <c r="A16" s="23"/>
-      <c r="B16" s="23"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
       <c r="C16" s="16"/>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
@@ -2891,40 +2891,40 @@
       <c r="R16" s="17"/>
       <c r="S16" s="17"/>
       <c r="T16" s="18"/>
-      <c r="U16" s="21"/>
-      <c r="V16" s="21"/>
-      <c r="W16" s="21"/>
-      <c r="X16" s="21"/>
-      <c r="Y16" s="21"/>
-      <c r="Z16" s="21"/>
-      <c r="AA16" s="21"/>
-      <c r="AB16" s="21"/>
-      <c r="AC16" s="21"/>
-      <c r="AD16" s="21"/>
-      <c r="AE16" s="22"/>
-      <c r="AF16" s="22"/>
-      <c r="AG16" s="22"/>
-      <c r="AH16" s="22"/>
-      <c r="AI16" s="22"/>
-      <c r="AJ16" s="22"/>
-      <c r="AK16" s="22"/>
-      <c r="AL16" s="22"/>
-      <c r="AM16" s="22"/>
-      <c r="AN16" s="22"/>
-      <c r="AO16" s="21"/>
-      <c r="AP16" s="21"/>
-      <c r="AQ16" s="21"/>
-      <c r="AR16" s="21"/>
-      <c r="AS16" s="21"/>
-      <c r="AT16" s="21"/>
-      <c r="AU16" s="21"/>
-      <c r="AV16" s="21"/>
-      <c r="AW16" s="21"/>
-      <c r="AX16" s="21"/>
-      <c r="AY16" s="21"/>
-      <c r="AZ16" s="21"/>
-      <c r="BA16" s="21"/>
-      <c r="BB16" s="21"/>
+      <c r="U16" s="22"/>
+      <c r="V16" s="22"/>
+      <c r="W16" s="22"/>
+      <c r="X16" s="22"/>
+      <c r="Y16" s="22"/>
+      <c r="Z16" s="22"/>
+      <c r="AA16" s="22"/>
+      <c r="AB16" s="22"/>
+      <c r="AC16" s="22"/>
+      <c r="AD16" s="22"/>
+      <c r="AE16" s="23"/>
+      <c r="AF16" s="23"/>
+      <c r="AG16" s="23"/>
+      <c r="AH16" s="23"/>
+      <c r="AI16" s="23"/>
+      <c r="AJ16" s="23"/>
+      <c r="AK16" s="23"/>
+      <c r="AL16" s="23"/>
+      <c r="AM16" s="23"/>
+      <c r="AN16" s="23"/>
+      <c r="AO16" s="22"/>
+      <c r="AP16" s="22"/>
+      <c r="AQ16" s="22"/>
+      <c r="AR16" s="22"/>
+      <c r="AS16" s="22"/>
+      <c r="AT16" s="22"/>
+      <c r="AU16" s="22"/>
+      <c r="AV16" s="22"/>
+      <c r="AW16" s="22"/>
+      <c r="AX16" s="22"/>
+      <c r="AY16" s="22"/>
+      <c r="AZ16" s="22"/>
+      <c r="BA16" s="22"/>
+      <c r="BB16" s="22"/>
       <c r="BM16" s="10"/>
       <c r="BN16" s="11" t="str">
         <f>IF(L16="",IF(AND(L13="",L15&lt;&gt;""),");",""),L16)</f>
@@ -3013,8 +3013,8 @@
       <c r="DS16" s="12"/>
     </row>
     <row r="17" spans="1:123" s="3" customFormat="1" ht="14.25">
-      <c r="A17" s="23"/>
-      <c r="B17" s="23"/>
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
       <c r="C17" s="16"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
@@ -3033,40 +3033,40 @@
       <c r="R17" s="17"/>
       <c r="S17" s="17"/>
       <c r="T17" s="18"/>
-      <c r="U17" s="21"/>
-      <c r="V17" s="21"/>
-      <c r="W17" s="21"/>
-      <c r="X17" s="21"/>
-      <c r="Y17" s="21"/>
-      <c r="Z17" s="21"/>
-      <c r="AA17" s="21"/>
-      <c r="AB17" s="21"/>
-      <c r="AC17" s="21"/>
-      <c r="AD17" s="21"/>
-      <c r="AE17" s="22"/>
-      <c r="AF17" s="22"/>
-      <c r="AG17" s="22"/>
-      <c r="AH17" s="22"/>
-      <c r="AI17" s="22"/>
-      <c r="AJ17" s="22"/>
-      <c r="AK17" s="22"/>
-      <c r="AL17" s="22"/>
-      <c r="AM17" s="22"/>
-      <c r="AN17" s="22"/>
-      <c r="AO17" s="21"/>
-      <c r="AP17" s="21"/>
-      <c r="AQ17" s="21"/>
-      <c r="AR17" s="21"/>
-      <c r="AS17" s="21"/>
-      <c r="AT17" s="21"/>
-      <c r="AU17" s="21"/>
-      <c r="AV17" s="21"/>
-      <c r="AW17" s="21"/>
-      <c r="AX17" s="21"/>
-      <c r="AY17" s="21"/>
-      <c r="AZ17" s="21"/>
-      <c r="BA17" s="21"/>
-      <c r="BB17" s="21"/>
+      <c r="U17" s="22"/>
+      <c r="V17" s="22"/>
+      <c r="W17" s="22"/>
+      <c r="X17" s="22"/>
+      <c r="Y17" s="22"/>
+      <c r="Z17" s="22"/>
+      <c r="AA17" s="22"/>
+      <c r="AB17" s="22"/>
+      <c r="AC17" s="22"/>
+      <c r="AD17" s="22"/>
+      <c r="AE17" s="23"/>
+      <c r="AF17" s="23"/>
+      <c r="AG17" s="23"/>
+      <c r="AH17" s="23"/>
+      <c r="AI17" s="23"/>
+      <c r="AJ17" s="23"/>
+      <c r="AK17" s="23"/>
+      <c r="AL17" s="23"/>
+      <c r="AM17" s="23"/>
+      <c r="AN17" s="23"/>
+      <c r="AO17" s="22"/>
+      <c r="AP17" s="22"/>
+      <c r="AQ17" s="22"/>
+      <c r="AR17" s="22"/>
+      <c r="AS17" s="22"/>
+      <c r="AT17" s="22"/>
+      <c r="AU17" s="22"/>
+      <c r="AV17" s="22"/>
+      <c r="AW17" s="22"/>
+      <c r="AX17" s="22"/>
+      <c r="AY17" s="22"/>
+      <c r="AZ17" s="22"/>
+      <c r="BA17" s="22"/>
+      <c r="BB17" s="22"/>
       <c r="BM17" s="10"/>
       <c r="BN17" s="11" t="str">
         <f>IF(L17="",IF(AND(L18="",L13&lt;&gt;""),");",""),L17)</f>
@@ -3155,8 +3155,8 @@
       <c r="DS17" s="12"/>
     </row>
     <row r="18" spans="1:123" s="3" customFormat="1" ht="14.25">
-      <c r="A18" s="23"/>
-      <c r="B18" s="23"/>
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
       <c r="C18" s="16"/>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
@@ -3175,40 +3175,40 @@
       <c r="R18" s="17"/>
       <c r="S18" s="17"/>
       <c r="T18" s="18"/>
-      <c r="U18" s="21"/>
-      <c r="V18" s="21"/>
-      <c r="W18" s="21"/>
-      <c r="X18" s="21"/>
-      <c r="Y18" s="21"/>
-      <c r="Z18" s="21"/>
-      <c r="AA18" s="21"/>
-      <c r="AB18" s="21"/>
-      <c r="AC18" s="21"/>
-      <c r="AD18" s="21"/>
-      <c r="AE18" s="22"/>
-      <c r="AF18" s="22"/>
-      <c r="AG18" s="22"/>
-      <c r="AH18" s="22"/>
-      <c r="AI18" s="22"/>
-      <c r="AJ18" s="22"/>
-      <c r="AK18" s="22"/>
-      <c r="AL18" s="22"/>
-      <c r="AM18" s="22"/>
-      <c r="AN18" s="22"/>
-      <c r="AO18" s="21"/>
-      <c r="AP18" s="21"/>
-      <c r="AQ18" s="21"/>
-      <c r="AR18" s="21"/>
-      <c r="AS18" s="21"/>
-      <c r="AT18" s="21"/>
-      <c r="AU18" s="21"/>
-      <c r="AV18" s="21"/>
-      <c r="AW18" s="21"/>
-      <c r="AX18" s="21"/>
-      <c r="AY18" s="21"/>
-      <c r="AZ18" s="21"/>
-      <c r="BA18" s="21"/>
-      <c r="BB18" s="21"/>
+      <c r="U18" s="22"/>
+      <c r="V18" s="22"/>
+      <c r="W18" s="22"/>
+      <c r="X18" s="22"/>
+      <c r="Y18" s="22"/>
+      <c r="Z18" s="22"/>
+      <c r="AA18" s="22"/>
+      <c r="AB18" s="22"/>
+      <c r="AC18" s="22"/>
+      <c r="AD18" s="22"/>
+      <c r="AE18" s="23"/>
+      <c r="AF18" s="23"/>
+      <c r="AG18" s="23"/>
+      <c r="AH18" s="23"/>
+      <c r="AI18" s="23"/>
+      <c r="AJ18" s="23"/>
+      <c r="AK18" s="23"/>
+      <c r="AL18" s="23"/>
+      <c r="AM18" s="23"/>
+      <c r="AN18" s="23"/>
+      <c r="AO18" s="22"/>
+      <c r="AP18" s="22"/>
+      <c r="AQ18" s="22"/>
+      <c r="AR18" s="22"/>
+      <c r="AS18" s="22"/>
+      <c r="AT18" s="22"/>
+      <c r="AU18" s="22"/>
+      <c r="AV18" s="22"/>
+      <c r="AW18" s="22"/>
+      <c r="AX18" s="22"/>
+      <c r="AY18" s="22"/>
+      <c r="AZ18" s="22"/>
+      <c r="BA18" s="22"/>
+      <c r="BB18" s="22"/>
       <c r="BM18" s="10"/>
       <c r="BN18" s="11" t="str">
         <f t="shared" si="1"/>
@@ -3297,8 +3297,8 @@
       <c r="DS18" s="12"/>
     </row>
     <row r="19" spans="1:123" s="3" customFormat="1" ht="14.25">
-      <c r="A19" s="23"/>
-      <c r="B19" s="23"/>
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
       <c r="C19" s="16"/>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
@@ -3317,40 +3317,40 @@
       <c r="R19" s="17"/>
       <c r="S19" s="17"/>
       <c r="T19" s="18"/>
-      <c r="U19" s="21"/>
-      <c r="V19" s="21"/>
-      <c r="W19" s="21"/>
-      <c r="X19" s="21"/>
-      <c r="Y19" s="21"/>
-      <c r="Z19" s="21"/>
-      <c r="AA19" s="21"/>
-      <c r="AB19" s="21"/>
-      <c r="AC19" s="21"/>
-      <c r="AD19" s="21"/>
-      <c r="AE19" s="22"/>
-      <c r="AF19" s="22"/>
-      <c r="AG19" s="22"/>
-      <c r="AH19" s="22"/>
-      <c r="AI19" s="22"/>
-      <c r="AJ19" s="22"/>
-      <c r="AK19" s="22"/>
-      <c r="AL19" s="22"/>
-      <c r="AM19" s="22"/>
-      <c r="AN19" s="22"/>
-      <c r="AO19" s="21"/>
-      <c r="AP19" s="21"/>
-      <c r="AQ19" s="21"/>
-      <c r="AR19" s="21"/>
-      <c r="AS19" s="21"/>
-      <c r="AT19" s="21"/>
-      <c r="AU19" s="21"/>
-      <c r="AV19" s="21"/>
-      <c r="AW19" s="21"/>
-      <c r="AX19" s="21"/>
-      <c r="AY19" s="21"/>
-      <c r="AZ19" s="21"/>
-      <c r="BA19" s="21"/>
-      <c r="BB19" s="21"/>
+      <c r="U19" s="22"/>
+      <c r="V19" s="22"/>
+      <c r="W19" s="22"/>
+      <c r="X19" s="22"/>
+      <c r="Y19" s="22"/>
+      <c r="Z19" s="22"/>
+      <c r="AA19" s="22"/>
+      <c r="AB19" s="22"/>
+      <c r="AC19" s="22"/>
+      <c r="AD19" s="22"/>
+      <c r="AE19" s="23"/>
+      <c r="AF19" s="23"/>
+      <c r="AG19" s="23"/>
+      <c r="AH19" s="23"/>
+      <c r="AI19" s="23"/>
+      <c r="AJ19" s="23"/>
+      <c r="AK19" s="23"/>
+      <c r="AL19" s="23"/>
+      <c r="AM19" s="23"/>
+      <c r="AN19" s="23"/>
+      <c r="AO19" s="22"/>
+      <c r="AP19" s="22"/>
+      <c r="AQ19" s="22"/>
+      <c r="AR19" s="22"/>
+      <c r="AS19" s="22"/>
+      <c r="AT19" s="22"/>
+      <c r="AU19" s="22"/>
+      <c r="AV19" s="22"/>
+      <c r="AW19" s="22"/>
+      <c r="AX19" s="22"/>
+      <c r="AY19" s="22"/>
+      <c r="AZ19" s="22"/>
+      <c r="BA19" s="22"/>
+      <c r="BB19" s="22"/>
       <c r="BM19" s="10"/>
       <c r="BN19" s="11" t="str">
         <f t="shared" si="1"/>
@@ -3439,8 +3439,8 @@
       <c r="DS19" s="12"/>
     </row>
     <row r="20" spans="1:123" s="3" customFormat="1" ht="14.25">
-      <c r="A20" s="23"/>
-      <c r="B20" s="23"/>
+      <c r="A20" s="21"/>
+      <c r="B20" s="21"/>
       <c r="C20" s="16"/>
       <c r="D20" s="17"/>
       <c r="E20" s="17"/>
@@ -3459,40 +3459,40 @@
       <c r="R20" s="17"/>
       <c r="S20" s="17"/>
       <c r="T20" s="18"/>
-      <c r="U20" s="21"/>
-      <c r="V20" s="21"/>
-      <c r="W20" s="21"/>
-      <c r="X20" s="21"/>
-      <c r="Y20" s="21"/>
-      <c r="Z20" s="21"/>
-      <c r="AA20" s="21"/>
-      <c r="AB20" s="21"/>
-      <c r="AC20" s="21"/>
-      <c r="AD20" s="21"/>
-      <c r="AE20" s="22"/>
-      <c r="AF20" s="22"/>
-      <c r="AG20" s="22"/>
-      <c r="AH20" s="22"/>
-      <c r="AI20" s="22"/>
-      <c r="AJ20" s="22"/>
-      <c r="AK20" s="22"/>
-      <c r="AL20" s="22"/>
-      <c r="AM20" s="22"/>
-      <c r="AN20" s="22"/>
-      <c r="AO20" s="21"/>
-      <c r="AP20" s="21"/>
-      <c r="AQ20" s="21"/>
-      <c r="AR20" s="21"/>
-      <c r="AS20" s="21"/>
-      <c r="AT20" s="21"/>
-      <c r="AU20" s="21"/>
-      <c r="AV20" s="21"/>
-      <c r="AW20" s="21"/>
-      <c r="AX20" s="21"/>
-      <c r="AY20" s="21"/>
-      <c r="AZ20" s="21"/>
-      <c r="BA20" s="21"/>
-      <c r="BB20" s="21"/>
+      <c r="U20" s="22"/>
+      <c r="V20" s="22"/>
+      <c r="W20" s="22"/>
+      <c r="X20" s="22"/>
+      <c r="Y20" s="22"/>
+      <c r="Z20" s="22"/>
+      <c r="AA20" s="22"/>
+      <c r="AB20" s="22"/>
+      <c r="AC20" s="22"/>
+      <c r="AD20" s="22"/>
+      <c r="AE20" s="23"/>
+      <c r="AF20" s="23"/>
+      <c r="AG20" s="23"/>
+      <c r="AH20" s="23"/>
+      <c r="AI20" s="23"/>
+      <c r="AJ20" s="23"/>
+      <c r="AK20" s="23"/>
+      <c r="AL20" s="23"/>
+      <c r="AM20" s="23"/>
+      <c r="AN20" s="23"/>
+      <c r="AO20" s="22"/>
+      <c r="AP20" s="22"/>
+      <c r="AQ20" s="22"/>
+      <c r="AR20" s="22"/>
+      <c r="AS20" s="22"/>
+      <c r="AT20" s="22"/>
+      <c r="AU20" s="22"/>
+      <c r="AV20" s="22"/>
+      <c r="AW20" s="22"/>
+      <c r="AX20" s="22"/>
+      <c r="AY20" s="22"/>
+      <c r="AZ20" s="22"/>
+      <c r="BA20" s="22"/>
+      <c r="BB20" s="22"/>
       <c r="BM20" s="10"/>
       <c r="BN20" s="11" t="str">
         <f t="shared" si="1"/>
@@ -3581,8 +3581,8 @@
       <c r="DS20" s="12"/>
     </row>
     <row r="21" spans="1:123" s="3" customFormat="1" ht="14.25">
-      <c r="A21" s="23"/>
-      <c r="B21" s="23"/>
+      <c r="A21" s="21"/>
+      <c r="B21" s="21"/>
       <c r="C21" s="16"/>
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
@@ -3601,40 +3601,40 @@
       <c r="R21" s="17"/>
       <c r="S21" s="17"/>
       <c r="T21" s="18"/>
-      <c r="U21" s="21"/>
-      <c r="V21" s="21"/>
-      <c r="W21" s="21"/>
-      <c r="X21" s="21"/>
-      <c r="Y21" s="21"/>
-      <c r="Z21" s="21"/>
-      <c r="AA21" s="21"/>
-      <c r="AB21" s="21"/>
-      <c r="AC21" s="21"/>
-      <c r="AD21" s="21"/>
-      <c r="AE21" s="22"/>
-      <c r="AF21" s="22"/>
-      <c r="AG21" s="22"/>
-      <c r="AH21" s="22"/>
-      <c r="AI21" s="22"/>
-      <c r="AJ21" s="22"/>
-      <c r="AK21" s="22"/>
-      <c r="AL21" s="22"/>
-      <c r="AM21" s="22"/>
-      <c r="AN21" s="22"/>
-      <c r="AO21" s="21"/>
-      <c r="AP21" s="21"/>
-      <c r="AQ21" s="21"/>
-      <c r="AR21" s="21"/>
-      <c r="AS21" s="21"/>
-      <c r="AT21" s="21"/>
-      <c r="AU21" s="21"/>
-      <c r="AV21" s="21"/>
-      <c r="AW21" s="21"/>
-      <c r="AX21" s="21"/>
-      <c r="AY21" s="21"/>
-      <c r="AZ21" s="21"/>
-      <c r="BA21" s="21"/>
-      <c r="BB21" s="21"/>
+      <c r="U21" s="22"/>
+      <c r="V21" s="22"/>
+      <c r="W21" s="22"/>
+      <c r="X21" s="22"/>
+      <c r="Y21" s="22"/>
+      <c r="Z21" s="22"/>
+      <c r="AA21" s="22"/>
+      <c r="AB21" s="22"/>
+      <c r="AC21" s="22"/>
+      <c r="AD21" s="22"/>
+      <c r="AE21" s="23"/>
+      <c r="AF21" s="23"/>
+      <c r="AG21" s="23"/>
+      <c r="AH21" s="23"/>
+      <c r="AI21" s="23"/>
+      <c r="AJ21" s="23"/>
+      <c r="AK21" s="23"/>
+      <c r="AL21" s="23"/>
+      <c r="AM21" s="23"/>
+      <c r="AN21" s="23"/>
+      <c r="AO21" s="22"/>
+      <c r="AP21" s="22"/>
+      <c r="AQ21" s="22"/>
+      <c r="AR21" s="22"/>
+      <c r="AS21" s="22"/>
+      <c r="AT21" s="22"/>
+      <c r="AU21" s="22"/>
+      <c r="AV21" s="22"/>
+      <c r="AW21" s="22"/>
+      <c r="AX21" s="22"/>
+      <c r="AY21" s="22"/>
+      <c r="AZ21" s="22"/>
+      <c r="BA21" s="22"/>
+      <c r="BB21" s="22"/>
       <c r="BM21" s="10"/>
       <c r="BN21" s="11" t="str">
         <f t="shared" si="1"/>
@@ -3723,8 +3723,8 @@
       <c r="DS21" s="12"/>
     </row>
     <row r="22" spans="1:123" s="3" customFormat="1" ht="14.25">
-      <c r="A22" s="23"/>
-      <c r="B22" s="23"/>
+      <c r="A22" s="21"/>
+      <c r="B22" s="21"/>
       <c r="C22" s="16"/>
       <c r="D22" s="17"/>
       <c r="E22" s="17"/>
@@ -3743,40 +3743,40 @@
       <c r="R22" s="17"/>
       <c r="S22" s="17"/>
       <c r="T22" s="18"/>
-      <c r="U22" s="21"/>
-      <c r="V22" s="21"/>
-      <c r="W22" s="21"/>
-      <c r="X22" s="21"/>
-      <c r="Y22" s="21"/>
-      <c r="Z22" s="21"/>
-      <c r="AA22" s="21"/>
-      <c r="AB22" s="21"/>
-      <c r="AC22" s="21"/>
-      <c r="AD22" s="21"/>
-      <c r="AE22" s="22"/>
-      <c r="AF22" s="22"/>
-      <c r="AG22" s="22"/>
-      <c r="AH22" s="22"/>
-      <c r="AI22" s="22"/>
-      <c r="AJ22" s="22"/>
-      <c r="AK22" s="22"/>
-      <c r="AL22" s="22"/>
-      <c r="AM22" s="22"/>
-      <c r="AN22" s="22"/>
-      <c r="AO22" s="21"/>
-      <c r="AP22" s="21"/>
-      <c r="AQ22" s="21"/>
-      <c r="AR22" s="21"/>
-      <c r="AS22" s="21"/>
-      <c r="AT22" s="21"/>
-      <c r="AU22" s="21"/>
-      <c r="AV22" s="21"/>
-      <c r="AW22" s="21"/>
-      <c r="AX22" s="21"/>
-      <c r="AY22" s="21"/>
-      <c r="AZ22" s="21"/>
-      <c r="BA22" s="21"/>
-      <c r="BB22" s="21"/>
+      <c r="U22" s="22"/>
+      <c r="V22" s="22"/>
+      <c r="W22" s="22"/>
+      <c r="X22" s="22"/>
+      <c r="Y22" s="22"/>
+      <c r="Z22" s="22"/>
+      <c r="AA22" s="22"/>
+      <c r="AB22" s="22"/>
+      <c r="AC22" s="22"/>
+      <c r="AD22" s="22"/>
+      <c r="AE22" s="23"/>
+      <c r="AF22" s="23"/>
+      <c r="AG22" s="23"/>
+      <c r="AH22" s="23"/>
+      <c r="AI22" s="23"/>
+      <c r="AJ22" s="23"/>
+      <c r="AK22" s="23"/>
+      <c r="AL22" s="23"/>
+      <c r="AM22" s="23"/>
+      <c r="AN22" s="23"/>
+      <c r="AO22" s="22"/>
+      <c r="AP22" s="22"/>
+      <c r="AQ22" s="22"/>
+      <c r="AR22" s="22"/>
+      <c r="AS22" s="22"/>
+      <c r="AT22" s="22"/>
+      <c r="AU22" s="22"/>
+      <c r="AV22" s="22"/>
+      <c r="AW22" s="22"/>
+      <c r="AX22" s="22"/>
+      <c r="AY22" s="22"/>
+      <c r="AZ22" s="22"/>
+      <c r="BA22" s="22"/>
+      <c r="BB22" s="22"/>
       <c r="BM22" s="10"/>
       <c r="BN22" s="11" t="str">
         <f>IF(L22="",IF(AND(L24="",L21&lt;&gt;""),");",""),L22)</f>
@@ -3865,8 +3865,8 @@
       <c r="DS22" s="12"/>
     </row>
     <row r="23" spans="1:123" s="3" customFormat="1" ht="14.25">
-      <c r="A23" s="23"/>
-      <c r="B23" s="23"/>
+      <c r="A23" s="21"/>
+      <c r="B23" s="21"/>
       <c r="C23" s="16"/>
       <c r="D23" s="17"/>
       <c r="E23" s="17"/>
@@ -3885,40 +3885,40 @@
       <c r="R23" s="17"/>
       <c r="S23" s="17"/>
       <c r="T23" s="18"/>
-      <c r="U23" s="21"/>
-      <c r="V23" s="21"/>
-      <c r="W23" s="21"/>
-      <c r="X23" s="21"/>
-      <c r="Y23" s="21"/>
-      <c r="Z23" s="21"/>
-      <c r="AA23" s="21"/>
-      <c r="AB23" s="21"/>
-      <c r="AC23" s="21"/>
-      <c r="AD23" s="21"/>
-      <c r="AE23" s="22"/>
-      <c r="AF23" s="22"/>
-      <c r="AG23" s="22"/>
-      <c r="AH23" s="22"/>
-      <c r="AI23" s="22"/>
-      <c r="AJ23" s="22"/>
-      <c r="AK23" s="22"/>
-      <c r="AL23" s="22"/>
-      <c r="AM23" s="22"/>
-      <c r="AN23" s="22"/>
-      <c r="AO23" s="21"/>
-      <c r="AP23" s="21"/>
-      <c r="AQ23" s="21"/>
-      <c r="AR23" s="21"/>
-      <c r="AS23" s="21"/>
-      <c r="AT23" s="21"/>
-      <c r="AU23" s="21"/>
-      <c r="AV23" s="21"/>
-      <c r="AW23" s="21"/>
-      <c r="AX23" s="21"/>
-      <c r="AY23" s="21"/>
-      <c r="AZ23" s="21"/>
-      <c r="BA23" s="21"/>
-      <c r="BB23" s="21"/>
+      <c r="U23" s="22"/>
+      <c r="V23" s="22"/>
+      <c r="W23" s="22"/>
+      <c r="X23" s="22"/>
+      <c r="Y23" s="22"/>
+      <c r="Z23" s="22"/>
+      <c r="AA23" s="22"/>
+      <c r="AB23" s="22"/>
+      <c r="AC23" s="22"/>
+      <c r="AD23" s="22"/>
+      <c r="AE23" s="23"/>
+      <c r="AF23" s="23"/>
+      <c r="AG23" s="23"/>
+      <c r="AH23" s="23"/>
+      <c r="AI23" s="23"/>
+      <c r="AJ23" s="23"/>
+      <c r="AK23" s="23"/>
+      <c r="AL23" s="23"/>
+      <c r="AM23" s="23"/>
+      <c r="AN23" s="23"/>
+      <c r="AO23" s="22"/>
+      <c r="AP23" s="22"/>
+      <c r="AQ23" s="22"/>
+      <c r="AR23" s="22"/>
+      <c r="AS23" s="22"/>
+      <c r="AT23" s="22"/>
+      <c r="AU23" s="22"/>
+      <c r="AV23" s="22"/>
+      <c r="AW23" s="22"/>
+      <c r="AX23" s="22"/>
+      <c r="AY23" s="22"/>
+      <c r="AZ23" s="22"/>
+      <c r="BA23" s="22"/>
+      <c r="BB23" s="22"/>
       <c r="BM23" s="10"/>
       <c r="BN23" s="11" t="str">
         <f>IF(L23="",IF(AND(L24="",L21&lt;&gt;""),");",""),L23)</f>
@@ -4007,8 +4007,8 @@
       <c r="DS23" s="12"/>
     </row>
     <row r="24" spans="1:123" s="3" customFormat="1" ht="14.25">
-      <c r="A24" s="23"/>
-      <c r="B24" s="23"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="21"/>
       <c r="C24" s="16"/>
       <c r="D24" s="17"/>
       <c r="E24" s="17"/>
@@ -4027,40 +4027,40 @@
       <c r="R24" s="17"/>
       <c r="S24" s="17"/>
       <c r="T24" s="18"/>
-      <c r="U24" s="21"/>
-      <c r="V24" s="21"/>
-      <c r="W24" s="21"/>
-      <c r="X24" s="21"/>
-      <c r="Y24" s="21"/>
-      <c r="Z24" s="21"/>
-      <c r="AA24" s="21"/>
-      <c r="AB24" s="21"/>
-      <c r="AC24" s="21"/>
-      <c r="AD24" s="21"/>
-      <c r="AE24" s="22"/>
-      <c r="AF24" s="22"/>
-      <c r="AG24" s="22"/>
-      <c r="AH24" s="22"/>
-      <c r="AI24" s="22"/>
-      <c r="AJ24" s="22"/>
-      <c r="AK24" s="22"/>
-      <c r="AL24" s="22"/>
-      <c r="AM24" s="22"/>
-      <c r="AN24" s="22"/>
-      <c r="AO24" s="21"/>
-      <c r="AP24" s="21"/>
-      <c r="AQ24" s="21"/>
-      <c r="AR24" s="21"/>
-      <c r="AS24" s="21"/>
-      <c r="AT24" s="21"/>
-      <c r="AU24" s="21"/>
-      <c r="AV24" s="21"/>
-      <c r="AW24" s="21"/>
-      <c r="AX24" s="21"/>
-      <c r="AY24" s="21"/>
-      <c r="AZ24" s="21"/>
-      <c r="BA24" s="21"/>
-      <c r="BB24" s="21"/>
+      <c r="U24" s="22"/>
+      <c r="V24" s="22"/>
+      <c r="W24" s="22"/>
+      <c r="X24" s="22"/>
+      <c r="Y24" s="22"/>
+      <c r="Z24" s="22"/>
+      <c r="AA24" s="22"/>
+      <c r="AB24" s="22"/>
+      <c r="AC24" s="22"/>
+      <c r="AD24" s="22"/>
+      <c r="AE24" s="23"/>
+      <c r="AF24" s="23"/>
+      <c r="AG24" s="23"/>
+      <c r="AH24" s="23"/>
+      <c r="AI24" s="23"/>
+      <c r="AJ24" s="23"/>
+      <c r="AK24" s="23"/>
+      <c r="AL24" s="23"/>
+      <c r="AM24" s="23"/>
+      <c r="AN24" s="23"/>
+      <c r="AO24" s="22"/>
+      <c r="AP24" s="22"/>
+      <c r="AQ24" s="22"/>
+      <c r="AR24" s="22"/>
+      <c r="AS24" s="22"/>
+      <c r="AT24" s="22"/>
+      <c r="AU24" s="22"/>
+      <c r="AV24" s="22"/>
+      <c r="AW24" s="22"/>
+      <c r="AX24" s="22"/>
+      <c r="AY24" s="22"/>
+      <c r="AZ24" s="22"/>
+      <c r="BA24" s="22"/>
+      <c r="BB24" s="22"/>
       <c r="BM24" s="10"/>
       <c r="BN24" s="11" t="str">
         <f>IF(L24="",IF(AND(L25="",L22&lt;&gt;""),");",""),L24)</f>
@@ -4149,8 +4149,8 @@
       <c r="DS24" s="12"/>
     </row>
     <row r="25" spans="1:123" s="3" customFormat="1" ht="14.25">
-      <c r="A25" s="23"/>
-      <c r="B25" s="23"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="21"/>
       <c r="C25" s="16"/>
       <c r="D25" s="17"/>
       <c r="E25" s="17"/>
@@ -4169,40 +4169,40 @@
       <c r="R25" s="17"/>
       <c r="S25" s="17"/>
       <c r="T25" s="18"/>
-      <c r="U25" s="21"/>
-      <c r="V25" s="21"/>
-      <c r="W25" s="21"/>
-      <c r="X25" s="21"/>
-      <c r="Y25" s="21"/>
-      <c r="Z25" s="21"/>
-      <c r="AA25" s="21"/>
-      <c r="AB25" s="21"/>
-      <c r="AC25" s="21"/>
-      <c r="AD25" s="21"/>
-      <c r="AE25" s="22"/>
-      <c r="AF25" s="22"/>
-      <c r="AG25" s="22"/>
-      <c r="AH25" s="22"/>
-      <c r="AI25" s="22"/>
-      <c r="AJ25" s="22"/>
-      <c r="AK25" s="22"/>
-      <c r="AL25" s="22"/>
-      <c r="AM25" s="22"/>
-      <c r="AN25" s="22"/>
-      <c r="AO25" s="21"/>
-      <c r="AP25" s="21"/>
-      <c r="AQ25" s="21"/>
-      <c r="AR25" s="21"/>
-      <c r="AS25" s="21"/>
-      <c r="AT25" s="21"/>
-      <c r="AU25" s="21"/>
-      <c r="AV25" s="21"/>
-      <c r="AW25" s="21"/>
-      <c r="AX25" s="21"/>
-      <c r="AY25" s="21"/>
-      <c r="AZ25" s="21"/>
-      <c r="BA25" s="21"/>
-      <c r="BB25" s="21"/>
+      <c r="U25" s="22"/>
+      <c r="V25" s="22"/>
+      <c r="W25" s="22"/>
+      <c r="X25" s="22"/>
+      <c r="Y25" s="22"/>
+      <c r="Z25" s="22"/>
+      <c r="AA25" s="22"/>
+      <c r="AB25" s="22"/>
+      <c r="AC25" s="22"/>
+      <c r="AD25" s="22"/>
+      <c r="AE25" s="23"/>
+      <c r="AF25" s="23"/>
+      <c r="AG25" s="23"/>
+      <c r="AH25" s="23"/>
+      <c r="AI25" s="23"/>
+      <c r="AJ25" s="23"/>
+      <c r="AK25" s="23"/>
+      <c r="AL25" s="23"/>
+      <c r="AM25" s="23"/>
+      <c r="AN25" s="23"/>
+      <c r="AO25" s="22"/>
+      <c r="AP25" s="22"/>
+      <c r="AQ25" s="22"/>
+      <c r="AR25" s="22"/>
+      <c r="AS25" s="22"/>
+      <c r="AT25" s="22"/>
+      <c r="AU25" s="22"/>
+      <c r="AV25" s="22"/>
+      <c r="AW25" s="22"/>
+      <c r="AX25" s="22"/>
+      <c r="AY25" s="22"/>
+      <c r="AZ25" s="22"/>
+      <c r="BA25" s="22"/>
+      <c r="BB25" s="22"/>
       <c r="BM25" s="10"/>
       <c r="BN25" s="11" t="str">
         <f t="shared" si="1"/>
@@ -4291,8 +4291,8 @@
       <c r="DS25" s="12"/>
     </row>
     <row r="26" spans="1:123" s="3" customFormat="1" ht="14.25">
-      <c r="A26" s="23"/>
-      <c r="B26" s="23"/>
+      <c r="A26" s="21"/>
+      <c r="B26" s="21"/>
       <c r="C26" s="16"/>
       <c r="D26" s="17"/>
       <c r="E26" s="17"/>
@@ -4311,40 +4311,40 @@
       <c r="R26" s="17"/>
       <c r="S26" s="17"/>
       <c r="T26" s="18"/>
-      <c r="U26" s="21"/>
-      <c r="V26" s="21"/>
-      <c r="W26" s="21"/>
-      <c r="X26" s="21"/>
-      <c r="Y26" s="21"/>
-      <c r="Z26" s="21"/>
-      <c r="AA26" s="21"/>
-      <c r="AB26" s="21"/>
-      <c r="AC26" s="21"/>
-      <c r="AD26" s="21"/>
-      <c r="AE26" s="22"/>
-      <c r="AF26" s="22"/>
-      <c r="AG26" s="22"/>
-      <c r="AH26" s="22"/>
-      <c r="AI26" s="22"/>
-      <c r="AJ26" s="22"/>
-      <c r="AK26" s="22"/>
-      <c r="AL26" s="22"/>
-      <c r="AM26" s="22"/>
-      <c r="AN26" s="22"/>
-      <c r="AO26" s="21"/>
-      <c r="AP26" s="21"/>
-      <c r="AQ26" s="21"/>
-      <c r="AR26" s="21"/>
-      <c r="AS26" s="21"/>
-      <c r="AT26" s="21"/>
-      <c r="AU26" s="21"/>
-      <c r="AV26" s="21"/>
-      <c r="AW26" s="21"/>
-      <c r="AX26" s="21"/>
-      <c r="AY26" s="21"/>
-      <c r="AZ26" s="21"/>
-      <c r="BA26" s="21"/>
-      <c r="BB26" s="21"/>
+      <c r="U26" s="22"/>
+      <c r="V26" s="22"/>
+      <c r="W26" s="22"/>
+      <c r="X26" s="22"/>
+      <c r="Y26" s="22"/>
+      <c r="Z26" s="22"/>
+      <c r="AA26" s="22"/>
+      <c r="AB26" s="22"/>
+      <c r="AC26" s="22"/>
+      <c r="AD26" s="22"/>
+      <c r="AE26" s="23"/>
+      <c r="AF26" s="23"/>
+      <c r="AG26" s="23"/>
+      <c r="AH26" s="23"/>
+      <c r="AI26" s="23"/>
+      <c r="AJ26" s="23"/>
+      <c r="AK26" s="23"/>
+      <c r="AL26" s="23"/>
+      <c r="AM26" s="23"/>
+      <c r="AN26" s="23"/>
+      <c r="AO26" s="22"/>
+      <c r="AP26" s="22"/>
+      <c r="AQ26" s="22"/>
+      <c r="AR26" s="22"/>
+      <c r="AS26" s="22"/>
+      <c r="AT26" s="22"/>
+      <c r="AU26" s="22"/>
+      <c r="AV26" s="22"/>
+      <c r="AW26" s="22"/>
+      <c r="AX26" s="22"/>
+      <c r="AY26" s="22"/>
+      <c r="AZ26" s="22"/>
+      <c r="BA26" s="22"/>
+      <c r="BB26" s="22"/>
       <c r="BM26" s="13"/>
       <c r="BN26" s="11" t="str">
         <f t="shared" si="1"/>
@@ -4433,8 +4433,8 @@
       <c r="DS26" s="12"/>
     </row>
     <row r="27" spans="1:123" s="3" customFormat="1" ht="14.25">
-      <c r="A27" s="23"/>
-      <c r="B27" s="23"/>
+      <c r="A27" s="21"/>
+      <c r="B27" s="21"/>
       <c r="C27" s="16"/>
       <c r="D27" s="17"/>
       <c r="E27" s="17"/>
@@ -4453,40 +4453,40 @@
       <c r="R27" s="17"/>
       <c r="S27" s="17"/>
       <c r="T27" s="18"/>
-      <c r="U27" s="21"/>
-      <c r="V27" s="21"/>
-      <c r="W27" s="21"/>
-      <c r="X27" s="21"/>
-      <c r="Y27" s="21"/>
-      <c r="Z27" s="21"/>
-      <c r="AA27" s="21"/>
-      <c r="AB27" s="21"/>
-      <c r="AC27" s="21"/>
-      <c r="AD27" s="21"/>
-      <c r="AE27" s="22"/>
-      <c r="AF27" s="22"/>
-      <c r="AG27" s="22"/>
-      <c r="AH27" s="22"/>
-      <c r="AI27" s="22"/>
-      <c r="AJ27" s="22"/>
-      <c r="AK27" s="22"/>
-      <c r="AL27" s="22"/>
-      <c r="AM27" s="22"/>
-      <c r="AN27" s="22"/>
-      <c r="AO27" s="21"/>
-      <c r="AP27" s="21"/>
-      <c r="AQ27" s="21"/>
-      <c r="AR27" s="21"/>
-      <c r="AS27" s="21"/>
-      <c r="AT27" s="21"/>
-      <c r="AU27" s="21"/>
-      <c r="AV27" s="21"/>
-      <c r="AW27" s="21"/>
-      <c r="AX27" s="21"/>
-      <c r="AY27" s="21"/>
-      <c r="AZ27" s="21"/>
-      <c r="BA27" s="21"/>
-      <c r="BB27" s="21"/>
+      <c r="U27" s="22"/>
+      <c r="V27" s="22"/>
+      <c r="W27" s="22"/>
+      <c r="X27" s="22"/>
+      <c r="Y27" s="22"/>
+      <c r="Z27" s="22"/>
+      <c r="AA27" s="22"/>
+      <c r="AB27" s="22"/>
+      <c r="AC27" s="22"/>
+      <c r="AD27" s="22"/>
+      <c r="AE27" s="23"/>
+      <c r="AF27" s="23"/>
+      <c r="AG27" s="23"/>
+      <c r="AH27" s="23"/>
+      <c r="AI27" s="23"/>
+      <c r="AJ27" s="23"/>
+      <c r="AK27" s="23"/>
+      <c r="AL27" s="23"/>
+      <c r="AM27" s="23"/>
+      <c r="AN27" s="23"/>
+      <c r="AO27" s="22"/>
+      <c r="AP27" s="22"/>
+      <c r="AQ27" s="22"/>
+      <c r="AR27" s="22"/>
+      <c r="AS27" s="22"/>
+      <c r="AT27" s="22"/>
+      <c r="AU27" s="22"/>
+      <c r="AV27" s="22"/>
+      <c r="AW27" s="22"/>
+      <c r="AX27" s="22"/>
+      <c r="AY27" s="22"/>
+      <c r="AZ27" s="22"/>
+      <c r="BA27" s="22"/>
+      <c r="BB27" s="22"/>
       <c r="BM27" s="10"/>
       <c r="BN27" s="11" t="str">
         <f t="shared" ref="BN27:BN85" si="25">IF(L27="",IF(AND(L28="",L26&lt;&gt;""),");",""),""""&amp;L27&amp;"""")</f>
@@ -4575,8 +4575,8 @@
       <c r="DS27" s="12"/>
     </row>
     <row r="28" spans="1:123" s="3" customFormat="1" ht="14.25">
-      <c r="A28" s="23"/>
-      <c r="B28" s="23"/>
+      <c r="A28" s="21"/>
+      <c r="B28" s="21"/>
       <c r="C28" s="16"/>
       <c r="D28" s="17"/>
       <c r="E28" s="17"/>
@@ -4595,40 +4595,40 @@
       <c r="R28" s="17"/>
       <c r="S28" s="17"/>
       <c r="T28" s="18"/>
-      <c r="U28" s="21"/>
-      <c r="V28" s="21"/>
-      <c r="W28" s="21"/>
-      <c r="X28" s="21"/>
-      <c r="Y28" s="21"/>
-      <c r="Z28" s="21"/>
-      <c r="AA28" s="21"/>
-      <c r="AB28" s="21"/>
-      <c r="AC28" s="21"/>
-      <c r="AD28" s="21"/>
-      <c r="AE28" s="22"/>
-      <c r="AF28" s="22"/>
-      <c r="AG28" s="22"/>
-      <c r="AH28" s="22"/>
-      <c r="AI28" s="22"/>
-      <c r="AJ28" s="22"/>
-      <c r="AK28" s="22"/>
-      <c r="AL28" s="22"/>
-      <c r="AM28" s="22"/>
-      <c r="AN28" s="22"/>
-      <c r="AO28" s="21"/>
-      <c r="AP28" s="21"/>
-      <c r="AQ28" s="21"/>
-      <c r="AR28" s="21"/>
-      <c r="AS28" s="21"/>
-      <c r="AT28" s="21"/>
-      <c r="AU28" s="21"/>
-      <c r="AV28" s="21"/>
-      <c r="AW28" s="21"/>
-      <c r="AX28" s="21"/>
-      <c r="AY28" s="21"/>
-      <c r="AZ28" s="21"/>
-      <c r="BA28" s="21"/>
-      <c r="BB28" s="21"/>
+      <c r="U28" s="22"/>
+      <c r="V28" s="22"/>
+      <c r="W28" s="22"/>
+      <c r="X28" s="22"/>
+      <c r="Y28" s="22"/>
+      <c r="Z28" s="22"/>
+      <c r="AA28" s="22"/>
+      <c r="AB28" s="22"/>
+      <c r="AC28" s="22"/>
+      <c r="AD28" s="22"/>
+      <c r="AE28" s="23"/>
+      <c r="AF28" s="23"/>
+      <c r="AG28" s="23"/>
+      <c r="AH28" s="23"/>
+      <c r="AI28" s="23"/>
+      <c r="AJ28" s="23"/>
+      <c r="AK28" s="23"/>
+      <c r="AL28" s="23"/>
+      <c r="AM28" s="23"/>
+      <c r="AN28" s="23"/>
+      <c r="AO28" s="22"/>
+      <c r="AP28" s="22"/>
+      <c r="AQ28" s="22"/>
+      <c r="AR28" s="22"/>
+      <c r="AS28" s="22"/>
+      <c r="AT28" s="22"/>
+      <c r="AU28" s="22"/>
+      <c r="AV28" s="22"/>
+      <c r="AW28" s="22"/>
+      <c r="AX28" s="22"/>
+      <c r="AY28" s="22"/>
+      <c r="AZ28" s="22"/>
+      <c r="BA28" s="22"/>
+      <c r="BB28" s="22"/>
       <c r="BM28" s="10"/>
       <c r="BN28" s="11" t="str">
         <f t="shared" si="25"/>
@@ -4717,8 +4717,8 @@
       <c r="DS28" s="12"/>
     </row>
     <row r="29" spans="1:123" s="3" customFormat="1" ht="14.25">
-      <c r="A29" s="23"/>
-      <c r="B29" s="23"/>
+      <c r="A29" s="21"/>
+      <c r="B29" s="21"/>
       <c r="C29" s="16"/>
       <c r="D29" s="17"/>
       <c r="E29" s="17"/>
@@ -4737,40 +4737,40 @@
       <c r="R29" s="17"/>
       <c r="S29" s="17"/>
       <c r="T29" s="18"/>
-      <c r="U29" s="21"/>
-      <c r="V29" s="21"/>
-      <c r="W29" s="21"/>
-      <c r="X29" s="21"/>
-      <c r="Y29" s="21"/>
-      <c r="Z29" s="21"/>
-      <c r="AA29" s="21"/>
-      <c r="AB29" s="21"/>
-      <c r="AC29" s="21"/>
-      <c r="AD29" s="21"/>
-      <c r="AE29" s="22"/>
-      <c r="AF29" s="22"/>
-      <c r="AG29" s="22"/>
-      <c r="AH29" s="22"/>
-      <c r="AI29" s="22"/>
-      <c r="AJ29" s="22"/>
-      <c r="AK29" s="22"/>
-      <c r="AL29" s="22"/>
-      <c r="AM29" s="22"/>
-      <c r="AN29" s="22"/>
-      <c r="AO29" s="21"/>
-      <c r="AP29" s="21"/>
-      <c r="AQ29" s="21"/>
-      <c r="AR29" s="21"/>
-      <c r="AS29" s="21"/>
-      <c r="AT29" s="21"/>
-      <c r="AU29" s="21"/>
-      <c r="AV29" s="21"/>
-      <c r="AW29" s="21"/>
-      <c r="AX29" s="21"/>
-      <c r="AY29" s="21"/>
-      <c r="AZ29" s="21"/>
-      <c r="BA29" s="21"/>
-      <c r="BB29" s="21"/>
+      <c r="U29" s="22"/>
+      <c r="V29" s="22"/>
+      <c r="W29" s="22"/>
+      <c r="X29" s="22"/>
+      <c r="Y29" s="22"/>
+      <c r="Z29" s="22"/>
+      <c r="AA29" s="22"/>
+      <c r="AB29" s="22"/>
+      <c r="AC29" s="22"/>
+      <c r="AD29" s="22"/>
+      <c r="AE29" s="23"/>
+      <c r="AF29" s="23"/>
+      <c r="AG29" s="23"/>
+      <c r="AH29" s="23"/>
+      <c r="AI29" s="23"/>
+      <c r="AJ29" s="23"/>
+      <c r="AK29" s="23"/>
+      <c r="AL29" s="23"/>
+      <c r="AM29" s="23"/>
+      <c r="AN29" s="23"/>
+      <c r="AO29" s="22"/>
+      <c r="AP29" s="22"/>
+      <c r="AQ29" s="22"/>
+      <c r="AR29" s="22"/>
+      <c r="AS29" s="22"/>
+      <c r="AT29" s="22"/>
+      <c r="AU29" s="22"/>
+      <c r="AV29" s="22"/>
+      <c r="AW29" s="22"/>
+      <c r="AX29" s="22"/>
+      <c r="AY29" s="22"/>
+      <c r="AZ29" s="22"/>
+      <c r="BA29" s="22"/>
+      <c r="BB29" s="22"/>
       <c r="BM29" s="10"/>
       <c r="BN29" s="11" t="str">
         <f t="shared" si="25"/>
@@ -4859,8 +4859,8 @@
       <c r="DS29" s="12"/>
     </row>
     <row r="30" spans="1:123" s="3" customFormat="1" ht="14.25">
-      <c r="A30" s="23"/>
-      <c r="B30" s="23"/>
+      <c r="A30" s="21"/>
+      <c r="B30" s="21"/>
       <c r="C30" s="16"/>
       <c r="D30" s="17"/>
       <c r="E30" s="17"/>
@@ -4879,40 +4879,40 @@
       <c r="R30" s="17"/>
       <c r="S30" s="17"/>
       <c r="T30" s="18"/>
-      <c r="U30" s="21"/>
-      <c r="V30" s="21"/>
-      <c r="W30" s="21"/>
-      <c r="X30" s="21"/>
-      <c r="Y30" s="21"/>
-      <c r="Z30" s="21"/>
-      <c r="AA30" s="21"/>
-      <c r="AB30" s="21"/>
-      <c r="AC30" s="21"/>
-      <c r="AD30" s="21"/>
-      <c r="AE30" s="22"/>
-      <c r="AF30" s="22"/>
-      <c r="AG30" s="22"/>
-      <c r="AH30" s="22"/>
-      <c r="AI30" s="22"/>
-      <c r="AJ30" s="22"/>
-      <c r="AK30" s="22"/>
-      <c r="AL30" s="22"/>
-      <c r="AM30" s="22"/>
-      <c r="AN30" s="22"/>
-      <c r="AO30" s="21"/>
-      <c r="AP30" s="21"/>
-      <c r="AQ30" s="21"/>
-      <c r="AR30" s="21"/>
-      <c r="AS30" s="21"/>
-      <c r="AT30" s="21"/>
-      <c r="AU30" s="21"/>
-      <c r="AV30" s="21"/>
-      <c r="AW30" s="21"/>
-      <c r="AX30" s="21"/>
-      <c r="AY30" s="21"/>
-      <c r="AZ30" s="21"/>
-      <c r="BA30" s="21"/>
-      <c r="BB30" s="21"/>
+      <c r="U30" s="22"/>
+      <c r="V30" s="22"/>
+      <c r="W30" s="22"/>
+      <c r="X30" s="22"/>
+      <c r="Y30" s="22"/>
+      <c r="Z30" s="22"/>
+      <c r="AA30" s="22"/>
+      <c r="AB30" s="22"/>
+      <c r="AC30" s="22"/>
+      <c r="AD30" s="22"/>
+      <c r="AE30" s="23"/>
+      <c r="AF30" s="23"/>
+      <c r="AG30" s="23"/>
+      <c r="AH30" s="23"/>
+      <c r="AI30" s="23"/>
+      <c r="AJ30" s="23"/>
+      <c r="AK30" s="23"/>
+      <c r="AL30" s="23"/>
+      <c r="AM30" s="23"/>
+      <c r="AN30" s="23"/>
+      <c r="AO30" s="22"/>
+      <c r="AP30" s="22"/>
+      <c r="AQ30" s="22"/>
+      <c r="AR30" s="22"/>
+      <c r="AS30" s="22"/>
+      <c r="AT30" s="22"/>
+      <c r="AU30" s="22"/>
+      <c r="AV30" s="22"/>
+      <c r="AW30" s="22"/>
+      <c r="AX30" s="22"/>
+      <c r="AY30" s="22"/>
+      <c r="AZ30" s="22"/>
+      <c r="BA30" s="22"/>
+      <c r="BB30" s="22"/>
       <c r="BM30" s="10"/>
       <c r="BN30" s="11" t="str">
         <f t="shared" si="25"/>
@@ -5001,8 +5001,8 @@
       <c r="DS30" s="12"/>
     </row>
     <row r="31" spans="1:123" s="3" customFormat="1" ht="14.25">
-      <c r="A31" s="23"/>
-      <c r="B31" s="23"/>
+      <c r="A31" s="21"/>
+      <c r="B31" s="21"/>
       <c r="C31" s="16"/>
       <c r="D31" s="17"/>
       <c r="E31" s="17"/>
@@ -5021,40 +5021,40 @@
       <c r="R31" s="17"/>
       <c r="S31" s="17"/>
       <c r="T31" s="18"/>
-      <c r="U31" s="21"/>
-      <c r="V31" s="21"/>
-      <c r="W31" s="21"/>
-      <c r="X31" s="21"/>
-      <c r="Y31" s="21"/>
-      <c r="Z31" s="21"/>
-      <c r="AA31" s="21"/>
-      <c r="AB31" s="21"/>
-      <c r="AC31" s="21"/>
-      <c r="AD31" s="21"/>
-      <c r="AE31" s="22"/>
-      <c r="AF31" s="22"/>
-      <c r="AG31" s="22"/>
-      <c r="AH31" s="22"/>
-      <c r="AI31" s="22"/>
-      <c r="AJ31" s="22"/>
-      <c r="AK31" s="22"/>
-      <c r="AL31" s="22"/>
-      <c r="AM31" s="22"/>
-      <c r="AN31" s="22"/>
-      <c r="AO31" s="21"/>
-      <c r="AP31" s="21"/>
-      <c r="AQ31" s="21"/>
-      <c r="AR31" s="21"/>
-      <c r="AS31" s="21"/>
-      <c r="AT31" s="21"/>
-      <c r="AU31" s="21"/>
-      <c r="AV31" s="21"/>
-      <c r="AW31" s="21"/>
-      <c r="AX31" s="21"/>
-      <c r="AY31" s="21"/>
-      <c r="AZ31" s="21"/>
-      <c r="BA31" s="21"/>
-      <c r="BB31" s="21"/>
+      <c r="U31" s="22"/>
+      <c r="V31" s="22"/>
+      <c r="W31" s="22"/>
+      <c r="X31" s="22"/>
+      <c r="Y31" s="22"/>
+      <c r="Z31" s="22"/>
+      <c r="AA31" s="22"/>
+      <c r="AB31" s="22"/>
+      <c r="AC31" s="22"/>
+      <c r="AD31" s="22"/>
+      <c r="AE31" s="23"/>
+      <c r="AF31" s="23"/>
+      <c r="AG31" s="23"/>
+      <c r="AH31" s="23"/>
+      <c r="AI31" s="23"/>
+      <c r="AJ31" s="23"/>
+      <c r="AK31" s="23"/>
+      <c r="AL31" s="23"/>
+      <c r="AM31" s="23"/>
+      <c r="AN31" s="23"/>
+      <c r="AO31" s="22"/>
+      <c r="AP31" s="22"/>
+      <c r="AQ31" s="22"/>
+      <c r="AR31" s="22"/>
+      <c r="AS31" s="22"/>
+      <c r="AT31" s="22"/>
+      <c r="AU31" s="22"/>
+      <c r="AV31" s="22"/>
+      <c r="AW31" s="22"/>
+      <c r="AX31" s="22"/>
+      <c r="AY31" s="22"/>
+      <c r="AZ31" s="22"/>
+      <c r="BA31" s="22"/>
+      <c r="BB31" s="22"/>
       <c r="BM31" s="10"/>
       <c r="BN31" s="11" t="str">
         <f t="shared" si="25"/>
@@ -5143,8 +5143,8 @@
       <c r="DS31" s="12"/>
     </row>
     <row r="32" spans="1:123" s="3" customFormat="1" ht="14.25">
-      <c r="A32" s="23"/>
-      <c r="B32" s="23"/>
+      <c r="A32" s="21"/>
+      <c r="B32" s="21"/>
       <c r="C32" s="16"/>
       <c r="D32" s="17"/>
       <c r="E32" s="17"/>
@@ -5163,40 +5163,40 @@
       <c r="R32" s="17"/>
       <c r="S32" s="17"/>
       <c r="T32" s="18"/>
-      <c r="U32" s="21"/>
-      <c r="V32" s="21"/>
-      <c r="W32" s="21"/>
-      <c r="X32" s="21"/>
-      <c r="Y32" s="21"/>
-      <c r="Z32" s="21"/>
-      <c r="AA32" s="21"/>
-      <c r="AB32" s="21"/>
-      <c r="AC32" s="21"/>
-      <c r="AD32" s="21"/>
-      <c r="AE32" s="22"/>
-      <c r="AF32" s="22"/>
-      <c r="AG32" s="22"/>
-      <c r="AH32" s="22"/>
-      <c r="AI32" s="22"/>
-      <c r="AJ32" s="22"/>
-      <c r="AK32" s="22"/>
-      <c r="AL32" s="22"/>
-      <c r="AM32" s="22"/>
-      <c r="AN32" s="22"/>
-      <c r="AO32" s="21"/>
-      <c r="AP32" s="21"/>
-      <c r="AQ32" s="21"/>
-      <c r="AR32" s="21"/>
-      <c r="AS32" s="21"/>
-      <c r="AT32" s="21"/>
-      <c r="AU32" s="21"/>
-      <c r="AV32" s="21"/>
-      <c r="AW32" s="21"/>
-      <c r="AX32" s="21"/>
-      <c r="AY32" s="21"/>
-      <c r="AZ32" s="21"/>
-      <c r="BA32" s="21"/>
-      <c r="BB32" s="21"/>
+      <c r="U32" s="22"/>
+      <c r="V32" s="22"/>
+      <c r="W32" s="22"/>
+      <c r="X32" s="22"/>
+      <c r="Y32" s="22"/>
+      <c r="Z32" s="22"/>
+      <c r="AA32" s="22"/>
+      <c r="AB32" s="22"/>
+      <c r="AC32" s="22"/>
+      <c r="AD32" s="22"/>
+      <c r="AE32" s="23"/>
+      <c r="AF32" s="23"/>
+      <c r="AG32" s="23"/>
+      <c r="AH32" s="23"/>
+      <c r="AI32" s="23"/>
+      <c r="AJ32" s="23"/>
+      <c r="AK32" s="23"/>
+      <c r="AL32" s="23"/>
+      <c r="AM32" s="23"/>
+      <c r="AN32" s="23"/>
+      <c r="AO32" s="22"/>
+      <c r="AP32" s="22"/>
+      <c r="AQ32" s="22"/>
+      <c r="AR32" s="22"/>
+      <c r="AS32" s="22"/>
+      <c r="AT32" s="22"/>
+      <c r="AU32" s="22"/>
+      <c r="AV32" s="22"/>
+      <c r="AW32" s="22"/>
+      <c r="AX32" s="22"/>
+      <c r="AY32" s="22"/>
+      <c r="AZ32" s="22"/>
+      <c r="BA32" s="22"/>
+      <c r="BB32" s="22"/>
       <c r="BM32" s="10"/>
       <c r="BN32" s="11" t="str">
         <f t="shared" si="25"/>
@@ -5285,8 +5285,8 @@
       <c r="DS32" s="12"/>
     </row>
     <row r="33" spans="1:123" s="3" customFormat="1" ht="14.25">
-      <c r="A33" s="23"/>
-      <c r="B33" s="23"/>
+      <c r="A33" s="21"/>
+      <c r="B33" s="21"/>
       <c r="C33" s="16"/>
       <c r="D33" s="17"/>
       <c r="E33" s="17"/>
@@ -5305,40 +5305,40 @@
       <c r="R33" s="17"/>
       <c r="S33" s="17"/>
       <c r="T33" s="18"/>
-      <c r="U33" s="21"/>
-      <c r="V33" s="21"/>
-      <c r="W33" s="21"/>
-      <c r="X33" s="21"/>
-      <c r="Y33" s="21"/>
-      <c r="Z33" s="21"/>
-      <c r="AA33" s="21"/>
-      <c r="AB33" s="21"/>
-      <c r="AC33" s="21"/>
-      <c r="AD33" s="21"/>
-      <c r="AE33" s="22"/>
-      <c r="AF33" s="22"/>
-      <c r="AG33" s="22"/>
-      <c r="AH33" s="22"/>
-      <c r="AI33" s="22"/>
-      <c r="AJ33" s="22"/>
-      <c r="AK33" s="22"/>
-      <c r="AL33" s="22"/>
-      <c r="AM33" s="22"/>
-      <c r="AN33" s="22"/>
-      <c r="AO33" s="21"/>
-      <c r="AP33" s="21"/>
-      <c r="AQ33" s="21"/>
-      <c r="AR33" s="21"/>
-      <c r="AS33" s="21"/>
-      <c r="AT33" s="21"/>
-      <c r="AU33" s="21"/>
-      <c r="AV33" s="21"/>
-      <c r="AW33" s="21"/>
-      <c r="AX33" s="21"/>
-      <c r="AY33" s="21"/>
-      <c r="AZ33" s="21"/>
-      <c r="BA33" s="21"/>
-      <c r="BB33" s="21"/>
+      <c r="U33" s="22"/>
+      <c r="V33" s="22"/>
+      <c r="W33" s="22"/>
+      <c r="X33" s="22"/>
+      <c r="Y33" s="22"/>
+      <c r="Z33" s="22"/>
+      <c r="AA33" s="22"/>
+      <c r="AB33" s="22"/>
+      <c r="AC33" s="22"/>
+      <c r="AD33" s="22"/>
+      <c r="AE33" s="23"/>
+      <c r="AF33" s="23"/>
+      <c r="AG33" s="23"/>
+      <c r="AH33" s="23"/>
+      <c r="AI33" s="23"/>
+      <c r="AJ33" s="23"/>
+      <c r="AK33" s="23"/>
+      <c r="AL33" s="23"/>
+      <c r="AM33" s="23"/>
+      <c r="AN33" s="23"/>
+      <c r="AO33" s="22"/>
+      <c r="AP33" s="22"/>
+      <c r="AQ33" s="22"/>
+      <c r="AR33" s="22"/>
+      <c r="AS33" s="22"/>
+      <c r="AT33" s="22"/>
+      <c r="AU33" s="22"/>
+      <c r="AV33" s="22"/>
+      <c r="AW33" s="22"/>
+      <c r="AX33" s="22"/>
+      <c r="AY33" s="22"/>
+      <c r="AZ33" s="22"/>
+      <c r="BA33" s="22"/>
+      <c r="BB33" s="22"/>
       <c r="BM33" s="10"/>
       <c r="BN33" s="11" t="str">
         <f t="shared" si="25"/>
@@ -5427,8 +5427,8 @@
       <c r="DS33" s="12"/>
     </row>
     <row r="34" spans="1:123" s="3" customFormat="1" ht="14.25">
-      <c r="A34" s="23"/>
-      <c r="B34" s="23"/>
+      <c r="A34" s="21"/>
+      <c r="B34" s="21"/>
       <c r="C34" s="16"/>
       <c r="D34" s="17"/>
       <c r="E34" s="17"/>
@@ -5447,40 +5447,40 @@
       <c r="R34" s="17"/>
       <c r="S34" s="17"/>
       <c r="T34" s="18"/>
-      <c r="U34" s="21"/>
-      <c r="V34" s="21"/>
-      <c r="W34" s="21"/>
-      <c r="X34" s="21"/>
-      <c r="Y34" s="21"/>
-      <c r="Z34" s="21"/>
-      <c r="AA34" s="21"/>
-      <c r="AB34" s="21"/>
-      <c r="AC34" s="21"/>
-      <c r="AD34" s="21"/>
-      <c r="AE34" s="22"/>
-      <c r="AF34" s="22"/>
-      <c r="AG34" s="22"/>
-      <c r="AH34" s="22"/>
-      <c r="AI34" s="22"/>
-      <c r="AJ34" s="22"/>
-      <c r="AK34" s="22"/>
-      <c r="AL34" s="22"/>
-      <c r="AM34" s="22"/>
-      <c r="AN34" s="22"/>
-      <c r="AO34" s="21"/>
-      <c r="AP34" s="21"/>
-      <c r="AQ34" s="21"/>
-      <c r="AR34" s="21"/>
-      <c r="AS34" s="21"/>
-      <c r="AT34" s="21"/>
-      <c r="AU34" s="21"/>
-      <c r="AV34" s="21"/>
-      <c r="AW34" s="21"/>
-      <c r="AX34" s="21"/>
-      <c r="AY34" s="21"/>
-      <c r="AZ34" s="21"/>
-      <c r="BA34" s="21"/>
-      <c r="BB34" s="21"/>
+      <c r="U34" s="22"/>
+      <c r="V34" s="22"/>
+      <c r="W34" s="22"/>
+      <c r="X34" s="22"/>
+      <c r="Y34" s="22"/>
+      <c r="Z34" s="22"/>
+      <c r="AA34" s="22"/>
+      <c r="AB34" s="22"/>
+      <c r="AC34" s="22"/>
+      <c r="AD34" s="22"/>
+      <c r="AE34" s="23"/>
+      <c r="AF34" s="23"/>
+      <c r="AG34" s="23"/>
+      <c r="AH34" s="23"/>
+      <c r="AI34" s="23"/>
+      <c r="AJ34" s="23"/>
+      <c r="AK34" s="23"/>
+      <c r="AL34" s="23"/>
+      <c r="AM34" s="23"/>
+      <c r="AN34" s="23"/>
+      <c r="AO34" s="22"/>
+      <c r="AP34" s="22"/>
+      <c r="AQ34" s="22"/>
+      <c r="AR34" s="22"/>
+      <c r="AS34" s="22"/>
+      <c r="AT34" s="22"/>
+      <c r="AU34" s="22"/>
+      <c r="AV34" s="22"/>
+      <c r="AW34" s="22"/>
+      <c r="AX34" s="22"/>
+      <c r="AY34" s="22"/>
+      <c r="AZ34" s="22"/>
+      <c r="BA34" s="22"/>
+      <c r="BB34" s="22"/>
       <c r="BM34" s="10"/>
       <c r="BN34" s="11" t="str">
         <f t="shared" si="25"/>
@@ -5569,8 +5569,8 @@
       <c r="DS34" s="12"/>
     </row>
     <row r="35" spans="1:123" s="3" customFormat="1" ht="14.25">
-      <c r="A35" s="23"/>
-      <c r="B35" s="23"/>
+      <c r="A35" s="21"/>
+      <c r="B35" s="21"/>
       <c r="C35" s="16"/>
       <c r="D35" s="17"/>
       <c r="E35" s="17"/>
@@ -5589,40 +5589,40 @@
       <c r="R35" s="17"/>
       <c r="S35" s="17"/>
       <c r="T35" s="18"/>
-      <c r="U35" s="21"/>
-      <c r="V35" s="21"/>
-      <c r="W35" s="21"/>
-      <c r="X35" s="21"/>
-      <c r="Y35" s="21"/>
-      <c r="Z35" s="21"/>
-      <c r="AA35" s="21"/>
-      <c r="AB35" s="21"/>
-      <c r="AC35" s="21"/>
-      <c r="AD35" s="21"/>
-      <c r="AE35" s="22"/>
-      <c r="AF35" s="22"/>
-      <c r="AG35" s="22"/>
-      <c r="AH35" s="22"/>
-      <c r="AI35" s="22"/>
-      <c r="AJ35" s="22"/>
-      <c r="AK35" s="22"/>
-      <c r="AL35" s="22"/>
-      <c r="AM35" s="22"/>
-      <c r="AN35" s="22"/>
-      <c r="AO35" s="21"/>
-      <c r="AP35" s="21"/>
-      <c r="AQ35" s="21"/>
-      <c r="AR35" s="21"/>
-      <c r="AS35" s="21"/>
-      <c r="AT35" s="21"/>
-      <c r="AU35" s="21"/>
-      <c r="AV35" s="21"/>
-      <c r="AW35" s="21"/>
-      <c r="AX35" s="21"/>
-      <c r="AY35" s="21"/>
-      <c r="AZ35" s="21"/>
-      <c r="BA35" s="21"/>
-      <c r="BB35" s="21"/>
+      <c r="U35" s="22"/>
+      <c r="V35" s="22"/>
+      <c r="W35" s="22"/>
+      <c r="X35" s="22"/>
+      <c r="Y35" s="22"/>
+      <c r="Z35" s="22"/>
+      <c r="AA35" s="22"/>
+      <c r="AB35" s="22"/>
+      <c r="AC35" s="22"/>
+      <c r="AD35" s="22"/>
+      <c r="AE35" s="23"/>
+      <c r="AF35" s="23"/>
+      <c r="AG35" s="23"/>
+      <c r="AH35" s="23"/>
+      <c r="AI35" s="23"/>
+      <c r="AJ35" s="23"/>
+      <c r="AK35" s="23"/>
+      <c r="AL35" s="23"/>
+      <c r="AM35" s="23"/>
+      <c r="AN35" s="23"/>
+      <c r="AO35" s="22"/>
+      <c r="AP35" s="22"/>
+      <c r="AQ35" s="22"/>
+      <c r="AR35" s="22"/>
+      <c r="AS35" s="22"/>
+      <c r="AT35" s="22"/>
+      <c r="AU35" s="22"/>
+      <c r="AV35" s="22"/>
+      <c r="AW35" s="22"/>
+      <c r="AX35" s="22"/>
+      <c r="AY35" s="22"/>
+      <c r="AZ35" s="22"/>
+      <c r="BA35" s="22"/>
+      <c r="BB35" s="22"/>
       <c r="BM35" s="10"/>
       <c r="BN35" s="11" t="str">
         <f t="shared" si="25"/>
@@ -5711,8 +5711,8 @@
       <c r="DS35" s="12"/>
     </row>
     <row r="36" spans="1:123" s="3" customFormat="1" ht="14.25">
-      <c r="A36" s="23"/>
-      <c r="B36" s="23"/>
+      <c r="A36" s="21"/>
+      <c r="B36" s="21"/>
       <c r="C36" s="16"/>
       <c r="D36" s="17"/>
       <c r="E36" s="17"/>
@@ -5731,40 +5731,40 @@
       <c r="R36" s="17"/>
       <c r="S36" s="17"/>
       <c r="T36" s="18"/>
-      <c r="U36" s="21"/>
-      <c r="V36" s="21"/>
-      <c r="W36" s="21"/>
-      <c r="X36" s="21"/>
-      <c r="Y36" s="21"/>
-      <c r="Z36" s="21"/>
-      <c r="AA36" s="21"/>
-      <c r="AB36" s="21"/>
-      <c r="AC36" s="21"/>
-      <c r="AD36" s="21"/>
-      <c r="AE36" s="22"/>
-      <c r="AF36" s="22"/>
-      <c r="AG36" s="22"/>
-      <c r="AH36" s="22"/>
-      <c r="AI36" s="22"/>
-      <c r="AJ36" s="22"/>
-      <c r="AK36" s="22"/>
-      <c r="AL36" s="22"/>
-      <c r="AM36" s="22"/>
-      <c r="AN36" s="22"/>
-      <c r="AO36" s="21"/>
-      <c r="AP36" s="21"/>
-      <c r="AQ36" s="21"/>
-      <c r="AR36" s="21"/>
-      <c r="AS36" s="21"/>
-      <c r="AT36" s="21"/>
-      <c r="AU36" s="21"/>
-      <c r="AV36" s="21"/>
-      <c r="AW36" s="21"/>
-      <c r="AX36" s="21"/>
-      <c r="AY36" s="21"/>
-      <c r="AZ36" s="21"/>
-      <c r="BA36" s="21"/>
-      <c r="BB36" s="21"/>
+      <c r="U36" s="22"/>
+      <c r="V36" s="22"/>
+      <c r="W36" s="22"/>
+      <c r="X36" s="22"/>
+      <c r="Y36" s="22"/>
+      <c r="Z36" s="22"/>
+      <c r="AA36" s="22"/>
+      <c r="AB36" s="22"/>
+      <c r="AC36" s="22"/>
+      <c r="AD36" s="22"/>
+      <c r="AE36" s="23"/>
+      <c r="AF36" s="23"/>
+      <c r="AG36" s="23"/>
+      <c r="AH36" s="23"/>
+      <c r="AI36" s="23"/>
+      <c r="AJ36" s="23"/>
+      <c r="AK36" s="23"/>
+      <c r="AL36" s="23"/>
+      <c r="AM36" s="23"/>
+      <c r="AN36" s="23"/>
+      <c r="AO36" s="22"/>
+      <c r="AP36" s="22"/>
+      <c r="AQ36" s="22"/>
+      <c r="AR36" s="22"/>
+      <c r="AS36" s="22"/>
+      <c r="AT36" s="22"/>
+      <c r="AU36" s="22"/>
+      <c r="AV36" s="22"/>
+      <c r="AW36" s="22"/>
+      <c r="AX36" s="22"/>
+      <c r="AY36" s="22"/>
+      <c r="AZ36" s="22"/>
+      <c r="BA36" s="22"/>
+      <c r="BB36" s="22"/>
       <c r="BM36" s="10"/>
       <c r="BN36" s="11" t="str">
         <f t="shared" si="25"/>
@@ -5853,8 +5853,8 @@
       <c r="DS36" s="12"/>
     </row>
     <row r="37" spans="1:123" s="3" customFormat="1" ht="14.25">
-      <c r="A37" s="23"/>
-      <c r="B37" s="23"/>
+      <c r="A37" s="21"/>
+      <c r="B37" s="21"/>
       <c r="C37" s="16"/>
       <c r="D37" s="17"/>
       <c r="E37" s="17"/>
@@ -5873,40 +5873,40 @@
       <c r="R37" s="17"/>
       <c r="S37" s="17"/>
       <c r="T37" s="18"/>
-      <c r="U37" s="21"/>
-      <c r="V37" s="21"/>
-      <c r="W37" s="21"/>
-      <c r="X37" s="21"/>
-      <c r="Y37" s="21"/>
-      <c r="Z37" s="21"/>
-      <c r="AA37" s="21"/>
-      <c r="AB37" s="21"/>
-      <c r="AC37" s="21"/>
-      <c r="AD37" s="21"/>
-      <c r="AE37" s="22"/>
-      <c r="AF37" s="22"/>
-      <c r="AG37" s="22"/>
-      <c r="AH37" s="22"/>
-      <c r="AI37" s="22"/>
-      <c r="AJ37" s="22"/>
-      <c r="AK37" s="22"/>
-      <c r="AL37" s="22"/>
-      <c r="AM37" s="22"/>
-      <c r="AN37" s="22"/>
-      <c r="AO37" s="21"/>
-      <c r="AP37" s="21"/>
-      <c r="AQ37" s="21"/>
-      <c r="AR37" s="21"/>
-      <c r="AS37" s="21"/>
-      <c r="AT37" s="21"/>
-      <c r="AU37" s="21"/>
-      <c r="AV37" s="21"/>
-      <c r="AW37" s="21"/>
-      <c r="AX37" s="21"/>
-      <c r="AY37" s="21"/>
-      <c r="AZ37" s="21"/>
-      <c r="BA37" s="21"/>
-      <c r="BB37" s="21"/>
+      <c r="U37" s="22"/>
+      <c r="V37" s="22"/>
+      <c r="W37" s="22"/>
+      <c r="X37" s="22"/>
+      <c r="Y37" s="22"/>
+      <c r="Z37" s="22"/>
+      <c r="AA37" s="22"/>
+      <c r="AB37" s="22"/>
+      <c r="AC37" s="22"/>
+      <c r="AD37" s="22"/>
+      <c r="AE37" s="23"/>
+      <c r="AF37" s="23"/>
+      <c r="AG37" s="23"/>
+      <c r="AH37" s="23"/>
+      <c r="AI37" s="23"/>
+      <c r="AJ37" s="23"/>
+      <c r="AK37" s="23"/>
+      <c r="AL37" s="23"/>
+      <c r="AM37" s="23"/>
+      <c r="AN37" s="23"/>
+      <c r="AO37" s="22"/>
+      <c r="AP37" s="22"/>
+      <c r="AQ37" s="22"/>
+      <c r="AR37" s="22"/>
+      <c r="AS37" s="22"/>
+      <c r="AT37" s="22"/>
+      <c r="AU37" s="22"/>
+      <c r="AV37" s="22"/>
+      <c r="AW37" s="22"/>
+      <c r="AX37" s="22"/>
+      <c r="AY37" s="22"/>
+      <c r="AZ37" s="22"/>
+      <c r="BA37" s="22"/>
+      <c r="BB37" s="22"/>
       <c r="BM37" s="10"/>
       <c r="BN37" s="11" t="str">
         <f t="shared" si="25"/>
@@ -5995,8 +5995,8 @@
       <c r="DS37" s="12"/>
     </row>
     <row r="38" spans="1:123" s="3" customFormat="1" ht="14.25">
-      <c r="A38" s="23"/>
-      <c r="B38" s="23"/>
+      <c r="A38" s="21"/>
+      <c r="B38" s="21"/>
       <c r="C38" s="16"/>
       <c r="D38" s="17"/>
       <c r="E38" s="17"/>
@@ -6015,40 +6015,40 @@
       <c r="R38" s="17"/>
       <c r="S38" s="17"/>
       <c r="T38" s="18"/>
-      <c r="U38" s="21"/>
-      <c r="V38" s="21"/>
-      <c r="W38" s="21"/>
-      <c r="X38" s="21"/>
-      <c r="Y38" s="21"/>
-      <c r="Z38" s="21"/>
-      <c r="AA38" s="21"/>
-      <c r="AB38" s="21"/>
-      <c r="AC38" s="21"/>
-      <c r="AD38" s="21"/>
-      <c r="AE38" s="22"/>
-      <c r="AF38" s="22"/>
-      <c r="AG38" s="22"/>
-      <c r="AH38" s="22"/>
-      <c r="AI38" s="22"/>
-      <c r="AJ38" s="22"/>
-      <c r="AK38" s="22"/>
-      <c r="AL38" s="22"/>
-      <c r="AM38" s="22"/>
-      <c r="AN38" s="22"/>
-      <c r="AO38" s="21"/>
-      <c r="AP38" s="21"/>
-      <c r="AQ38" s="21"/>
-      <c r="AR38" s="21"/>
-      <c r="AS38" s="21"/>
-      <c r="AT38" s="21"/>
-      <c r="AU38" s="21"/>
-      <c r="AV38" s="21"/>
-      <c r="AW38" s="21"/>
-      <c r="AX38" s="21"/>
-      <c r="AY38" s="21"/>
-      <c r="AZ38" s="21"/>
-      <c r="BA38" s="21"/>
-      <c r="BB38" s="21"/>
+      <c r="U38" s="22"/>
+      <c r="V38" s="22"/>
+      <c r="W38" s="22"/>
+      <c r="X38" s="22"/>
+      <c r="Y38" s="22"/>
+      <c r="Z38" s="22"/>
+      <c r="AA38" s="22"/>
+      <c r="AB38" s="22"/>
+      <c r="AC38" s="22"/>
+      <c r="AD38" s="22"/>
+      <c r="AE38" s="23"/>
+      <c r="AF38" s="23"/>
+      <c r="AG38" s="23"/>
+      <c r="AH38" s="23"/>
+      <c r="AI38" s="23"/>
+      <c r="AJ38" s="23"/>
+      <c r="AK38" s="23"/>
+      <c r="AL38" s="23"/>
+      <c r="AM38" s="23"/>
+      <c r="AN38" s="23"/>
+      <c r="AO38" s="22"/>
+      <c r="AP38" s="22"/>
+      <c r="AQ38" s="22"/>
+      <c r="AR38" s="22"/>
+      <c r="AS38" s="22"/>
+      <c r="AT38" s="22"/>
+      <c r="AU38" s="22"/>
+      <c r="AV38" s="22"/>
+      <c r="AW38" s="22"/>
+      <c r="AX38" s="22"/>
+      <c r="AY38" s="22"/>
+      <c r="AZ38" s="22"/>
+      <c r="BA38" s="22"/>
+      <c r="BB38" s="22"/>
       <c r="BM38" s="10"/>
       <c r="BN38" s="11" t="str">
         <f t="shared" si="25"/>
@@ -6137,8 +6137,8 @@
       <c r="DS38" s="12"/>
     </row>
     <row r="39" spans="1:123" s="3" customFormat="1" ht="14.25">
-      <c r="A39" s="23"/>
-      <c r="B39" s="23"/>
+      <c r="A39" s="21"/>
+      <c r="B39" s="21"/>
       <c r="C39" s="16"/>
       <c r="D39" s="17"/>
       <c r="E39" s="17"/>
@@ -6157,40 +6157,40 @@
       <c r="R39" s="17"/>
       <c r="S39" s="17"/>
       <c r="T39" s="18"/>
-      <c r="U39" s="21"/>
-      <c r="V39" s="21"/>
-      <c r="W39" s="21"/>
-      <c r="X39" s="21"/>
-      <c r="Y39" s="21"/>
-      <c r="Z39" s="21"/>
-      <c r="AA39" s="21"/>
-      <c r="AB39" s="21"/>
-      <c r="AC39" s="21"/>
-      <c r="AD39" s="21"/>
-      <c r="AE39" s="22"/>
-      <c r="AF39" s="22"/>
-      <c r="AG39" s="22"/>
-      <c r="AH39" s="22"/>
-      <c r="AI39" s="22"/>
-      <c r="AJ39" s="22"/>
-      <c r="AK39" s="22"/>
-      <c r="AL39" s="22"/>
-      <c r="AM39" s="22"/>
-      <c r="AN39" s="22"/>
-      <c r="AO39" s="21"/>
-      <c r="AP39" s="21"/>
-      <c r="AQ39" s="21"/>
-      <c r="AR39" s="21"/>
-      <c r="AS39" s="21"/>
-      <c r="AT39" s="21"/>
-      <c r="AU39" s="21"/>
-      <c r="AV39" s="21"/>
-      <c r="AW39" s="21"/>
-      <c r="AX39" s="21"/>
-      <c r="AY39" s="21"/>
-      <c r="AZ39" s="21"/>
-      <c r="BA39" s="21"/>
-      <c r="BB39" s="21"/>
+      <c r="U39" s="22"/>
+      <c r="V39" s="22"/>
+      <c r="W39" s="22"/>
+      <c r="X39" s="22"/>
+      <c r="Y39" s="22"/>
+      <c r="Z39" s="22"/>
+      <c r="AA39" s="22"/>
+      <c r="AB39" s="22"/>
+      <c r="AC39" s="22"/>
+      <c r="AD39" s="22"/>
+      <c r="AE39" s="23"/>
+      <c r="AF39" s="23"/>
+      <c r="AG39" s="23"/>
+      <c r="AH39" s="23"/>
+      <c r="AI39" s="23"/>
+      <c r="AJ39" s="23"/>
+      <c r="AK39" s="23"/>
+      <c r="AL39" s="23"/>
+      <c r="AM39" s="23"/>
+      <c r="AN39" s="23"/>
+      <c r="AO39" s="22"/>
+      <c r="AP39" s="22"/>
+      <c r="AQ39" s="22"/>
+      <c r="AR39" s="22"/>
+      <c r="AS39" s="22"/>
+      <c r="AT39" s="22"/>
+      <c r="AU39" s="22"/>
+      <c r="AV39" s="22"/>
+      <c r="AW39" s="22"/>
+      <c r="AX39" s="22"/>
+      <c r="AY39" s="22"/>
+      <c r="AZ39" s="22"/>
+      <c r="BA39" s="22"/>
+      <c r="BB39" s="22"/>
       <c r="BM39" s="10"/>
       <c r="BN39" s="11" t="str">
         <f t="shared" si="25"/>
@@ -6279,8 +6279,8 @@
       <c r="DS39" s="12"/>
     </row>
     <row r="40" spans="1:123" s="3" customFormat="1" ht="14.25">
-      <c r="A40" s="23"/>
-      <c r="B40" s="23"/>
+      <c r="A40" s="21"/>
+      <c r="B40" s="21"/>
       <c r="C40" s="16"/>
       <c r="D40" s="17"/>
       <c r="E40" s="17"/>
@@ -6299,40 +6299,40 @@
       <c r="R40" s="17"/>
       <c r="S40" s="17"/>
       <c r="T40" s="18"/>
-      <c r="U40" s="21"/>
-      <c r="V40" s="21"/>
-      <c r="W40" s="21"/>
-      <c r="X40" s="21"/>
-      <c r="Y40" s="21"/>
-      <c r="Z40" s="21"/>
-      <c r="AA40" s="21"/>
-      <c r="AB40" s="21"/>
-      <c r="AC40" s="21"/>
-      <c r="AD40" s="21"/>
-      <c r="AE40" s="22"/>
-      <c r="AF40" s="22"/>
-      <c r="AG40" s="22"/>
-      <c r="AH40" s="22"/>
-      <c r="AI40" s="22"/>
-      <c r="AJ40" s="22"/>
-      <c r="AK40" s="22"/>
-      <c r="AL40" s="22"/>
-      <c r="AM40" s="22"/>
-      <c r="AN40" s="22"/>
-      <c r="AO40" s="21"/>
-      <c r="AP40" s="21"/>
-      <c r="AQ40" s="21"/>
-      <c r="AR40" s="21"/>
-      <c r="AS40" s="21"/>
-      <c r="AT40" s="21"/>
-      <c r="AU40" s="21"/>
-      <c r="AV40" s="21"/>
-      <c r="AW40" s="21"/>
-      <c r="AX40" s="21"/>
-      <c r="AY40" s="21"/>
-      <c r="AZ40" s="21"/>
-      <c r="BA40" s="21"/>
-      <c r="BB40" s="21"/>
+      <c r="U40" s="22"/>
+      <c r="V40" s="22"/>
+      <c r="W40" s="22"/>
+      <c r="X40" s="22"/>
+      <c r="Y40" s="22"/>
+      <c r="Z40" s="22"/>
+      <c r="AA40" s="22"/>
+      <c r="AB40" s="22"/>
+      <c r="AC40" s="22"/>
+      <c r="AD40" s="22"/>
+      <c r="AE40" s="23"/>
+      <c r="AF40" s="23"/>
+      <c r="AG40" s="23"/>
+      <c r="AH40" s="23"/>
+      <c r="AI40" s="23"/>
+      <c r="AJ40" s="23"/>
+      <c r="AK40" s="23"/>
+      <c r="AL40" s="23"/>
+      <c r="AM40" s="23"/>
+      <c r="AN40" s="23"/>
+      <c r="AO40" s="22"/>
+      <c r="AP40" s="22"/>
+      <c r="AQ40" s="22"/>
+      <c r="AR40" s="22"/>
+      <c r="AS40" s="22"/>
+      <c r="AT40" s="22"/>
+      <c r="AU40" s="22"/>
+      <c r="AV40" s="22"/>
+      <c r="AW40" s="22"/>
+      <c r="AX40" s="22"/>
+      <c r="AY40" s="22"/>
+      <c r="AZ40" s="22"/>
+      <c r="BA40" s="22"/>
+      <c r="BB40" s="22"/>
       <c r="BM40" s="10"/>
       <c r="BN40" s="11" t="str">
         <f t="shared" si="25"/>
@@ -6421,8 +6421,8 @@
       <c r="DS40" s="12"/>
     </row>
     <row r="41" spans="1:123" s="3" customFormat="1" ht="14.25">
-      <c r="A41" s="23"/>
-      <c r="B41" s="23"/>
+      <c r="A41" s="21"/>
+      <c r="B41" s="21"/>
       <c r="C41" s="16"/>
       <c r="D41" s="17"/>
       <c r="E41" s="17"/>
@@ -6441,40 +6441,40 @@
       <c r="R41" s="17"/>
       <c r="S41" s="17"/>
       <c r="T41" s="18"/>
-      <c r="U41" s="21"/>
-      <c r="V41" s="21"/>
-      <c r="W41" s="21"/>
-      <c r="X41" s="21"/>
-      <c r="Y41" s="21"/>
-      <c r="Z41" s="21"/>
-      <c r="AA41" s="21"/>
-      <c r="AB41" s="21"/>
-      <c r="AC41" s="21"/>
-      <c r="AD41" s="21"/>
-      <c r="AE41" s="22"/>
-      <c r="AF41" s="22"/>
-      <c r="AG41" s="22"/>
-      <c r="AH41" s="22"/>
-      <c r="AI41" s="22"/>
-      <c r="AJ41" s="22"/>
-      <c r="AK41" s="22"/>
-      <c r="AL41" s="22"/>
-      <c r="AM41" s="22"/>
-      <c r="AN41" s="22"/>
-      <c r="AO41" s="21"/>
-      <c r="AP41" s="21"/>
-      <c r="AQ41" s="21"/>
-      <c r="AR41" s="21"/>
-      <c r="AS41" s="21"/>
-      <c r="AT41" s="21"/>
-      <c r="AU41" s="21"/>
-      <c r="AV41" s="21"/>
-      <c r="AW41" s="21"/>
-      <c r="AX41" s="21"/>
-      <c r="AY41" s="21"/>
-      <c r="AZ41" s="21"/>
-      <c r="BA41" s="21"/>
-      <c r="BB41" s="21"/>
+      <c r="U41" s="22"/>
+      <c r="V41" s="22"/>
+      <c r="W41" s="22"/>
+      <c r="X41" s="22"/>
+      <c r="Y41" s="22"/>
+      <c r="Z41" s="22"/>
+      <c r="AA41" s="22"/>
+      <c r="AB41" s="22"/>
+      <c r="AC41" s="22"/>
+      <c r="AD41" s="22"/>
+      <c r="AE41" s="23"/>
+      <c r="AF41" s="23"/>
+      <c r="AG41" s="23"/>
+      <c r="AH41" s="23"/>
+      <c r="AI41" s="23"/>
+      <c r="AJ41" s="23"/>
+      <c r="AK41" s="23"/>
+      <c r="AL41" s="23"/>
+      <c r="AM41" s="23"/>
+      <c r="AN41" s="23"/>
+      <c r="AO41" s="22"/>
+      <c r="AP41" s="22"/>
+      <c r="AQ41" s="22"/>
+      <c r="AR41" s="22"/>
+      <c r="AS41" s="22"/>
+      <c r="AT41" s="22"/>
+      <c r="AU41" s="22"/>
+      <c r="AV41" s="22"/>
+      <c r="AW41" s="22"/>
+      <c r="AX41" s="22"/>
+      <c r="AY41" s="22"/>
+      <c r="AZ41" s="22"/>
+      <c r="BA41" s="22"/>
+      <c r="BB41" s="22"/>
       <c r="BM41" s="10"/>
       <c r="BN41" s="11" t="str">
         <f t="shared" si="25"/>
@@ -6563,8 +6563,8 @@
       <c r="DS41" s="12"/>
     </row>
     <row r="42" spans="1:123" s="3" customFormat="1" ht="14.25">
-      <c r="A42" s="23"/>
-      <c r="B42" s="23"/>
+      <c r="A42" s="21"/>
+      <c r="B42" s="21"/>
       <c r="C42" s="16"/>
       <c r="D42" s="17"/>
       <c r="E42" s="17"/>
@@ -6583,40 +6583,40 @@
       <c r="R42" s="17"/>
       <c r="S42" s="17"/>
       <c r="T42" s="18"/>
-      <c r="U42" s="21"/>
-      <c r="V42" s="21"/>
-      <c r="W42" s="21"/>
-      <c r="X42" s="21"/>
-      <c r="Y42" s="21"/>
-      <c r="Z42" s="21"/>
-      <c r="AA42" s="21"/>
-      <c r="AB42" s="21"/>
-      <c r="AC42" s="21"/>
-      <c r="AD42" s="21"/>
-      <c r="AE42" s="22"/>
-      <c r="AF42" s="22"/>
-      <c r="AG42" s="22"/>
-      <c r="AH42" s="22"/>
-      <c r="AI42" s="22"/>
-      <c r="AJ42" s="22"/>
-      <c r="AK42" s="22"/>
-      <c r="AL42" s="22"/>
-      <c r="AM42" s="22"/>
-      <c r="AN42" s="22"/>
-      <c r="AO42" s="21"/>
-      <c r="AP42" s="21"/>
-      <c r="AQ42" s="21"/>
-      <c r="AR42" s="21"/>
-      <c r="AS42" s="21"/>
-      <c r="AT42" s="21"/>
-      <c r="AU42" s="21"/>
-      <c r="AV42" s="21"/>
-      <c r="AW42" s="21"/>
-      <c r="AX42" s="21"/>
-      <c r="AY42" s="21"/>
-      <c r="AZ42" s="21"/>
-      <c r="BA42" s="21"/>
-      <c r="BB42" s="21"/>
+      <c r="U42" s="22"/>
+      <c r="V42" s="22"/>
+      <c r="W42" s="22"/>
+      <c r="X42" s="22"/>
+      <c r="Y42" s="22"/>
+      <c r="Z42" s="22"/>
+      <c r="AA42" s="22"/>
+      <c r="AB42" s="22"/>
+      <c r="AC42" s="22"/>
+      <c r="AD42" s="22"/>
+      <c r="AE42" s="23"/>
+      <c r="AF42" s="23"/>
+      <c r="AG42" s="23"/>
+      <c r="AH42" s="23"/>
+      <c r="AI42" s="23"/>
+      <c r="AJ42" s="23"/>
+      <c r="AK42" s="23"/>
+      <c r="AL42" s="23"/>
+      <c r="AM42" s="23"/>
+      <c r="AN42" s="23"/>
+      <c r="AO42" s="22"/>
+      <c r="AP42" s="22"/>
+      <c r="AQ42" s="22"/>
+      <c r="AR42" s="22"/>
+      <c r="AS42" s="22"/>
+      <c r="AT42" s="22"/>
+      <c r="AU42" s="22"/>
+      <c r="AV42" s="22"/>
+      <c r="AW42" s="22"/>
+      <c r="AX42" s="22"/>
+      <c r="AY42" s="22"/>
+      <c r="AZ42" s="22"/>
+      <c r="BA42" s="22"/>
+      <c r="BB42" s="22"/>
       <c r="BM42" s="10"/>
       <c r="BN42" s="11" t="str">
         <f t="shared" si="25"/>
@@ -6705,8 +6705,8 @@
       <c r="DS42" s="12"/>
     </row>
     <row r="43" spans="1:123" s="3" customFormat="1" ht="14.25">
-      <c r="A43" s="23"/>
-      <c r="B43" s="23"/>
+      <c r="A43" s="21"/>
+      <c r="B43" s="21"/>
       <c r="C43" s="16"/>
       <c r="D43" s="17"/>
       <c r="E43" s="17"/>
@@ -6725,40 +6725,40 @@
       <c r="R43" s="17"/>
       <c r="S43" s="17"/>
       <c r="T43" s="18"/>
-      <c r="U43" s="21"/>
-      <c r="V43" s="21"/>
-      <c r="W43" s="21"/>
-      <c r="X43" s="21"/>
-      <c r="Y43" s="21"/>
-      <c r="Z43" s="21"/>
-      <c r="AA43" s="21"/>
-      <c r="AB43" s="21"/>
-      <c r="AC43" s="21"/>
-      <c r="AD43" s="21"/>
-      <c r="AE43" s="22"/>
-      <c r="AF43" s="22"/>
-      <c r="AG43" s="22"/>
-      <c r="AH43" s="22"/>
-      <c r="AI43" s="22"/>
-      <c r="AJ43" s="22"/>
-      <c r="AK43" s="22"/>
-      <c r="AL43" s="22"/>
-      <c r="AM43" s="22"/>
-      <c r="AN43" s="22"/>
-      <c r="AO43" s="21"/>
-      <c r="AP43" s="21"/>
-      <c r="AQ43" s="21"/>
-      <c r="AR43" s="21"/>
-      <c r="AS43" s="21"/>
-      <c r="AT43" s="21"/>
-      <c r="AU43" s="21"/>
-      <c r="AV43" s="21"/>
-      <c r="AW43" s="21"/>
-      <c r="AX43" s="21"/>
-      <c r="AY43" s="21"/>
-      <c r="AZ43" s="21"/>
-      <c r="BA43" s="21"/>
-      <c r="BB43" s="21"/>
+      <c r="U43" s="22"/>
+      <c r="V43" s="22"/>
+      <c r="W43" s="22"/>
+      <c r="X43" s="22"/>
+      <c r="Y43" s="22"/>
+      <c r="Z43" s="22"/>
+      <c r="AA43" s="22"/>
+      <c r="AB43" s="22"/>
+      <c r="AC43" s="22"/>
+      <c r="AD43" s="22"/>
+      <c r="AE43" s="23"/>
+      <c r="AF43" s="23"/>
+      <c r="AG43" s="23"/>
+      <c r="AH43" s="23"/>
+      <c r="AI43" s="23"/>
+      <c r="AJ43" s="23"/>
+      <c r="AK43" s="23"/>
+      <c r="AL43" s="23"/>
+      <c r="AM43" s="23"/>
+      <c r="AN43" s="23"/>
+      <c r="AO43" s="22"/>
+      <c r="AP43" s="22"/>
+      <c r="AQ43" s="22"/>
+      <c r="AR43" s="22"/>
+      <c r="AS43" s="22"/>
+      <c r="AT43" s="22"/>
+      <c r="AU43" s="22"/>
+      <c r="AV43" s="22"/>
+      <c r="AW43" s="22"/>
+      <c r="AX43" s="22"/>
+      <c r="AY43" s="22"/>
+      <c r="AZ43" s="22"/>
+      <c r="BA43" s="22"/>
+      <c r="BB43" s="22"/>
       <c r="BM43" s="10"/>
       <c r="BN43" s="11" t="str">
         <f t="shared" si="25"/>
@@ -6847,8 +6847,8 @@
       <c r="DS43" s="12"/>
     </row>
     <row r="44" spans="1:123" s="3" customFormat="1" ht="14.25">
-      <c r="A44" s="23"/>
-      <c r="B44" s="23"/>
+      <c r="A44" s="21"/>
+      <c r="B44" s="21"/>
       <c r="C44" s="16"/>
       <c r="D44" s="17"/>
       <c r="E44" s="17"/>
@@ -6867,40 +6867,40 @@
       <c r="R44" s="17"/>
       <c r="S44" s="17"/>
       <c r="T44" s="18"/>
-      <c r="U44" s="21"/>
-      <c r="V44" s="21"/>
-      <c r="W44" s="21"/>
-      <c r="X44" s="21"/>
-      <c r="Y44" s="21"/>
-      <c r="Z44" s="21"/>
-      <c r="AA44" s="21"/>
-      <c r="AB44" s="21"/>
-      <c r="AC44" s="21"/>
-      <c r="AD44" s="21"/>
-      <c r="AE44" s="22"/>
-      <c r="AF44" s="22"/>
-      <c r="AG44" s="22"/>
-      <c r="AH44" s="22"/>
-      <c r="AI44" s="22"/>
-      <c r="AJ44" s="22"/>
-      <c r="AK44" s="22"/>
-      <c r="AL44" s="22"/>
-      <c r="AM44" s="22"/>
-      <c r="AN44" s="22"/>
-      <c r="AO44" s="21"/>
-      <c r="AP44" s="21"/>
-      <c r="AQ44" s="21"/>
-      <c r="AR44" s="21"/>
-      <c r="AS44" s="21"/>
-      <c r="AT44" s="21"/>
-      <c r="AU44" s="21"/>
-      <c r="AV44" s="21"/>
-      <c r="AW44" s="21"/>
-      <c r="AX44" s="21"/>
-      <c r="AY44" s="21"/>
-      <c r="AZ44" s="21"/>
-      <c r="BA44" s="21"/>
-      <c r="BB44" s="21"/>
+      <c r="U44" s="22"/>
+      <c r="V44" s="22"/>
+      <c r="W44" s="22"/>
+      <c r="X44" s="22"/>
+      <c r="Y44" s="22"/>
+      <c r="Z44" s="22"/>
+      <c r="AA44" s="22"/>
+      <c r="AB44" s="22"/>
+      <c r="AC44" s="22"/>
+      <c r="AD44" s="22"/>
+      <c r="AE44" s="23"/>
+      <c r="AF44" s="23"/>
+      <c r="AG44" s="23"/>
+      <c r="AH44" s="23"/>
+      <c r="AI44" s="23"/>
+      <c r="AJ44" s="23"/>
+      <c r="AK44" s="23"/>
+      <c r="AL44" s="23"/>
+      <c r="AM44" s="23"/>
+      <c r="AN44" s="23"/>
+      <c r="AO44" s="22"/>
+      <c r="AP44" s="22"/>
+      <c r="AQ44" s="22"/>
+      <c r="AR44" s="22"/>
+      <c r="AS44" s="22"/>
+      <c r="AT44" s="22"/>
+      <c r="AU44" s="22"/>
+      <c r="AV44" s="22"/>
+      <c r="AW44" s="22"/>
+      <c r="AX44" s="22"/>
+      <c r="AY44" s="22"/>
+      <c r="AZ44" s="22"/>
+      <c r="BA44" s="22"/>
+      <c r="BB44" s="22"/>
       <c r="BM44" s="10"/>
       <c r="BN44" s="11" t="str">
         <f t="shared" si="25"/>
@@ -6989,8 +6989,8 @@
       <c r="DS44" s="12"/>
     </row>
     <row r="45" spans="1:123" s="3" customFormat="1" ht="14.25">
-      <c r="A45" s="23"/>
-      <c r="B45" s="23"/>
+      <c r="A45" s="21"/>
+      <c r="B45" s="21"/>
       <c r="C45" s="16"/>
       <c r="D45" s="17"/>
       <c r="E45" s="17"/>
@@ -7009,40 +7009,40 @@
       <c r="R45" s="17"/>
       <c r="S45" s="17"/>
       <c r="T45" s="18"/>
-      <c r="U45" s="21"/>
-      <c r="V45" s="21"/>
-      <c r="W45" s="21"/>
-      <c r="X45" s="21"/>
-      <c r="Y45" s="21"/>
-      <c r="Z45" s="21"/>
-      <c r="AA45" s="21"/>
-      <c r="AB45" s="21"/>
-      <c r="AC45" s="21"/>
-      <c r="AD45" s="21"/>
-      <c r="AE45" s="22"/>
-      <c r="AF45" s="22"/>
-      <c r="AG45" s="22"/>
-      <c r="AH45" s="22"/>
-      <c r="AI45" s="22"/>
-      <c r="AJ45" s="22"/>
-      <c r="AK45" s="22"/>
-      <c r="AL45" s="22"/>
-      <c r="AM45" s="22"/>
-      <c r="AN45" s="22"/>
-      <c r="AO45" s="21"/>
-      <c r="AP45" s="21"/>
-      <c r="AQ45" s="21"/>
-      <c r="AR45" s="21"/>
-      <c r="AS45" s="21"/>
-      <c r="AT45" s="21"/>
-      <c r="AU45" s="21"/>
-      <c r="AV45" s="21"/>
-      <c r="AW45" s="21"/>
-      <c r="AX45" s="21"/>
-      <c r="AY45" s="21"/>
-      <c r="AZ45" s="21"/>
-      <c r="BA45" s="21"/>
-      <c r="BB45" s="21"/>
+      <c r="U45" s="22"/>
+      <c r="V45" s="22"/>
+      <c r="W45" s="22"/>
+      <c r="X45" s="22"/>
+      <c r="Y45" s="22"/>
+      <c r="Z45" s="22"/>
+      <c r="AA45" s="22"/>
+      <c r="AB45" s="22"/>
+      <c r="AC45" s="22"/>
+      <c r="AD45" s="22"/>
+      <c r="AE45" s="23"/>
+      <c r="AF45" s="23"/>
+      <c r="AG45" s="23"/>
+      <c r="AH45" s="23"/>
+      <c r="AI45" s="23"/>
+      <c r="AJ45" s="23"/>
+      <c r="AK45" s="23"/>
+      <c r="AL45" s="23"/>
+      <c r="AM45" s="23"/>
+      <c r="AN45" s="23"/>
+      <c r="AO45" s="22"/>
+      <c r="AP45" s="22"/>
+      <c r="AQ45" s="22"/>
+      <c r="AR45" s="22"/>
+      <c r="AS45" s="22"/>
+      <c r="AT45" s="22"/>
+      <c r="AU45" s="22"/>
+      <c r="AV45" s="22"/>
+      <c r="AW45" s="22"/>
+      <c r="AX45" s="22"/>
+      <c r="AY45" s="22"/>
+      <c r="AZ45" s="22"/>
+      <c r="BA45" s="22"/>
+      <c r="BB45" s="22"/>
       <c r="BM45" s="10"/>
       <c r="BN45" s="11" t="str">
         <f t="shared" si="25"/>
@@ -7131,8 +7131,8 @@
       <c r="DS45" s="12"/>
     </row>
     <row r="46" spans="1:123" s="3" customFormat="1" ht="14.25">
-      <c r="A46" s="23"/>
-      <c r="B46" s="23"/>
+      <c r="A46" s="21"/>
+      <c r="B46" s="21"/>
       <c r="C46" s="16"/>
       <c r="D46" s="17"/>
       <c r="E46" s="17"/>
@@ -7151,40 +7151,40 @@
       <c r="R46" s="17"/>
       <c r="S46" s="17"/>
       <c r="T46" s="18"/>
-      <c r="U46" s="21"/>
-      <c r="V46" s="21"/>
-      <c r="W46" s="21"/>
-      <c r="X46" s="21"/>
-      <c r="Y46" s="21"/>
-      <c r="Z46" s="21"/>
-      <c r="AA46" s="21"/>
-      <c r="AB46" s="21"/>
-      <c r="AC46" s="21"/>
-      <c r="AD46" s="21"/>
-      <c r="AE46" s="22"/>
-      <c r="AF46" s="22"/>
-      <c r="AG46" s="22"/>
-      <c r="AH46" s="22"/>
-      <c r="AI46" s="22"/>
-      <c r="AJ46" s="22"/>
-      <c r="AK46" s="22"/>
-      <c r="AL46" s="22"/>
-      <c r="AM46" s="22"/>
-      <c r="AN46" s="22"/>
-      <c r="AO46" s="21"/>
-      <c r="AP46" s="21"/>
-      <c r="AQ46" s="21"/>
-      <c r="AR46" s="21"/>
-      <c r="AS46" s="21"/>
-      <c r="AT46" s="21"/>
-      <c r="AU46" s="21"/>
-      <c r="AV46" s="21"/>
-      <c r="AW46" s="21"/>
-      <c r="AX46" s="21"/>
-      <c r="AY46" s="21"/>
-      <c r="AZ46" s="21"/>
-      <c r="BA46" s="21"/>
-      <c r="BB46" s="21"/>
+      <c r="U46" s="22"/>
+      <c r="V46" s="22"/>
+      <c r="W46" s="22"/>
+      <c r="X46" s="22"/>
+      <c r="Y46" s="22"/>
+      <c r="Z46" s="22"/>
+      <c r="AA46" s="22"/>
+      <c r="AB46" s="22"/>
+      <c r="AC46" s="22"/>
+      <c r="AD46" s="22"/>
+      <c r="AE46" s="23"/>
+      <c r="AF46" s="23"/>
+      <c r="AG46" s="23"/>
+      <c r="AH46" s="23"/>
+      <c r="AI46" s="23"/>
+      <c r="AJ46" s="23"/>
+      <c r="AK46" s="23"/>
+      <c r="AL46" s="23"/>
+      <c r="AM46" s="23"/>
+      <c r="AN46" s="23"/>
+      <c r="AO46" s="22"/>
+      <c r="AP46" s="22"/>
+      <c r="AQ46" s="22"/>
+      <c r="AR46" s="22"/>
+      <c r="AS46" s="22"/>
+      <c r="AT46" s="22"/>
+      <c r="AU46" s="22"/>
+      <c r="AV46" s="22"/>
+      <c r="AW46" s="22"/>
+      <c r="AX46" s="22"/>
+      <c r="AY46" s="22"/>
+      <c r="AZ46" s="22"/>
+      <c r="BA46" s="22"/>
+      <c r="BB46" s="22"/>
       <c r="BM46" s="10"/>
       <c r="BN46" s="11" t="e">
         <f>IF(L46="",IF(AND(#REF!="",L45&lt;&gt;""),");",""),""""&amp;L46&amp;"""")</f>
@@ -7272,8 +7272,8 @@
       <c r="DS46" s="12"/>
     </row>
     <row r="47" spans="1:123" s="3" customFormat="1" ht="14.25">
-      <c r="A47" s="23"/>
-      <c r="B47" s="23"/>
+      <c r="A47" s="21"/>
+      <c r="B47" s="21"/>
       <c r="C47" s="16"/>
       <c r="D47" s="17"/>
       <c r="E47" s="17"/>
@@ -7292,40 +7292,40 @@
       <c r="R47" s="17"/>
       <c r="S47" s="17"/>
       <c r="T47" s="18"/>
-      <c r="U47" s="21"/>
-      <c r="V47" s="21"/>
-      <c r="W47" s="21"/>
-      <c r="X47" s="21"/>
-      <c r="Y47" s="21"/>
-      <c r="Z47" s="21"/>
-      <c r="AA47" s="21"/>
-      <c r="AB47" s="21"/>
-      <c r="AC47" s="21"/>
-      <c r="AD47" s="21"/>
-      <c r="AE47" s="22"/>
-      <c r="AF47" s="22"/>
-      <c r="AG47" s="22"/>
-      <c r="AH47" s="22"/>
-      <c r="AI47" s="22"/>
-      <c r="AJ47" s="22"/>
-      <c r="AK47" s="22"/>
-      <c r="AL47" s="22"/>
-      <c r="AM47" s="22"/>
-      <c r="AN47" s="22"/>
-      <c r="AO47" s="21"/>
-      <c r="AP47" s="21"/>
-      <c r="AQ47" s="21"/>
-      <c r="AR47" s="21"/>
-      <c r="AS47" s="21"/>
-      <c r="AT47" s="21"/>
-      <c r="AU47" s="21"/>
-      <c r="AV47" s="21"/>
-      <c r="AW47" s="21"/>
-      <c r="AX47" s="21"/>
-      <c r="AY47" s="21"/>
-      <c r="AZ47" s="21"/>
-      <c r="BA47" s="21"/>
-      <c r="BB47" s="21"/>
+      <c r="U47" s="22"/>
+      <c r="V47" s="22"/>
+      <c r="W47" s="22"/>
+      <c r="X47" s="22"/>
+      <c r="Y47" s="22"/>
+      <c r="Z47" s="22"/>
+      <c r="AA47" s="22"/>
+      <c r="AB47" s="22"/>
+      <c r="AC47" s="22"/>
+      <c r="AD47" s="22"/>
+      <c r="AE47" s="23"/>
+      <c r="AF47" s="23"/>
+      <c r="AG47" s="23"/>
+      <c r="AH47" s="23"/>
+      <c r="AI47" s="23"/>
+      <c r="AJ47" s="23"/>
+      <c r="AK47" s="23"/>
+      <c r="AL47" s="23"/>
+      <c r="AM47" s="23"/>
+      <c r="AN47" s="23"/>
+      <c r="AO47" s="22"/>
+      <c r="AP47" s="22"/>
+      <c r="AQ47" s="22"/>
+      <c r="AR47" s="22"/>
+      <c r="AS47" s="22"/>
+      <c r="AT47" s="22"/>
+      <c r="AU47" s="22"/>
+      <c r="AV47" s="22"/>
+      <c r="AW47" s="22"/>
+      <c r="AX47" s="22"/>
+      <c r="AY47" s="22"/>
+      <c r="AZ47" s="22"/>
+      <c r="BA47" s="22"/>
+      <c r="BB47" s="22"/>
       <c r="BM47" s="10"/>
       <c r="BN47" s="11" t="e">
         <f>IF(L47="",IF(AND(#REF!="",#REF!&lt;&gt;""),");",""),""""&amp;L47&amp;"""")</f>
@@ -7413,8 +7413,8 @@
       <c r="DS47" s="12"/>
     </row>
     <row r="48" spans="1:123" s="3" customFormat="1" ht="14.25">
-      <c r="A48" s="23"/>
-      <c r="B48" s="23"/>
+      <c r="A48" s="21"/>
+      <c r="B48" s="21"/>
       <c r="C48" s="16"/>
       <c r="D48" s="17"/>
       <c r="E48" s="17"/>
@@ -7433,40 +7433,40 @@
       <c r="R48" s="17"/>
       <c r="S48" s="17"/>
       <c r="T48" s="18"/>
-      <c r="U48" s="21"/>
-      <c r="V48" s="21"/>
-      <c r="W48" s="21"/>
-      <c r="X48" s="21"/>
-      <c r="Y48" s="21"/>
-      <c r="Z48" s="21"/>
-      <c r="AA48" s="21"/>
-      <c r="AB48" s="21"/>
-      <c r="AC48" s="21"/>
-      <c r="AD48" s="21"/>
-      <c r="AE48" s="22"/>
-      <c r="AF48" s="22"/>
-      <c r="AG48" s="22"/>
-      <c r="AH48" s="22"/>
-      <c r="AI48" s="22"/>
-      <c r="AJ48" s="22"/>
-      <c r="AK48" s="22"/>
-      <c r="AL48" s="22"/>
-      <c r="AM48" s="22"/>
-      <c r="AN48" s="22"/>
-      <c r="AO48" s="21"/>
-      <c r="AP48" s="21"/>
-      <c r="AQ48" s="21"/>
-      <c r="AR48" s="21"/>
-      <c r="AS48" s="21"/>
-      <c r="AT48" s="21"/>
-      <c r="AU48" s="21"/>
-      <c r="AV48" s="21"/>
-      <c r="AW48" s="21"/>
-      <c r="AX48" s="21"/>
-      <c r="AY48" s="21"/>
-      <c r="AZ48" s="21"/>
-      <c r="BA48" s="21"/>
-      <c r="BB48" s="21"/>
+      <c r="U48" s="22"/>
+      <c r="V48" s="22"/>
+      <c r="W48" s="22"/>
+      <c r="X48" s="22"/>
+      <c r="Y48" s="22"/>
+      <c r="Z48" s="22"/>
+      <c r="AA48" s="22"/>
+      <c r="AB48" s="22"/>
+      <c r="AC48" s="22"/>
+      <c r="AD48" s="22"/>
+      <c r="AE48" s="23"/>
+      <c r="AF48" s="23"/>
+      <c r="AG48" s="23"/>
+      <c r="AH48" s="23"/>
+      <c r="AI48" s="23"/>
+      <c r="AJ48" s="23"/>
+      <c r="AK48" s="23"/>
+      <c r="AL48" s="23"/>
+      <c r="AM48" s="23"/>
+      <c r="AN48" s="23"/>
+      <c r="AO48" s="22"/>
+      <c r="AP48" s="22"/>
+      <c r="AQ48" s="22"/>
+      <c r="AR48" s="22"/>
+      <c r="AS48" s="22"/>
+      <c r="AT48" s="22"/>
+      <c r="AU48" s="22"/>
+      <c r="AV48" s="22"/>
+      <c r="AW48" s="22"/>
+      <c r="AX48" s="22"/>
+      <c r="AY48" s="22"/>
+      <c r="AZ48" s="22"/>
+      <c r="BA48" s="22"/>
+      <c r="BB48" s="22"/>
       <c r="BM48" s="10"/>
       <c r="BN48" s="11" t="e">
         <f>IF(L48="",IF(AND(#REF!="",#REF!&lt;&gt;""),");",""),""""&amp;L48&amp;"""")</f>
@@ -7554,8 +7554,8 @@
       <c r="DS48" s="12"/>
     </row>
     <row r="49" spans="1:123" s="3" customFormat="1" ht="14.25">
-      <c r="A49" s="23"/>
-      <c r="B49" s="23"/>
+      <c r="A49" s="21"/>
+      <c r="B49" s="21"/>
       <c r="C49" s="16"/>
       <c r="D49" s="17"/>
       <c r="E49" s="17"/>
@@ -7574,40 +7574,40 @@
       <c r="R49" s="17"/>
       <c r="S49" s="17"/>
       <c r="T49" s="18"/>
-      <c r="U49" s="21"/>
-      <c r="V49" s="21"/>
-      <c r="W49" s="21"/>
-      <c r="X49" s="21"/>
-      <c r="Y49" s="21"/>
-      <c r="Z49" s="21"/>
-      <c r="AA49" s="21"/>
-      <c r="AB49" s="21"/>
-      <c r="AC49" s="21"/>
-      <c r="AD49" s="21"/>
-      <c r="AE49" s="22"/>
-      <c r="AF49" s="22"/>
-      <c r="AG49" s="22"/>
-      <c r="AH49" s="22"/>
-      <c r="AI49" s="22"/>
-      <c r="AJ49" s="22"/>
-      <c r="AK49" s="22"/>
-      <c r="AL49" s="22"/>
-      <c r="AM49" s="22"/>
-      <c r="AN49" s="22"/>
-      <c r="AO49" s="21"/>
-      <c r="AP49" s="21"/>
-      <c r="AQ49" s="21"/>
-      <c r="AR49" s="21"/>
-      <c r="AS49" s="21"/>
-      <c r="AT49" s="21"/>
-      <c r="AU49" s="21"/>
-      <c r="AV49" s="21"/>
-      <c r="AW49" s="21"/>
-      <c r="AX49" s="21"/>
-      <c r="AY49" s="21"/>
-      <c r="AZ49" s="21"/>
-      <c r="BA49" s="21"/>
-      <c r="BB49" s="21"/>
+      <c r="U49" s="22"/>
+      <c r="V49" s="22"/>
+      <c r="W49" s="22"/>
+      <c r="X49" s="22"/>
+      <c r="Y49" s="22"/>
+      <c r="Z49" s="22"/>
+      <c r="AA49" s="22"/>
+      <c r="AB49" s="22"/>
+      <c r="AC49" s="22"/>
+      <c r="AD49" s="22"/>
+      <c r="AE49" s="23"/>
+      <c r="AF49" s="23"/>
+      <c r="AG49" s="23"/>
+      <c r="AH49" s="23"/>
+      <c r="AI49" s="23"/>
+      <c r="AJ49" s="23"/>
+      <c r="AK49" s="23"/>
+      <c r="AL49" s="23"/>
+      <c r="AM49" s="23"/>
+      <c r="AN49" s="23"/>
+      <c r="AO49" s="22"/>
+      <c r="AP49" s="22"/>
+      <c r="AQ49" s="22"/>
+      <c r="AR49" s="22"/>
+      <c r="AS49" s="22"/>
+      <c r="AT49" s="22"/>
+      <c r="AU49" s="22"/>
+      <c r="AV49" s="22"/>
+      <c r="AW49" s="22"/>
+      <c r="AX49" s="22"/>
+      <c r="AY49" s="22"/>
+      <c r="AZ49" s="22"/>
+      <c r="BA49" s="22"/>
+      <c r="BB49" s="22"/>
       <c r="BM49" s="10"/>
       <c r="BN49" s="11" t="e">
         <f>IF(L49="",IF(AND(#REF!="",#REF!&lt;&gt;""),");",""),""""&amp;L49&amp;"""")</f>
@@ -7695,8 +7695,8 @@
       <c r="DS49" s="12"/>
     </row>
     <row r="50" spans="1:123" s="3" customFormat="1" ht="14.25">
-      <c r="A50" s="23"/>
-      <c r="B50" s="23"/>
+      <c r="A50" s="21"/>
+      <c r="B50" s="21"/>
       <c r="C50" s="16"/>
       <c r="D50" s="17"/>
       <c r="E50" s="17"/>
@@ -7715,40 +7715,40 @@
       <c r="R50" s="17"/>
       <c r="S50" s="17"/>
       <c r="T50" s="18"/>
-      <c r="U50" s="21"/>
-      <c r="V50" s="21"/>
-      <c r="W50" s="21"/>
-      <c r="X50" s="21"/>
-      <c r="Y50" s="21"/>
-      <c r="Z50" s="21"/>
-      <c r="AA50" s="21"/>
-      <c r="AB50" s="21"/>
-      <c r="AC50" s="21"/>
-      <c r="AD50" s="21"/>
-      <c r="AE50" s="22"/>
-      <c r="AF50" s="22"/>
-      <c r="AG50" s="22"/>
-      <c r="AH50" s="22"/>
-      <c r="AI50" s="22"/>
-      <c r="AJ50" s="22"/>
-      <c r="AK50" s="22"/>
-      <c r="AL50" s="22"/>
-      <c r="AM50" s="22"/>
-      <c r="AN50" s="22"/>
-      <c r="AO50" s="21"/>
-      <c r="AP50" s="21"/>
-      <c r="AQ50" s="21"/>
-      <c r="AR50" s="21"/>
-      <c r="AS50" s="21"/>
-      <c r="AT50" s="21"/>
-      <c r="AU50" s="21"/>
-      <c r="AV50" s="21"/>
-      <c r="AW50" s="21"/>
-      <c r="AX50" s="21"/>
-      <c r="AY50" s="21"/>
-      <c r="AZ50" s="21"/>
-      <c r="BA50" s="21"/>
-      <c r="BB50" s="21"/>
+      <c r="U50" s="22"/>
+      <c r="V50" s="22"/>
+      <c r="W50" s="22"/>
+      <c r="X50" s="22"/>
+      <c r="Y50" s="22"/>
+      <c r="Z50" s="22"/>
+      <c r="AA50" s="22"/>
+      <c r="AB50" s="22"/>
+      <c r="AC50" s="22"/>
+      <c r="AD50" s="22"/>
+      <c r="AE50" s="23"/>
+      <c r="AF50" s="23"/>
+      <c r="AG50" s="23"/>
+      <c r="AH50" s="23"/>
+      <c r="AI50" s="23"/>
+      <c r="AJ50" s="23"/>
+      <c r="AK50" s="23"/>
+      <c r="AL50" s="23"/>
+      <c r="AM50" s="23"/>
+      <c r="AN50" s="23"/>
+      <c r="AO50" s="22"/>
+      <c r="AP50" s="22"/>
+      <c r="AQ50" s="22"/>
+      <c r="AR50" s="22"/>
+      <c r="AS50" s="22"/>
+      <c r="AT50" s="22"/>
+      <c r="AU50" s="22"/>
+      <c r="AV50" s="22"/>
+      <c r="AW50" s="22"/>
+      <c r="AX50" s="22"/>
+      <c r="AY50" s="22"/>
+      <c r="AZ50" s="22"/>
+      <c r="BA50" s="22"/>
+      <c r="BB50" s="22"/>
       <c r="BM50" s="10"/>
       <c r="BN50" s="11" t="e">
         <f>IF(L50="",IF(AND(#REF!="",#REF!&lt;&gt;""),");",""),""""&amp;L50&amp;"""")</f>
@@ -7836,8 +7836,8 @@
       <c r="DS50" s="12"/>
     </row>
     <row r="51" spans="1:123" s="3" customFormat="1" ht="14.25">
-      <c r="A51" s="23"/>
-      <c r="B51" s="23"/>
+      <c r="A51" s="21"/>
+      <c r="B51" s="21"/>
       <c r="C51" s="16"/>
       <c r="D51" s="17"/>
       <c r="E51" s="17"/>
@@ -7847,7 +7847,7 @@
       <c r="I51" s="17"/>
       <c r="J51" s="17"/>
       <c r="K51" s="18"/>
-      <c r="L51" s="24"/>
+      <c r="L51" s="74"/>
       <c r="M51" s="17"/>
       <c r="N51" s="17"/>
       <c r="O51" s="17"/>
@@ -7856,40 +7856,40 @@
       <c r="R51" s="17"/>
       <c r="S51" s="17"/>
       <c r="T51" s="18"/>
-      <c r="U51" s="21"/>
-      <c r="V51" s="21"/>
-      <c r="W51" s="21"/>
-      <c r="X51" s="21"/>
-      <c r="Y51" s="21"/>
-      <c r="Z51" s="21"/>
-      <c r="AA51" s="21"/>
-      <c r="AB51" s="21"/>
-      <c r="AC51" s="21"/>
-      <c r="AD51" s="21"/>
-      <c r="AE51" s="22"/>
-      <c r="AF51" s="22"/>
-      <c r="AG51" s="22"/>
-      <c r="AH51" s="22"/>
-      <c r="AI51" s="22"/>
-      <c r="AJ51" s="22"/>
-      <c r="AK51" s="22"/>
-      <c r="AL51" s="22"/>
-      <c r="AM51" s="22"/>
-      <c r="AN51" s="22"/>
-      <c r="AO51" s="21"/>
-      <c r="AP51" s="21"/>
-      <c r="AQ51" s="21"/>
-      <c r="AR51" s="21"/>
-      <c r="AS51" s="21"/>
-      <c r="AT51" s="21"/>
-      <c r="AU51" s="21"/>
-      <c r="AV51" s="21"/>
-      <c r="AW51" s="21"/>
-      <c r="AX51" s="21"/>
-      <c r="AY51" s="21"/>
-      <c r="AZ51" s="21"/>
-      <c r="BA51" s="21"/>
-      <c r="BB51" s="21"/>
+      <c r="U51" s="22"/>
+      <c r="V51" s="22"/>
+      <c r="W51" s="22"/>
+      <c r="X51" s="22"/>
+      <c r="Y51" s="22"/>
+      <c r="Z51" s="22"/>
+      <c r="AA51" s="22"/>
+      <c r="AB51" s="22"/>
+      <c r="AC51" s="22"/>
+      <c r="AD51" s="22"/>
+      <c r="AE51" s="23"/>
+      <c r="AF51" s="23"/>
+      <c r="AG51" s="23"/>
+      <c r="AH51" s="23"/>
+      <c r="AI51" s="23"/>
+      <c r="AJ51" s="23"/>
+      <c r="AK51" s="23"/>
+      <c r="AL51" s="23"/>
+      <c r="AM51" s="23"/>
+      <c r="AN51" s="23"/>
+      <c r="AO51" s="22"/>
+      <c r="AP51" s="22"/>
+      <c r="AQ51" s="22"/>
+      <c r="AR51" s="22"/>
+      <c r="AS51" s="22"/>
+      <c r="AT51" s="22"/>
+      <c r="AU51" s="22"/>
+      <c r="AV51" s="22"/>
+      <c r="AW51" s="22"/>
+      <c r="AX51" s="22"/>
+      <c r="AY51" s="22"/>
+      <c r="AZ51" s="22"/>
+      <c r="BA51" s="22"/>
+      <c r="BB51" s="22"/>
       <c r="BM51" s="10"/>
       <c r="BN51" s="11" t="e">
         <f>IF(L51="",IF(AND(#REF!="",#REF!&lt;&gt;""),");",""),""""&amp;L51&amp;"""")</f>
@@ -9255,8 +9255,8 @@
       <c r="DS60" s="12"/>
     </row>
     <row r="61" spans="1:123" ht="14.25">
-      <c r="A61" s="23"/>
-      <c r="B61" s="23"/>
+      <c r="A61" s="21"/>
+      <c r="B61" s="21"/>
       <c r="C61" s="16"/>
       <c r="D61" s="17"/>
       <c r="E61" s="17"/>
@@ -9275,40 +9275,40 @@
       <c r="R61" s="17"/>
       <c r="S61" s="17"/>
       <c r="T61" s="18"/>
-      <c r="U61" s="21"/>
-      <c r="V61" s="21"/>
-      <c r="W61" s="21"/>
-      <c r="X61" s="21"/>
-      <c r="Y61" s="21"/>
-      <c r="Z61" s="21"/>
-      <c r="AA61" s="21"/>
-      <c r="AB61" s="21"/>
-      <c r="AC61" s="21"/>
-      <c r="AD61" s="21"/>
-      <c r="AE61" s="22"/>
-      <c r="AF61" s="22"/>
-      <c r="AG61" s="22"/>
-      <c r="AH61" s="22"/>
-      <c r="AI61" s="22"/>
-      <c r="AJ61" s="22"/>
-      <c r="AK61" s="22"/>
-      <c r="AL61" s="22"/>
-      <c r="AM61" s="22"/>
-      <c r="AN61" s="22"/>
-      <c r="AO61" s="21"/>
-      <c r="AP61" s="21"/>
-      <c r="AQ61" s="21"/>
-      <c r="AR61" s="21"/>
-      <c r="AS61" s="21"/>
-      <c r="AT61" s="21"/>
-      <c r="AU61" s="21"/>
-      <c r="AV61" s="21"/>
-      <c r="AW61" s="21"/>
-      <c r="AX61" s="21"/>
-      <c r="AY61" s="21"/>
-      <c r="AZ61" s="21"/>
-      <c r="BA61" s="21"/>
-      <c r="BB61" s="21"/>
+      <c r="U61" s="22"/>
+      <c r="V61" s="22"/>
+      <c r="W61" s="22"/>
+      <c r="X61" s="22"/>
+      <c r="Y61" s="22"/>
+      <c r="Z61" s="22"/>
+      <c r="AA61" s="22"/>
+      <c r="AB61" s="22"/>
+      <c r="AC61" s="22"/>
+      <c r="AD61" s="22"/>
+      <c r="AE61" s="23"/>
+      <c r="AF61" s="23"/>
+      <c r="AG61" s="23"/>
+      <c r="AH61" s="23"/>
+      <c r="AI61" s="23"/>
+      <c r="AJ61" s="23"/>
+      <c r="AK61" s="23"/>
+      <c r="AL61" s="23"/>
+      <c r="AM61" s="23"/>
+      <c r="AN61" s="23"/>
+      <c r="AO61" s="22"/>
+      <c r="AP61" s="22"/>
+      <c r="AQ61" s="22"/>
+      <c r="AR61" s="22"/>
+      <c r="AS61" s="22"/>
+      <c r="AT61" s="22"/>
+      <c r="AU61" s="22"/>
+      <c r="AV61" s="22"/>
+      <c r="AW61" s="22"/>
+      <c r="AX61" s="22"/>
+      <c r="AY61" s="22"/>
+      <c r="AZ61" s="22"/>
+      <c r="BA61" s="22"/>
+      <c r="BB61" s="22"/>
       <c r="BN61" s="8" t="e">
         <f>IF(L61="",IF(AND(L62="",#REF!&lt;&gt;""),");",""),""""&amp;L61&amp;"""")</f>
         <v>#REF!</v>
@@ -9347,8 +9347,8 @@
       </c>
     </row>
     <row r="62" spans="1:123" ht="14.25">
-      <c r="A62" s="23"/>
-      <c r="B62" s="23"/>
+      <c r="A62" s="21"/>
+      <c r="B62" s="21"/>
       <c r="C62" s="16"/>
       <c r="D62" s="17"/>
       <c r="E62" s="17"/>
@@ -9367,40 +9367,40 @@
       <c r="R62" s="17"/>
       <c r="S62" s="17"/>
       <c r="T62" s="18"/>
-      <c r="U62" s="21"/>
-      <c r="V62" s="21"/>
-      <c r="W62" s="21"/>
-      <c r="X62" s="21"/>
-      <c r="Y62" s="21"/>
-      <c r="Z62" s="21"/>
-      <c r="AA62" s="21"/>
-      <c r="AB62" s="21"/>
-      <c r="AC62" s="21"/>
-      <c r="AD62" s="21"/>
-      <c r="AE62" s="22"/>
-      <c r="AF62" s="22"/>
-      <c r="AG62" s="22"/>
-      <c r="AH62" s="22"/>
-      <c r="AI62" s="22"/>
-      <c r="AJ62" s="22"/>
-      <c r="AK62" s="22"/>
-      <c r="AL62" s="22"/>
-      <c r="AM62" s="22"/>
-      <c r="AN62" s="22"/>
-      <c r="AO62" s="21"/>
-      <c r="AP62" s="21"/>
-      <c r="AQ62" s="21"/>
-      <c r="AR62" s="21"/>
-      <c r="AS62" s="21"/>
-      <c r="AT62" s="21"/>
-      <c r="AU62" s="21"/>
-      <c r="AV62" s="21"/>
-      <c r="AW62" s="21"/>
-      <c r="AX62" s="21"/>
-      <c r="AY62" s="21"/>
-      <c r="AZ62" s="21"/>
-      <c r="BA62" s="21"/>
-      <c r="BB62" s="21"/>
+      <c r="U62" s="22"/>
+      <c r="V62" s="22"/>
+      <c r="W62" s="22"/>
+      <c r="X62" s="22"/>
+      <c r="Y62" s="22"/>
+      <c r="Z62" s="22"/>
+      <c r="AA62" s="22"/>
+      <c r="AB62" s="22"/>
+      <c r="AC62" s="22"/>
+      <c r="AD62" s="22"/>
+      <c r="AE62" s="23"/>
+      <c r="AF62" s="23"/>
+      <c r="AG62" s="23"/>
+      <c r="AH62" s="23"/>
+      <c r="AI62" s="23"/>
+      <c r="AJ62" s="23"/>
+      <c r="AK62" s="23"/>
+      <c r="AL62" s="23"/>
+      <c r="AM62" s="23"/>
+      <c r="AN62" s="23"/>
+      <c r="AO62" s="22"/>
+      <c r="AP62" s="22"/>
+      <c r="AQ62" s="22"/>
+      <c r="AR62" s="22"/>
+      <c r="AS62" s="22"/>
+      <c r="AT62" s="22"/>
+      <c r="AU62" s="22"/>
+      <c r="AV62" s="22"/>
+      <c r="AW62" s="22"/>
+      <c r="AX62" s="22"/>
+      <c r="AY62" s="22"/>
+      <c r="AZ62" s="22"/>
+      <c r="BA62" s="22"/>
+      <c r="BB62" s="22"/>
       <c r="BN62" s="8" t="str">
         <f t="shared" si="25"/>
         <v/>
@@ -9439,8 +9439,8 @@
       </c>
     </row>
     <row r="63" spans="1:123" ht="14.25">
-      <c r="A63" s="23"/>
-      <c r="B63" s="23"/>
+      <c r="A63" s="21"/>
+      <c r="B63" s="21"/>
       <c r="C63" s="16"/>
       <c r="D63" s="17"/>
       <c r="E63" s="17"/>
@@ -9459,40 +9459,40 @@
       <c r="R63" s="17"/>
       <c r="S63" s="17"/>
       <c r="T63" s="18"/>
-      <c r="U63" s="21"/>
-      <c r="V63" s="21"/>
-      <c r="W63" s="21"/>
-      <c r="X63" s="21"/>
-      <c r="Y63" s="21"/>
-      <c r="Z63" s="21"/>
-      <c r="AA63" s="21"/>
-      <c r="AB63" s="21"/>
-      <c r="AC63" s="21"/>
-      <c r="AD63" s="21"/>
-      <c r="AE63" s="22"/>
-      <c r="AF63" s="22"/>
-      <c r="AG63" s="22"/>
-      <c r="AH63" s="22"/>
-      <c r="AI63" s="22"/>
-      <c r="AJ63" s="22"/>
-      <c r="AK63" s="22"/>
-      <c r="AL63" s="22"/>
-      <c r="AM63" s="22"/>
-      <c r="AN63" s="22"/>
-      <c r="AO63" s="21"/>
-      <c r="AP63" s="21"/>
-      <c r="AQ63" s="21"/>
-      <c r="AR63" s="21"/>
-      <c r="AS63" s="21"/>
-      <c r="AT63" s="21"/>
-      <c r="AU63" s="21"/>
-      <c r="AV63" s="21"/>
-      <c r="AW63" s="21"/>
-      <c r="AX63" s="21"/>
-      <c r="AY63" s="21"/>
-      <c r="AZ63" s="21"/>
-      <c r="BA63" s="21"/>
-      <c r="BB63" s="21"/>
+      <c r="U63" s="22"/>
+      <c r="V63" s="22"/>
+      <c r="W63" s="22"/>
+      <c r="X63" s="22"/>
+      <c r="Y63" s="22"/>
+      <c r="Z63" s="22"/>
+      <c r="AA63" s="22"/>
+      <c r="AB63" s="22"/>
+      <c r="AC63" s="22"/>
+      <c r="AD63" s="22"/>
+      <c r="AE63" s="23"/>
+      <c r="AF63" s="23"/>
+      <c r="AG63" s="23"/>
+      <c r="AH63" s="23"/>
+      <c r="AI63" s="23"/>
+      <c r="AJ63" s="23"/>
+      <c r="AK63" s="23"/>
+      <c r="AL63" s="23"/>
+      <c r="AM63" s="23"/>
+      <c r="AN63" s="23"/>
+      <c r="AO63" s="22"/>
+      <c r="AP63" s="22"/>
+      <c r="AQ63" s="22"/>
+      <c r="AR63" s="22"/>
+      <c r="AS63" s="22"/>
+      <c r="AT63" s="22"/>
+      <c r="AU63" s="22"/>
+      <c r="AV63" s="22"/>
+      <c r="AW63" s="22"/>
+      <c r="AX63" s="22"/>
+      <c r="AY63" s="22"/>
+      <c r="AZ63" s="22"/>
+      <c r="BA63" s="22"/>
+      <c r="BB63" s="22"/>
       <c r="BN63" s="8" t="str">
         <f>IF(L63="",IF(AND(L65="",L62&lt;&gt;""),");",""),""""&amp;L63&amp;"""")</f>
         <v/>
@@ -9531,8 +9531,8 @@
       </c>
     </row>
     <row r="64" spans="1:123" ht="14.25">
-      <c r="A64" s="23"/>
-      <c r="B64" s="23"/>
+      <c r="A64" s="21"/>
+      <c r="B64" s="21"/>
       <c r="C64" s="16"/>
       <c r="D64" s="17"/>
       <c r="E64" s="17"/>
@@ -9551,40 +9551,40 @@
       <c r="R64" s="17"/>
       <c r="S64" s="17"/>
       <c r="T64" s="18"/>
-      <c r="U64" s="21"/>
-      <c r="V64" s="21"/>
-      <c r="W64" s="21"/>
-      <c r="X64" s="21"/>
-      <c r="Y64" s="21"/>
-      <c r="Z64" s="21"/>
-      <c r="AA64" s="21"/>
-      <c r="AB64" s="21"/>
-      <c r="AC64" s="21"/>
-      <c r="AD64" s="21"/>
-      <c r="AE64" s="22"/>
-      <c r="AF64" s="22"/>
-      <c r="AG64" s="22"/>
-      <c r="AH64" s="22"/>
-      <c r="AI64" s="22"/>
-      <c r="AJ64" s="22"/>
-      <c r="AK64" s="22"/>
-      <c r="AL64" s="22"/>
-      <c r="AM64" s="22"/>
-      <c r="AN64" s="22"/>
-      <c r="AO64" s="21"/>
-      <c r="AP64" s="21"/>
-      <c r="AQ64" s="21"/>
-      <c r="AR64" s="21"/>
-      <c r="AS64" s="21"/>
-      <c r="AT64" s="21"/>
-      <c r="AU64" s="21"/>
-      <c r="AV64" s="21"/>
-      <c r="AW64" s="21"/>
-      <c r="AX64" s="21"/>
-      <c r="AY64" s="21"/>
-      <c r="AZ64" s="21"/>
-      <c r="BA64" s="21"/>
-      <c r="BB64" s="21"/>
+      <c r="U64" s="22"/>
+      <c r="V64" s="22"/>
+      <c r="W64" s="22"/>
+      <c r="X64" s="22"/>
+      <c r="Y64" s="22"/>
+      <c r="Z64" s="22"/>
+      <c r="AA64" s="22"/>
+      <c r="AB64" s="22"/>
+      <c r="AC64" s="22"/>
+      <c r="AD64" s="22"/>
+      <c r="AE64" s="23"/>
+      <c r="AF64" s="23"/>
+      <c r="AG64" s="23"/>
+      <c r="AH64" s="23"/>
+      <c r="AI64" s="23"/>
+      <c r="AJ64" s="23"/>
+      <c r="AK64" s="23"/>
+      <c r="AL64" s="23"/>
+      <c r="AM64" s="23"/>
+      <c r="AN64" s="23"/>
+      <c r="AO64" s="22"/>
+      <c r="AP64" s="22"/>
+      <c r="AQ64" s="22"/>
+      <c r="AR64" s="22"/>
+      <c r="AS64" s="22"/>
+      <c r="AT64" s="22"/>
+      <c r="AU64" s="22"/>
+      <c r="AV64" s="22"/>
+      <c r="AW64" s="22"/>
+      <c r="AX64" s="22"/>
+      <c r="AY64" s="22"/>
+      <c r="AZ64" s="22"/>
+      <c r="BA64" s="22"/>
+      <c r="BB64" s="22"/>
       <c r="BN64" s="8" t="str">
         <f>IF(L64="",IF(AND(L65="",L62&lt;&gt;""),");",""),""""&amp;L64&amp;"""")</f>
         <v/>
@@ -9623,8 +9623,8 @@
       </c>
     </row>
     <row r="65" spans="1:101" ht="14.25">
-      <c r="A65" s="23"/>
-      <c r="B65" s="23"/>
+      <c r="A65" s="21"/>
+      <c r="B65" s="21"/>
       <c r="C65" s="16"/>
       <c r="D65" s="17"/>
       <c r="E65" s="17"/>
@@ -9643,40 +9643,40 @@
       <c r="R65" s="17"/>
       <c r="S65" s="17"/>
       <c r="T65" s="18"/>
-      <c r="U65" s="21"/>
-      <c r="V65" s="21"/>
-      <c r="W65" s="21"/>
-      <c r="X65" s="21"/>
-      <c r="Y65" s="21"/>
-      <c r="Z65" s="21"/>
-      <c r="AA65" s="21"/>
-      <c r="AB65" s="21"/>
-      <c r="AC65" s="21"/>
-      <c r="AD65" s="21"/>
-      <c r="AE65" s="22"/>
-      <c r="AF65" s="22"/>
-      <c r="AG65" s="22"/>
-      <c r="AH65" s="22"/>
-      <c r="AI65" s="22"/>
-      <c r="AJ65" s="22"/>
-      <c r="AK65" s="22"/>
-      <c r="AL65" s="22"/>
-      <c r="AM65" s="22"/>
-      <c r="AN65" s="22"/>
-      <c r="AO65" s="21"/>
-      <c r="AP65" s="21"/>
-      <c r="AQ65" s="21"/>
-      <c r="AR65" s="21"/>
-      <c r="AS65" s="21"/>
-      <c r="AT65" s="21"/>
-      <c r="AU65" s="21"/>
-      <c r="AV65" s="21"/>
-      <c r="AW65" s="21"/>
-      <c r="AX65" s="21"/>
-      <c r="AY65" s="21"/>
-      <c r="AZ65" s="21"/>
-      <c r="BA65" s="21"/>
-      <c r="BB65" s="21"/>
+      <c r="U65" s="22"/>
+      <c r="V65" s="22"/>
+      <c r="W65" s="22"/>
+      <c r="X65" s="22"/>
+      <c r="Y65" s="22"/>
+      <c r="Z65" s="22"/>
+      <c r="AA65" s="22"/>
+      <c r="AB65" s="22"/>
+      <c r="AC65" s="22"/>
+      <c r="AD65" s="22"/>
+      <c r="AE65" s="23"/>
+      <c r="AF65" s="23"/>
+      <c r="AG65" s="23"/>
+      <c r="AH65" s="23"/>
+      <c r="AI65" s="23"/>
+      <c r="AJ65" s="23"/>
+      <c r="AK65" s="23"/>
+      <c r="AL65" s="23"/>
+      <c r="AM65" s="23"/>
+      <c r="AN65" s="23"/>
+      <c r="AO65" s="22"/>
+      <c r="AP65" s="22"/>
+      <c r="AQ65" s="22"/>
+      <c r="AR65" s="22"/>
+      <c r="AS65" s="22"/>
+      <c r="AT65" s="22"/>
+      <c r="AU65" s="22"/>
+      <c r="AV65" s="22"/>
+      <c r="AW65" s="22"/>
+      <c r="AX65" s="22"/>
+      <c r="AY65" s="22"/>
+      <c r="AZ65" s="22"/>
+      <c r="BA65" s="22"/>
+      <c r="BB65" s="22"/>
       <c r="BN65" s="8" t="e">
         <f>IF(L65="",IF(AND(#REF!="",L63&lt;&gt;""),");",""),""""&amp;L65&amp;"""")</f>
         <v>#REF!</v>
@@ -43262,231 +43262,502 @@
     </row>
   </sheetData>
   <mergeCells count="757">
-    <mergeCell ref="AK58:AL58"/>
-    <mergeCell ref="AM58:AN58"/>
-    <mergeCell ref="AO58:BB58"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="C58:K58"/>
-    <mergeCell ref="L58:T58"/>
-    <mergeCell ref="U58:Y58"/>
-    <mergeCell ref="Z58:AA58"/>
-    <mergeCell ref="AB58:AD58"/>
-    <mergeCell ref="AE58:AF58"/>
-    <mergeCell ref="AG58:AH58"/>
-    <mergeCell ref="AI58:AJ58"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:K48"/>
-    <mergeCell ref="L48:T48"/>
-    <mergeCell ref="U48:Y48"/>
-    <mergeCell ref="Z48:AA48"/>
-    <mergeCell ref="AB48:AD48"/>
-    <mergeCell ref="AE48:AF48"/>
-    <mergeCell ref="AG48:AH48"/>
-    <mergeCell ref="AI48:AJ48"/>
-    <mergeCell ref="AQ1:AZ1"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="O2:X2"/>
-    <mergeCell ref="Y2:AB2"/>
-    <mergeCell ref="AC2:AL2"/>
-    <mergeCell ref="AM2:AP2"/>
-    <mergeCell ref="AQ2:AZ2"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="O1:X1"/>
-    <mergeCell ref="Y1:AB1"/>
-    <mergeCell ref="AC1:AL1"/>
-    <mergeCell ref="AM1:AP1"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="AG4:AH4"/>
-    <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="AK4:AL4"/>
-    <mergeCell ref="AM4:AN4"/>
-    <mergeCell ref="AO4:BB4"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="L4:T4"/>
-    <mergeCell ref="U4:Y4"/>
-    <mergeCell ref="Z4:AA4"/>
-    <mergeCell ref="AB4:AD4"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="AK5:AL5"/>
-    <mergeCell ref="AM5:AN5"/>
-    <mergeCell ref="AO5:BB5"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:K5"/>
-    <mergeCell ref="L5:T5"/>
-    <mergeCell ref="U5:Y5"/>
-    <mergeCell ref="Z5:AA5"/>
-    <mergeCell ref="AB5:AD5"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="AG6:AH6"/>
-    <mergeCell ref="AI6:AJ6"/>
-    <mergeCell ref="AK6:AL6"/>
-    <mergeCell ref="AM6:AN6"/>
-    <mergeCell ref="AO6:BB6"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:K6"/>
-    <mergeCell ref="L6:T6"/>
-    <mergeCell ref="U6:Y6"/>
-    <mergeCell ref="Z6:AA6"/>
-    <mergeCell ref="AB6:AD6"/>
-    <mergeCell ref="AE7:AF7"/>
-    <mergeCell ref="AG7:AH7"/>
-    <mergeCell ref="AI7:AJ7"/>
-    <mergeCell ref="AK7:AL7"/>
-    <mergeCell ref="AM7:AN7"/>
-    <mergeCell ref="AO7:BB7"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:K7"/>
-    <mergeCell ref="L7:T7"/>
-    <mergeCell ref="U7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="AB7:AD7"/>
-    <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="AG8:AH8"/>
-    <mergeCell ref="AI8:AJ8"/>
-    <mergeCell ref="AK8:AL8"/>
-    <mergeCell ref="AM8:AN8"/>
-    <mergeCell ref="AO8:BB8"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:K8"/>
-    <mergeCell ref="L8:T8"/>
-    <mergeCell ref="U8:Y8"/>
-    <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="AB8:AD8"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="AG9:AH9"/>
-    <mergeCell ref="AI9:AJ9"/>
-    <mergeCell ref="AK9:AL9"/>
-    <mergeCell ref="AM9:AN9"/>
-    <mergeCell ref="AO9:BB9"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:K9"/>
-    <mergeCell ref="L9:T9"/>
-    <mergeCell ref="U9:Y9"/>
-    <mergeCell ref="Z9:AA9"/>
-    <mergeCell ref="AB9:AD9"/>
-    <mergeCell ref="AE10:AF10"/>
-    <mergeCell ref="AG10:AH10"/>
-    <mergeCell ref="AI10:AJ10"/>
-    <mergeCell ref="AK10:AL10"/>
-    <mergeCell ref="AM10:AN10"/>
-    <mergeCell ref="AO10:BB10"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:K10"/>
-    <mergeCell ref="L10:T10"/>
-    <mergeCell ref="U10:Y10"/>
-    <mergeCell ref="Z10:AA10"/>
-    <mergeCell ref="AB10:AD10"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:K53"/>
-    <mergeCell ref="L53:T53"/>
-    <mergeCell ref="U53:Y53"/>
-    <mergeCell ref="Z53:AA53"/>
-    <mergeCell ref="AB53:AD53"/>
-    <mergeCell ref="AI52:AJ52"/>
-    <mergeCell ref="AK52:AL52"/>
-    <mergeCell ref="AM52:AN52"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:K52"/>
-    <mergeCell ref="L52:T52"/>
-    <mergeCell ref="U52:Y52"/>
-    <mergeCell ref="Z52:AA52"/>
-    <mergeCell ref="AB52:AD52"/>
-    <mergeCell ref="AE52:AF52"/>
-    <mergeCell ref="AG52:AH52"/>
-    <mergeCell ref="AK11:AL11"/>
-    <mergeCell ref="AM11:AN11"/>
-    <mergeCell ref="AO11:BB11"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:K11"/>
-    <mergeCell ref="L11:T11"/>
-    <mergeCell ref="U11:Y11"/>
-    <mergeCell ref="Z11:AA11"/>
-    <mergeCell ref="AB11:AD11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:K12"/>
-    <mergeCell ref="L12:T12"/>
-    <mergeCell ref="U12:Y12"/>
-    <mergeCell ref="Z12:AA12"/>
-    <mergeCell ref="AB12:AD12"/>
-    <mergeCell ref="AE11:AF11"/>
-    <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="AI11:AJ11"/>
-    <mergeCell ref="AE15:AF15"/>
-    <mergeCell ref="AG15:AH15"/>
-    <mergeCell ref="AI15:AJ15"/>
-    <mergeCell ref="AK15:AL15"/>
-    <mergeCell ref="AM15:AN15"/>
-    <mergeCell ref="AO15:BB15"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:K15"/>
-    <mergeCell ref="L15:T15"/>
-    <mergeCell ref="U15:Y15"/>
-    <mergeCell ref="Z15:AA15"/>
-    <mergeCell ref="AB15:AD15"/>
-    <mergeCell ref="AM17:AN17"/>
-    <mergeCell ref="AO17:BB17"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:K17"/>
-    <mergeCell ref="L17:T17"/>
-    <mergeCell ref="U17:Y17"/>
-    <mergeCell ref="Z17:AA17"/>
-    <mergeCell ref="AB17:AD17"/>
-    <mergeCell ref="AE16:AF16"/>
-    <mergeCell ref="AG16:AH16"/>
-    <mergeCell ref="AI16:AJ16"/>
-    <mergeCell ref="AK16:AL16"/>
-    <mergeCell ref="AM16:AN16"/>
-    <mergeCell ref="AO16:BB16"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:K16"/>
-    <mergeCell ref="L16:T16"/>
-    <mergeCell ref="U16:Y16"/>
-    <mergeCell ref="Z16:AA16"/>
-    <mergeCell ref="AB16:AD16"/>
-    <mergeCell ref="AM19:AN19"/>
-    <mergeCell ref="AO19:BB19"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:K19"/>
-    <mergeCell ref="L19:T19"/>
-    <mergeCell ref="U19:Y19"/>
-    <mergeCell ref="Z19:AA19"/>
-    <mergeCell ref="AB19:AD19"/>
-    <mergeCell ref="AE18:AF18"/>
-    <mergeCell ref="AG18:AH18"/>
-    <mergeCell ref="AI18:AJ18"/>
-    <mergeCell ref="AK18:AL18"/>
-    <mergeCell ref="AM18:AN18"/>
-    <mergeCell ref="AO18:BB18"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:K18"/>
-    <mergeCell ref="L18:T18"/>
-    <mergeCell ref="U18:Y18"/>
-    <mergeCell ref="Z18:AA18"/>
-    <mergeCell ref="AB18:AD18"/>
-    <mergeCell ref="AM21:AN21"/>
-    <mergeCell ref="AO21:BB21"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:K21"/>
-    <mergeCell ref="L21:T21"/>
-    <mergeCell ref="U21:Y21"/>
-    <mergeCell ref="Z21:AA21"/>
-    <mergeCell ref="AB21:AD21"/>
-    <mergeCell ref="AE20:AF20"/>
-    <mergeCell ref="AG20:AH20"/>
-    <mergeCell ref="AI20:AJ20"/>
-    <mergeCell ref="AK20:AL20"/>
-    <mergeCell ref="AM20:AN20"/>
-    <mergeCell ref="AO20:BB20"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:K20"/>
-    <mergeCell ref="L20:T20"/>
-    <mergeCell ref="U20:Y20"/>
-    <mergeCell ref="Z20:AA20"/>
-    <mergeCell ref="AB20:AD20"/>
+    <mergeCell ref="AE57:AF57"/>
+    <mergeCell ref="AG57:AH57"/>
+    <mergeCell ref="AI57:AJ57"/>
+    <mergeCell ref="AK60:AL60"/>
+    <mergeCell ref="AM60:AN60"/>
+    <mergeCell ref="AO60:BB60"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:K60"/>
+    <mergeCell ref="L60:T60"/>
+    <mergeCell ref="U60:Y60"/>
+    <mergeCell ref="Z60:AA60"/>
+    <mergeCell ref="AB60:AD60"/>
+    <mergeCell ref="AE60:AF60"/>
+    <mergeCell ref="AG60:AH60"/>
+    <mergeCell ref="AI60:AJ60"/>
+    <mergeCell ref="AK56:AL56"/>
+    <mergeCell ref="AM56:AN56"/>
+    <mergeCell ref="AO56:BB56"/>
+    <mergeCell ref="AK57:AL57"/>
+    <mergeCell ref="AM57:AN57"/>
+    <mergeCell ref="AO57:BB57"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:K59"/>
+    <mergeCell ref="L59:T59"/>
+    <mergeCell ref="U59:Y59"/>
+    <mergeCell ref="Z59:AA59"/>
+    <mergeCell ref="AB59:AD59"/>
+    <mergeCell ref="AE59:AF59"/>
+    <mergeCell ref="AG59:AH59"/>
+    <mergeCell ref="AI59:AJ59"/>
+    <mergeCell ref="AK59:AL59"/>
+    <mergeCell ref="AM59:AN59"/>
+    <mergeCell ref="AO59:BB59"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:K57"/>
+    <mergeCell ref="L57:T57"/>
+    <mergeCell ref="U57:Y57"/>
+    <mergeCell ref="Z57:AA57"/>
+    <mergeCell ref="AB57:AD57"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:K56"/>
+    <mergeCell ref="L56:T56"/>
+    <mergeCell ref="U56:Y56"/>
+    <mergeCell ref="Z56:AA56"/>
+    <mergeCell ref="AB56:AD56"/>
+    <mergeCell ref="AE56:AF56"/>
+    <mergeCell ref="AG56:AH56"/>
+    <mergeCell ref="AI56:AJ56"/>
+    <mergeCell ref="AB23:AD23"/>
+    <mergeCell ref="AE23:AF23"/>
+    <mergeCell ref="AG23:AH23"/>
+    <mergeCell ref="AI23:AJ23"/>
+    <mergeCell ref="AK23:AL23"/>
+    <mergeCell ref="AM23:AN23"/>
+    <mergeCell ref="AO23:BB23"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:K55"/>
+    <mergeCell ref="L55:T55"/>
+    <mergeCell ref="U55:Y55"/>
+    <mergeCell ref="AK51:AL51"/>
+    <mergeCell ref="AM51:AN51"/>
+    <mergeCell ref="AO51:BB51"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:K51"/>
+    <mergeCell ref="L51:T51"/>
+    <mergeCell ref="U51:Y51"/>
+    <mergeCell ref="Z51:AA51"/>
+    <mergeCell ref="AB51:AD51"/>
+    <mergeCell ref="AE51:AF51"/>
+    <mergeCell ref="AG51:AH51"/>
+    <mergeCell ref="AI51:AJ51"/>
+    <mergeCell ref="AI55:AJ55"/>
+    <mergeCell ref="AO64:BB64"/>
+    <mergeCell ref="L54:T54"/>
+    <mergeCell ref="C54:K54"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="AI65:AJ65"/>
+    <mergeCell ref="AK65:AL65"/>
+    <mergeCell ref="AM65:AN65"/>
+    <mergeCell ref="AO65:BB65"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:K65"/>
+    <mergeCell ref="L65:T65"/>
+    <mergeCell ref="U65:Y65"/>
+    <mergeCell ref="Z65:AA65"/>
+    <mergeCell ref="AB65:AD65"/>
+    <mergeCell ref="AI63:AJ63"/>
+    <mergeCell ref="AK63:AL63"/>
+    <mergeCell ref="AM63:AN63"/>
+    <mergeCell ref="AO63:BB63"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:K63"/>
+    <mergeCell ref="L63:T63"/>
+    <mergeCell ref="AK55:AL55"/>
+    <mergeCell ref="AM55:AN55"/>
+    <mergeCell ref="AO55:BB55"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:K50"/>
+    <mergeCell ref="L50:T50"/>
+    <mergeCell ref="U50:Y50"/>
+    <mergeCell ref="Z50:AA50"/>
+    <mergeCell ref="AB50:AD50"/>
+    <mergeCell ref="AE50:AF50"/>
+    <mergeCell ref="AG50:AH50"/>
+    <mergeCell ref="AI50:AJ50"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:K49"/>
+    <mergeCell ref="L49:T49"/>
+    <mergeCell ref="U49:Y49"/>
+    <mergeCell ref="Z49:AA49"/>
+    <mergeCell ref="AB49:AD49"/>
+    <mergeCell ref="AE49:AF49"/>
+    <mergeCell ref="AG49:AH49"/>
+    <mergeCell ref="AI49:AJ49"/>
+    <mergeCell ref="AB14:AD14"/>
+    <mergeCell ref="AE14:AF14"/>
+    <mergeCell ref="AG14:AH14"/>
+    <mergeCell ref="AI14:AJ14"/>
+    <mergeCell ref="AK14:AL14"/>
+    <mergeCell ref="AM14:AN14"/>
+    <mergeCell ref="AO14:BB14"/>
+    <mergeCell ref="AB54:AD54"/>
+    <mergeCell ref="Z54:AA54"/>
+    <mergeCell ref="AO47:BB47"/>
+    <mergeCell ref="AB47:AD47"/>
+    <mergeCell ref="AE47:AF47"/>
+    <mergeCell ref="AG47:AH47"/>
+    <mergeCell ref="AI47:AJ47"/>
+    <mergeCell ref="AK47:AL47"/>
+    <mergeCell ref="AM47:AN47"/>
+    <mergeCell ref="AB42:AD42"/>
+    <mergeCell ref="AK49:AL49"/>
+    <mergeCell ref="AM49:AN49"/>
+    <mergeCell ref="AO46:BB46"/>
+    <mergeCell ref="AB46:AD46"/>
+    <mergeCell ref="AE46:AF46"/>
+    <mergeCell ref="AG46:AH46"/>
+    <mergeCell ref="AO49:BB49"/>
+    <mergeCell ref="AE13:AF13"/>
+    <mergeCell ref="AG13:AH13"/>
+    <mergeCell ref="AI13:AJ13"/>
+    <mergeCell ref="AK13:AL13"/>
+    <mergeCell ref="AM13:AN13"/>
+    <mergeCell ref="AO13:BB13"/>
+    <mergeCell ref="Z13:AA13"/>
+    <mergeCell ref="AB13:AD13"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="AI12:AJ12"/>
+    <mergeCell ref="AK12:AL12"/>
+    <mergeCell ref="AM12:AN12"/>
+    <mergeCell ref="AO12:BB12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:K13"/>
+    <mergeCell ref="L13:T13"/>
+    <mergeCell ref="U13:Y13"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:K44"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:K47"/>
+    <mergeCell ref="L47:T47"/>
+    <mergeCell ref="U47:Y47"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:K40"/>
+    <mergeCell ref="L40:T40"/>
+    <mergeCell ref="U33:Y33"/>
+    <mergeCell ref="Z47:AA47"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:K33"/>
+    <mergeCell ref="L33:T33"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:K14"/>
+    <mergeCell ref="L14:T14"/>
+    <mergeCell ref="U14:Y14"/>
+    <mergeCell ref="Z14:AA14"/>
+    <mergeCell ref="Z23:AA23"/>
+    <mergeCell ref="L44:T44"/>
+    <mergeCell ref="U44:Y44"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:K43"/>
+    <mergeCell ref="L43:T43"/>
+    <mergeCell ref="U43:Y43"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:K42"/>
+    <mergeCell ref="L42:T42"/>
+    <mergeCell ref="U42:Y42"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:K46"/>
+    <mergeCell ref="L46:T46"/>
+    <mergeCell ref="U46:Y46"/>
+    <mergeCell ref="AE54:AF54"/>
+    <mergeCell ref="AG45:AH45"/>
+    <mergeCell ref="AI45:AJ45"/>
+    <mergeCell ref="AK45:AL45"/>
+    <mergeCell ref="AM45:AN45"/>
+    <mergeCell ref="AO45:BB45"/>
+    <mergeCell ref="AK46:AL46"/>
+    <mergeCell ref="AM46:AN46"/>
+    <mergeCell ref="AI53:AJ53"/>
+    <mergeCell ref="AK53:AL53"/>
+    <mergeCell ref="AM53:AN53"/>
+    <mergeCell ref="AO53:BB53"/>
+    <mergeCell ref="AO52:BB52"/>
+    <mergeCell ref="AK48:AL48"/>
+    <mergeCell ref="AM48:AN48"/>
+    <mergeCell ref="AO48:BB48"/>
+    <mergeCell ref="AK50:AL50"/>
+    <mergeCell ref="AM50:AN50"/>
+    <mergeCell ref="AO50:BB50"/>
+    <mergeCell ref="AK42:AL42"/>
+    <mergeCell ref="AM42:AN42"/>
+    <mergeCell ref="AO42:BB42"/>
+    <mergeCell ref="AO43:BB43"/>
+    <mergeCell ref="AG43:AH43"/>
+    <mergeCell ref="AI43:AJ43"/>
+    <mergeCell ref="AK43:AL43"/>
+    <mergeCell ref="AM43:AN43"/>
+    <mergeCell ref="AO54:BB54"/>
+    <mergeCell ref="AM54:AN54"/>
+    <mergeCell ref="AK54:AL54"/>
+    <mergeCell ref="AI54:AJ54"/>
+    <mergeCell ref="AG54:AH54"/>
+    <mergeCell ref="AO41:BB41"/>
+    <mergeCell ref="AK38:AL38"/>
+    <mergeCell ref="AM38:AN38"/>
+    <mergeCell ref="AO38:BB38"/>
+    <mergeCell ref="AK39:AL39"/>
+    <mergeCell ref="AM39:AN39"/>
+    <mergeCell ref="Z44:AA44"/>
+    <mergeCell ref="AB44:AD44"/>
+    <mergeCell ref="AE44:AF44"/>
+    <mergeCell ref="Z43:AA43"/>
+    <mergeCell ref="AB43:AD43"/>
+    <mergeCell ref="AE43:AF43"/>
+    <mergeCell ref="Z42:AA42"/>
+    <mergeCell ref="AK44:AL44"/>
+    <mergeCell ref="AM44:AN44"/>
+    <mergeCell ref="AO44:BB44"/>
+    <mergeCell ref="AO40:BB40"/>
+    <mergeCell ref="AB40:AD40"/>
+    <mergeCell ref="AE40:AF40"/>
+    <mergeCell ref="AG40:AH40"/>
+    <mergeCell ref="AI40:AJ40"/>
+    <mergeCell ref="AK40:AL40"/>
+    <mergeCell ref="AG44:AH44"/>
+    <mergeCell ref="AI44:AJ44"/>
+    <mergeCell ref="Z46:AA46"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:K45"/>
+    <mergeCell ref="L45:T45"/>
+    <mergeCell ref="U45:Y45"/>
+    <mergeCell ref="Z45:AA45"/>
+    <mergeCell ref="AE42:AF42"/>
+    <mergeCell ref="AG42:AH42"/>
+    <mergeCell ref="AI42:AJ42"/>
+    <mergeCell ref="AI46:AJ46"/>
+    <mergeCell ref="AB45:AD45"/>
+    <mergeCell ref="AE45:AF45"/>
+    <mergeCell ref="AM40:AN40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:K41"/>
+    <mergeCell ref="L41:T41"/>
+    <mergeCell ref="U41:Y41"/>
+    <mergeCell ref="Z41:AA41"/>
+    <mergeCell ref="AB41:AD41"/>
+    <mergeCell ref="AE41:AF41"/>
+    <mergeCell ref="AG41:AH41"/>
+    <mergeCell ref="AI41:AJ41"/>
+    <mergeCell ref="AK41:AL41"/>
+    <mergeCell ref="AM41:AN41"/>
+    <mergeCell ref="AO39:BB39"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:K38"/>
+    <mergeCell ref="L38:T38"/>
+    <mergeCell ref="U38:Y38"/>
+    <mergeCell ref="Z38:AA38"/>
+    <mergeCell ref="AB38:AD38"/>
+    <mergeCell ref="AE38:AF38"/>
+    <mergeCell ref="AG38:AH38"/>
+    <mergeCell ref="AI38:AJ38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:K39"/>
+    <mergeCell ref="L39:T39"/>
+    <mergeCell ref="U39:Y39"/>
+    <mergeCell ref="Z39:AA39"/>
+    <mergeCell ref="AB39:AD39"/>
+    <mergeCell ref="AE39:AF39"/>
+    <mergeCell ref="AG39:AH39"/>
+    <mergeCell ref="AI39:AJ39"/>
+    <mergeCell ref="AM35:AN35"/>
+    <mergeCell ref="AO35:BB35"/>
+    <mergeCell ref="AK36:AL36"/>
+    <mergeCell ref="AM36:AN36"/>
+    <mergeCell ref="AO36:BB36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:K37"/>
+    <mergeCell ref="L37:T37"/>
+    <mergeCell ref="U37:Y37"/>
+    <mergeCell ref="Z37:AA37"/>
+    <mergeCell ref="AO37:BB37"/>
+    <mergeCell ref="AB37:AD37"/>
+    <mergeCell ref="AE37:AF37"/>
+    <mergeCell ref="AG37:AH37"/>
+    <mergeCell ref="AI37:AJ37"/>
+    <mergeCell ref="AK37:AL37"/>
+    <mergeCell ref="AM37:AN37"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:K36"/>
+    <mergeCell ref="L36:T36"/>
+    <mergeCell ref="U36:Y36"/>
+    <mergeCell ref="Z36:AA36"/>
+    <mergeCell ref="AB36:AD36"/>
+    <mergeCell ref="AE36:AF36"/>
+    <mergeCell ref="AM33:AN33"/>
+    <mergeCell ref="AO33:BB33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:K34"/>
+    <mergeCell ref="L34:T34"/>
+    <mergeCell ref="U34:Y34"/>
+    <mergeCell ref="Z34:AA34"/>
+    <mergeCell ref="AO34:BB34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:K35"/>
+    <mergeCell ref="L35:T35"/>
+    <mergeCell ref="U35:Y35"/>
+    <mergeCell ref="Z35:AA35"/>
+    <mergeCell ref="AB35:AD35"/>
+    <mergeCell ref="AE35:AF35"/>
+    <mergeCell ref="AG35:AH35"/>
+    <mergeCell ref="AI35:AJ35"/>
+    <mergeCell ref="AB34:AD34"/>
+    <mergeCell ref="AE34:AF34"/>
+    <mergeCell ref="AG34:AH34"/>
+    <mergeCell ref="AI34:AJ34"/>
+    <mergeCell ref="AK34:AL34"/>
+    <mergeCell ref="AM34:AN34"/>
+    <mergeCell ref="AK35:AL35"/>
+    <mergeCell ref="AO31:BB31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:K32"/>
+    <mergeCell ref="L32:T32"/>
+    <mergeCell ref="U32:Y32"/>
+    <mergeCell ref="Z32:AA32"/>
+    <mergeCell ref="AB32:AD32"/>
+    <mergeCell ref="AE32:AF32"/>
+    <mergeCell ref="AG32:AH32"/>
+    <mergeCell ref="AI32:AJ32"/>
+    <mergeCell ref="AB31:AD31"/>
+    <mergeCell ref="AE31:AF31"/>
+    <mergeCell ref="AG31:AH31"/>
+    <mergeCell ref="AI31:AJ31"/>
+    <mergeCell ref="AK31:AL31"/>
+    <mergeCell ref="AM31:AN31"/>
+    <mergeCell ref="AK32:AL32"/>
+    <mergeCell ref="AM32:AN32"/>
+    <mergeCell ref="AO32:BB32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:K31"/>
+    <mergeCell ref="L31:T31"/>
+    <mergeCell ref="U31:Y31"/>
+    <mergeCell ref="Z31:AA31"/>
+    <mergeCell ref="Z33:AA33"/>
+    <mergeCell ref="AB33:AD33"/>
+    <mergeCell ref="AE33:AF33"/>
+    <mergeCell ref="AG33:AH33"/>
+    <mergeCell ref="U40:Y40"/>
+    <mergeCell ref="Z40:AA40"/>
+    <mergeCell ref="AE65:AF65"/>
+    <mergeCell ref="AG65:AH65"/>
+    <mergeCell ref="AE63:AF63"/>
+    <mergeCell ref="AG63:AH63"/>
+    <mergeCell ref="AE62:AF62"/>
+    <mergeCell ref="AG62:AH62"/>
+    <mergeCell ref="AE61:AF61"/>
+    <mergeCell ref="AG61:AH61"/>
+    <mergeCell ref="AE53:AF53"/>
+    <mergeCell ref="AG53:AH53"/>
+    <mergeCell ref="U54:Y54"/>
+    <mergeCell ref="AE64:AF64"/>
+    <mergeCell ref="AG64:AH64"/>
+    <mergeCell ref="Z55:AA55"/>
+    <mergeCell ref="AB55:AD55"/>
+    <mergeCell ref="AE55:AF55"/>
+    <mergeCell ref="AG55:AH55"/>
+    <mergeCell ref="U63:Y63"/>
+    <mergeCell ref="AI33:AJ33"/>
+    <mergeCell ref="AK33:AL33"/>
+    <mergeCell ref="AG36:AH36"/>
+    <mergeCell ref="AI36:AJ36"/>
+    <mergeCell ref="AK26:AL26"/>
+    <mergeCell ref="AE24:AF24"/>
+    <mergeCell ref="AG24:AH24"/>
+    <mergeCell ref="AI24:AJ24"/>
+    <mergeCell ref="AK24:AL24"/>
+    <mergeCell ref="AE30:AF30"/>
+    <mergeCell ref="AG30:AH30"/>
+    <mergeCell ref="AI30:AJ30"/>
+    <mergeCell ref="AK30:AL30"/>
+    <mergeCell ref="AE28:AF28"/>
+    <mergeCell ref="AG28:AH28"/>
+    <mergeCell ref="AI28:AJ28"/>
+    <mergeCell ref="AK28:AL28"/>
+    <mergeCell ref="AE26:AF26"/>
+    <mergeCell ref="AG26:AH26"/>
+    <mergeCell ref="AI26:AJ26"/>
+    <mergeCell ref="Z63:AA63"/>
+    <mergeCell ref="AB63:AD63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:K64"/>
+    <mergeCell ref="L64:T64"/>
+    <mergeCell ref="U64:Y64"/>
+    <mergeCell ref="Z64:AA64"/>
+    <mergeCell ref="AB64:AD64"/>
+    <mergeCell ref="AM62:AN62"/>
+    <mergeCell ref="AI64:AJ64"/>
+    <mergeCell ref="AK64:AL64"/>
+    <mergeCell ref="AM64:AN64"/>
+    <mergeCell ref="AO62:BB62"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:K62"/>
+    <mergeCell ref="L62:T62"/>
+    <mergeCell ref="U62:Y62"/>
+    <mergeCell ref="Z62:AA62"/>
+    <mergeCell ref="AB62:AD62"/>
+    <mergeCell ref="AI61:AJ61"/>
+    <mergeCell ref="AK61:AL61"/>
+    <mergeCell ref="AM61:AN61"/>
+    <mergeCell ref="AO61:BB61"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:K61"/>
+    <mergeCell ref="L61:T61"/>
+    <mergeCell ref="U61:Y61"/>
+    <mergeCell ref="Z61:AA61"/>
+    <mergeCell ref="AB61:AD61"/>
+    <mergeCell ref="AI62:AJ62"/>
+    <mergeCell ref="AK62:AL62"/>
+    <mergeCell ref="AM30:AN30"/>
+    <mergeCell ref="AO30:BB30"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:K30"/>
+    <mergeCell ref="L30:T30"/>
+    <mergeCell ref="U30:Y30"/>
+    <mergeCell ref="Z30:AA30"/>
+    <mergeCell ref="AB30:AD30"/>
+    <mergeCell ref="AE29:AF29"/>
+    <mergeCell ref="AG29:AH29"/>
+    <mergeCell ref="AI29:AJ29"/>
+    <mergeCell ref="AK29:AL29"/>
+    <mergeCell ref="AM29:AN29"/>
+    <mergeCell ref="AO29:BB29"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:K29"/>
+    <mergeCell ref="L29:T29"/>
+    <mergeCell ref="U29:Y29"/>
+    <mergeCell ref="Z29:AA29"/>
+    <mergeCell ref="AB29:AD29"/>
+    <mergeCell ref="AM28:AN28"/>
+    <mergeCell ref="AO28:BB28"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:K28"/>
+    <mergeCell ref="L28:T28"/>
+    <mergeCell ref="U28:Y28"/>
+    <mergeCell ref="Z28:AA28"/>
+    <mergeCell ref="AB28:AD28"/>
+    <mergeCell ref="AE27:AF27"/>
+    <mergeCell ref="AG27:AH27"/>
+    <mergeCell ref="AI27:AJ27"/>
+    <mergeCell ref="AK27:AL27"/>
+    <mergeCell ref="AM27:AN27"/>
+    <mergeCell ref="AO27:BB27"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:K27"/>
+    <mergeCell ref="L27:T27"/>
+    <mergeCell ref="U27:Y27"/>
+    <mergeCell ref="Z27:AA27"/>
+    <mergeCell ref="AB27:AD27"/>
+    <mergeCell ref="AM26:AN26"/>
+    <mergeCell ref="AO26:BB26"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:K26"/>
+    <mergeCell ref="L26:T26"/>
+    <mergeCell ref="U26:Y26"/>
+    <mergeCell ref="Z26:AA26"/>
+    <mergeCell ref="AB26:AD26"/>
+    <mergeCell ref="AE25:AF25"/>
+    <mergeCell ref="AG25:AH25"/>
+    <mergeCell ref="AI25:AJ25"/>
+    <mergeCell ref="AK25:AL25"/>
+    <mergeCell ref="AM25:AN25"/>
+    <mergeCell ref="AO25:BB25"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:K25"/>
+    <mergeCell ref="L25:T25"/>
+    <mergeCell ref="U25:Y25"/>
+    <mergeCell ref="Z25:AA25"/>
+    <mergeCell ref="AB25:AD25"/>
     <mergeCell ref="AM24:AN24"/>
     <mergeCell ref="AO24:BB24"/>
     <mergeCell ref="A24:B24"/>
@@ -43511,516 +43782,246 @@
     <mergeCell ref="C23:K23"/>
     <mergeCell ref="L23:T23"/>
     <mergeCell ref="U23:Y23"/>
-    <mergeCell ref="AM26:AN26"/>
-    <mergeCell ref="AO26:BB26"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:K26"/>
-    <mergeCell ref="L26:T26"/>
-    <mergeCell ref="U26:Y26"/>
-    <mergeCell ref="Z26:AA26"/>
-    <mergeCell ref="AB26:AD26"/>
-    <mergeCell ref="AE25:AF25"/>
-    <mergeCell ref="AG25:AH25"/>
-    <mergeCell ref="AI25:AJ25"/>
-    <mergeCell ref="AK25:AL25"/>
-    <mergeCell ref="AM25:AN25"/>
-    <mergeCell ref="AO25:BB25"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:K25"/>
-    <mergeCell ref="L25:T25"/>
-    <mergeCell ref="U25:Y25"/>
-    <mergeCell ref="Z25:AA25"/>
-    <mergeCell ref="AB25:AD25"/>
-    <mergeCell ref="AM28:AN28"/>
-    <mergeCell ref="AO28:BB28"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:K28"/>
-    <mergeCell ref="L28:T28"/>
-    <mergeCell ref="U28:Y28"/>
-    <mergeCell ref="Z28:AA28"/>
-    <mergeCell ref="AB28:AD28"/>
-    <mergeCell ref="AE27:AF27"/>
-    <mergeCell ref="AG27:AH27"/>
-    <mergeCell ref="AI27:AJ27"/>
-    <mergeCell ref="AK27:AL27"/>
-    <mergeCell ref="AM27:AN27"/>
-    <mergeCell ref="AO27:BB27"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:K27"/>
-    <mergeCell ref="L27:T27"/>
-    <mergeCell ref="U27:Y27"/>
-    <mergeCell ref="Z27:AA27"/>
-    <mergeCell ref="AB27:AD27"/>
-    <mergeCell ref="AM30:AN30"/>
-    <mergeCell ref="AO30:BB30"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:K30"/>
-    <mergeCell ref="L30:T30"/>
-    <mergeCell ref="U30:Y30"/>
-    <mergeCell ref="Z30:AA30"/>
-    <mergeCell ref="AB30:AD30"/>
-    <mergeCell ref="AE29:AF29"/>
-    <mergeCell ref="AG29:AH29"/>
-    <mergeCell ref="AI29:AJ29"/>
-    <mergeCell ref="AK29:AL29"/>
-    <mergeCell ref="AM29:AN29"/>
-    <mergeCell ref="AO29:BB29"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:K29"/>
-    <mergeCell ref="L29:T29"/>
-    <mergeCell ref="U29:Y29"/>
-    <mergeCell ref="Z29:AA29"/>
-    <mergeCell ref="AB29:AD29"/>
-    <mergeCell ref="AO62:BB62"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="C62:K62"/>
-    <mergeCell ref="L62:T62"/>
-    <mergeCell ref="U62:Y62"/>
-    <mergeCell ref="Z62:AA62"/>
-    <mergeCell ref="AB62:AD62"/>
-    <mergeCell ref="AI61:AJ61"/>
-    <mergeCell ref="AK61:AL61"/>
-    <mergeCell ref="AM61:AN61"/>
-    <mergeCell ref="AO61:BB61"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="C61:K61"/>
-    <mergeCell ref="L61:T61"/>
-    <mergeCell ref="U61:Y61"/>
-    <mergeCell ref="Z61:AA61"/>
-    <mergeCell ref="AB61:AD61"/>
-    <mergeCell ref="AI62:AJ62"/>
-    <mergeCell ref="AK62:AL62"/>
-    <mergeCell ref="Z63:AA63"/>
-    <mergeCell ref="AB63:AD63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="C64:K64"/>
-    <mergeCell ref="L64:T64"/>
-    <mergeCell ref="U64:Y64"/>
-    <mergeCell ref="Z64:AA64"/>
-    <mergeCell ref="AB64:AD64"/>
-    <mergeCell ref="AM62:AN62"/>
+    <mergeCell ref="AM21:AN21"/>
+    <mergeCell ref="AO21:BB21"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:K21"/>
+    <mergeCell ref="L21:T21"/>
+    <mergeCell ref="U21:Y21"/>
+    <mergeCell ref="Z21:AA21"/>
+    <mergeCell ref="AB21:AD21"/>
+    <mergeCell ref="AE20:AF20"/>
+    <mergeCell ref="AG20:AH20"/>
+    <mergeCell ref="AI20:AJ20"/>
+    <mergeCell ref="AK20:AL20"/>
+    <mergeCell ref="AM20:AN20"/>
+    <mergeCell ref="AO20:BB20"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:K20"/>
+    <mergeCell ref="L20:T20"/>
+    <mergeCell ref="U20:Y20"/>
+    <mergeCell ref="Z20:AA20"/>
+    <mergeCell ref="AB20:AD20"/>
     <mergeCell ref="AE21:AF21"/>
     <mergeCell ref="AG21:AH21"/>
     <mergeCell ref="AI21:AJ21"/>
     <mergeCell ref="AK21:AL21"/>
+    <mergeCell ref="AM19:AN19"/>
+    <mergeCell ref="AO19:BB19"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:K19"/>
+    <mergeCell ref="L19:T19"/>
+    <mergeCell ref="U19:Y19"/>
+    <mergeCell ref="Z19:AA19"/>
+    <mergeCell ref="AB19:AD19"/>
+    <mergeCell ref="AE18:AF18"/>
+    <mergeCell ref="AG18:AH18"/>
+    <mergeCell ref="AI18:AJ18"/>
+    <mergeCell ref="AK18:AL18"/>
+    <mergeCell ref="AM18:AN18"/>
+    <mergeCell ref="AO18:BB18"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:K18"/>
+    <mergeCell ref="L18:T18"/>
+    <mergeCell ref="U18:Y18"/>
+    <mergeCell ref="Z18:AA18"/>
+    <mergeCell ref="AB18:AD18"/>
     <mergeCell ref="AE19:AF19"/>
     <mergeCell ref="AG19:AH19"/>
     <mergeCell ref="AI19:AJ19"/>
     <mergeCell ref="AK19:AL19"/>
+    <mergeCell ref="AM17:AN17"/>
+    <mergeCell ref="AO17:BB17"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:K17"/>
+    <mergeCell ref="L17:T17"/>
+    <mergeCell ref="U17:Y17"/>
+    <mergeCell ref="Z17:AA17"/>
+    <mergeCell ref="AB17:AD17"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="AG16:AH16"/>
+    <mergeCell ref="AI16:AJ16"/>
+    <mergeCell ref="AK16:AL16"/>
+    <mergeCell ref="AM16:AN16"/>
+    <mergeCell ref="AO16:BB16"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:K16"/>
+    <mergeCell ref="L16:T16"/>
+    <mergeCell ref="U16:Y16"/>
+    <mergeCell ref="Z16:AA16"/>
+    <mergeCell ref="AB16:AD16"/>
     <mergeCell ref="AE17:AF17"/>
     <mergeCell ref="AG17:AH17"/>
     <mergeCell ref="AI17:AJ17"/>
     <mergeCell ref="AK17:AL17"/>
-    <mergeCell ref="AI33:AJ33"/>
-    <mergeCell ref="AK33:AL33"/>
-    <mergeCell ref="AG36:AH36"/>
-    <mergeCell ref="AI36:AJ36"/>
-    <mergeCell ref="AK26:AL26"/>
-    <mergeCell ref="AE24:AF24"/>
-    <mergeCell ref="AG24:AH24"/>
-    <mergeCell ref="AI24:AJ24"/>
-    <mergeCell ref="AK24:AL24"/>
-    <mergeCell ref="AE30:AF30"/>
-    <mergeCell ref="AG30:AH30"/>
-    <mergeCell ref="AI30:AJ30"/>
-    <mergeCell ref="AK30:AL30"/>
-    <mergeCell ref="AE28:AF28"/>
-    <mergeCell ref="AG28:AH28"/>
-    <mergeCell ref="AI28:AJ28"/>
-    <mergeCell ref="AK28:AL28"/>
-    <mergeCell ref="AE26:AF26"/>
-    <mergeCell ref="AG26:AH26"/>
-    <mergeCell ref="AI26:AJ26"/>
-    <mergeCell ref="Z33:AA33"/>
-    <mergeCell ref="AB33:AD33"/>
-    <mergeCell ref="AE33:AF33"/>
-    <mergeCell ref="AG33:AH33"/>
-    <mergeCell ref="U40:Y40"/>
-    <mergeCell ref="Z40:AA40"/>
-    <mergeCell ref="AE65:AF65"/>
-    <mergeCell ref="AG65:AH65"/>
-    <mergeCell ref="AE63:AF63"/>
-    <mergeCell ref="AG63:AH63"/>
-    <mergeCell ref="AE62:AF62"/>
-    <mergeCell ref="AG62:AH62"/>
-    <mergeCell ref="AE61:AF61"/>
-    <mergeCell ref="AG61:AH61"/>
-    <mergeCell ref="AE53:AF53"/>
-    <mergeCell ref="AG53:AH53"/>
-    <mergeCell ref="U54:Y54"/>
-    <mergeCell ref="AE64:AF64"/>
-    <mergeCell ref="AG64:AH64"/>
-    <mergeCell ref="Z55:AA55"/>
-    <mergeCell ref="AB55:AD55"/>
-    <mergeCell ref="AE55:AF55"/>
-    <mergeCell ref="AG55:AH55"/>
-    <mergeCell ref="U63:Y63"/>
-    <mergeCell ref="AO31:BB31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:K32"/>
-    <mergeCell ref="L32:T32"/>
-    <mergeCell ref="U32:Y32"/>
-    <mergeCell ref="Z32:AA32"/>
-    <mergeCell ref="AB32:AD32"/>
-    <mergeCell ref="AE32:AF32"/>
-    <mergeCell ref="AG32:AH32"/>
-    <mergeCell ref="AI32:AJ32"/>
-    <mergeCell ref="AB31:AD31"/>
-    <mergeCell ref="AE31:AF31"/>
-    <mergeCell ref="AG31:AH31"/>
-    <mergeCell ref="AI31:AJ31"/>
-    <mergeCell ref="AK31:AL31"/>
-    <mergeCell ref="AM31:AN31"/>
-    <mergeCell ref="AK32:AL32"/>
-    <mergeCell ref="AM32:AN32"/>
-    <mergeCell ref="AO32:BB32"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:K31"/>
-    <mergeCell ref="L31:T31"/>
-    <mergeCell ref="U31:Y31"/>
-    <mergeCell ref="Z31:AA31"/>
-    <mergeCell ref="AM33:AN33"/>
-    <mergeCell ref="AO33:BB33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:K34"/>
-    <mergeCell ref="L34:T34"/>
-    <mergeCell ref="U34:Y34"/>
-    <mergeCell ref="Z34:AA34"/>
-    <mergeCell ref="AO34:BB34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:K35"/>
-    <mergeCell ref="L35:T35"/>
-    <mergeCell ref="U35:Y35"/>
-    <mergeCell ref="Z35:AA35"/>
-    <mergeCell ref="AB35:AD35"/>
-    <mergeCell ref="AE35:AF35"/>
-    <mergeCell ref="AG35:AH35"/>
-    <mergeCell ref="AI35:AJ35"/>
-    <mergeCell ref="AB34:AD34"/>
-    <mergeCell ref="AE34:AF34"/>
-    <mergeCell ref="AG34:AH34"/>
-    <mergeCell ref="AI34:AJ34"/>
-    <mergeCell ref="AK34:AL34"/>
-    <mergeCell ref="AM34:AN34"/>
-    <mergeCell ref="AK35:AL35"/>
-    <mergeCell ref="AM35:AN35"/>
-    <mergeCell ref="AO35:BB35"/>
-    <mergeCell ref="AK36:AL36"/>
-    <mergeCell ref="AM36:AN36"/>
-    <mergeCell ref="AO36:BB36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:K37"/>
-    <mergeCell ref="L37:T37"/>
-    <mergeCell ref="U37:Y37"/>
-    <mergeCell ref="Z37:AA37"/>
-    <mergeCell ref="AO37:BB37"/>
-    <mergeCell ref="AB37:AD37"/>
-    <mergeCell ref="AE37:AF37"/>
-    <mergeCell ref="AG37:AH37"/>
-    <mergeCell ref="AI37:AJ37"/>
-    <mergeCell ref="AK37:AL37"/>
-    <mergeCell ref="AM37:AN37"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:K36"/>
-    <mergeCell ref="L36:T36"/>
-    <mergeCell ref="U36:Y36"/>
-    <mergeCell ref="Z36:AA36"/>
-    <mergeCell ref="AB36:AD36"/>
-    <mergeCell ref="AE36:AF36"/>
-    <mergeCell ref="AO39:BB39"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:K38"/>
-    <mergeCell ref="L38:T38"/>
-    <mergeCell ref="U38:Y38"/>
-    <mergeCell ref="Z38:AA38"/>
-    <mergeCell ref="AB38:AD38"/>
-    <mergeCell ref="AE38:AF38"/>
-    <mergeCell ref="AG38:AH38"/>
-    <mergeCell ref="AI38:AJ38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:K39"/>
-    <mergeCell ref="L39:T39"/>
-    <mergeCell ref="U39:Y39"/>
-    <mergeCell ref="Z39:AA39"/>
-    <mergeCell ref="AB39:AD39"/>
-    <mergeCell ref="AE39:AF39"/>
-    <mergeCell ref="AG39:AH39"/>
-    <mergeCell ref="AI39:AJ39"/>
-    <mergeCell ref="AM40:AN40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:K41"/>
-    <mergeCell ref="L41:T41"/>
-    <mergeCell ref="U41:Y41"/>
-    <mergeCell ref="Z41:AA41"/>
-    <mergeCell ref="AB41:AD41"/>
-    <mergeCell ref="AE41:AF41"/>
-    <mergeCell ref="AG41:AH41"/>
-    <mergeCell ref="AI41:AJ41"/>
-    <mergeCell ref="Z46:AA46"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:K45"/>
-    <mergeCell ref="L45:T45"/>
-    <mergeCell ref="U45:Y45"/>
-    <mergeCell ref="Z45:AA45"/>
-    <mergeCell ref="AE42:AF42"/>
-    <mergeCell ref="AG42:AH42"/>
-    <mergeCell ref="AI42:AJ42"/>
-    <mergeCell ref="AI46:AJ46"/>
-    <mergeCell ref="AB45:AD45"/>
-    <mergeCell ref="AE45:AF45"/>
-    <mergeCell ref="AK41:AL41"/>
-    <mergeCell ref="AM41:AN41"/>
-    <mergeCell ref="AO41:BB41"/>
-    <mergeCell ref="AK38:AL38"/>
-    <mergeCell ref="AM38:AN38"/>
-    <mergeCell ref="AO38:BB38"/>
-    <mergeCell ref="AK39:AL39"/>
-    <mergeCell ref="AM39:AN39"/>
-    <mergeCell ref="Z44:AA44"/>
-    <mergeCell ref="AB44:AD44"/>
-    <mergeCell ref="AE44:AF44"/>
-    <mergeCell ref="Z43:AA43"/>
-    <mergeCell ref="AB43:AD43"/>
-    <mergeCell ref="AE43:AF43"/>
-    <mergeCell ref="Z42:AA42"/>
-    <mergeCell ref="AK44:AL44"/>
-    <mergeCell ref="AM44:AN44"/>
-    <mergeCell ref="AO44:BB44"/>
-    <mergeCell ref="AO40:BB40"/>
-    <mergeCell ref="AB40:AD40"/>
-    <mergeCell ref="AE40:AF40"/>
-    <mergeCell ref="AG40:AH40"/>
-    <mergeCell ref="AI40:AJ40"/>
-    <mergeCell ref="AK40:AL40"/>
-    <mergeCell ref="AG44:AH44"/>
-    <mergeCell ref="AI44:AJ44"/>
-    <mergeCell ref="AK42:AL42"/>
-    <mergeCell ref="AM42:AN42"/>
-    <mergeCell ref="AO42:BB42"/>
-    <mergeCell ref="AO43:BB43"/>
-    <mergeCell ref="AG43:AH43"/>
-    <mergeCell ref="AI43:AJ43"/>
-    <mergeCell ref="AK43:AL43"/>
-    <mergeCell ref="AM43:AN43"/>
-    <mergeCell ref="AO54:BB54"/>
-    <mergeCell ref="AM54:AN54"/>
-    <mergeCell ref="AK54:AL54"/>
-    <mergeCell ref="AI54:AJ54"/>
-    <mergeCell ref="AG54:AH54"/>
-    <mergeCell ref="AE54:AF54"/>
-    <mergeCell ref="AG45:AH45"/>
-    <mergeCell ref="AI45:AJ45"/>
-    <mergeCell ref="AK45:AL45"/>
-    <mergeCell ref="AM45:AN45"/>
-    <mergeCell ref="AO45:BB45"/>
-    <mergeCell ref="AK46:AL46"/>
-    <mergeCell ref="AM46:AN46"/>
-    <mergeCell ref="AI53:AJ53"/>
-    <mergeCell ref="AK53:AL53"/>
-    <mergeCell ref="AM53:AN53"/>
-    <mergeCell ref="AO53:BB53"/>
-    <mergeCell ref="AO52:BB52"/>
-    <mergeCell ref="AK48:AL48"/>
-    <mergeCell ref="AM48:AN48"/>
-    <mergeCell ref="AO48:BB48"/>
-    <mergeCell ref="Z47:AA47"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:K33"/>
-    <mergeCell ref="L33:T33"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:K14"/>
-    <mergeCell ref="L14:T14"/>
-    <mergeCell ref="U14:Y14"/>
-    <mergeCell ref="Z14:AA14"/>
-    <mergeCell ref="Z23:AA23"/>
-    <mergeCell ref="L44:T44"/>
-    <mergeCell ref="U44:Y44"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:K43"/>
-    <mergeCell ref="L43:T43"/>
-    <mergeCell ref="U43:Y43"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:K42"/>
-    <mergeCell ref="L42:T42"/>
-    <mergeCell ref="U42:Y42"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:K46"/>
-    <mergeCell ref="L46:T46"/>
-    <mergeCell ref="U46:Y46"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:K13"/>
-    <mergeCell ref="L13:T13"/>
-    <mergeCell ref="U13:Y13"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:K44"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:K47"/>
-    <mergeCell ref="L47:T47"/>
-    <mergeCell ref="U47:Y47"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:K40"/>
-    <mergeCell ref="L40:T40"/>
-    <mergeCell ref="U33:Y33"/>
-    <mergeCell ref="AE13:AF13"/>
-    <mergeCell ref="AG13:AH13"/>
-    <mergeCell ref="AI13:AJ13"/>
-    <mergeCell ref="AK13:AL13"/>
-    <mergeCell ref="AM13:AN13"/>
-    <mergeCell ref="AO13:BB13"/>
-    <mergeCell ref="Z13:AA13"/>
-    <mergeCell ref="AB13:AD13"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="AI12:AJ12"/>
-    <mergeCell ref="AK12:AL12"/>
-    <mergeCell ref="AM12:AN12"/>
-    <mergeCell ref="AO12:BB12"/>
-    <mergeCell ref="AB14:AD14"/>
-    <mergeCell ref="AE14:AF14"/>
-    <mergeCell ref="AG14:AH14"/>
-    <mergeCell ref="AI14:AJ14"/>
-    <mergeCell ref="AK14:AL14"/>
-    <mergeCell ref="AM14:AN14"/>
-    <mergeCell ref="AO14:BB14"/>
-    <mergeCell ref="AB54:AD54"/>
-    <mergeCell ref="Z54:AA54"/>
-    <mergeCell ref="AO47:BB47"/>
-    <mergeCell ref="AB47:AD47"/>
-    <mergeCell ref="AE47:AF47"/>
-    <mergeCell ref="AG47:AH47"/>
-    <mergeCell ref="AI47:AJ47"/>
-    <mergeCell ref="AK47:AL47"/>
-    <mergeCell ref="AM47:AN47"/>
-    <mergeCell ref="AB42:AD42"/>
-    <mergeCell ref="AK49:AL49"/>
-    <mergeCell ref="AM49:AN49"/>
-    <mergeCell ref="AO46:BB46"/>
-    <mergeCell ref="AB46:AD46"/>
-    <mergeCell ref="AE46:AF46"/>
-    <mergeCell ref="AG46:AH46"/>
-    <mergeCell ref="AO49:BB49"/>
-    <mergeCell ref="AK50:AL50"/>
-    <mergeCell ref="AM50:AN50"/>
-    <mergeCell ref="AO50:BB50"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:K49"/>
-    <mergeCell ref="L49:T49"/>
-    <mergeCell ref="U49:Y49"/>
-    <mergeCell ref="Z49:AA49"/>
-    <mergeCell ref="AB49:AD49"/>
-    <mergeCell ref="AE49:AF49"/>
-    <mergeCell ref="AG49:AH49"/>
-    <mergeCell ref="AI49:AJ49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:K50"/>
-    <mergeCell ref="L50:T50"/>
-    <mergeCell ref="U50:Y50"/>
-    <mergeCell ref="Z50:AA50"/>
-    <mergeCell ref="AB50:AD50"/>
-    <mergeCell ref="AE50:AF50"/>
-    <mergeCell ref="AG50:AH50"/>
-    <mergeCell ref="AI50:AJ50"/>
-    <mergeCell ref="AI64:AJ64"/>
-    <mergeCell ref="AK64:AL64"/>
-    <mergeCell ref="AM64:AN64"/>
-    <mergeCell ref="AO64:BB64"/>
-    <mergeCell ref="L54:T54"/>
-    <mergeCell ref="C54:K54"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="AI65:AJ65"/>
-    <mergeCell ref="AK65:AL65"/>
-    <mergeCell ref="AM65:AN65"/>
-    <mergeCell ref="AO65:BB65"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="C65:K65"/>
-    <mergeCell ref="L65:T65"/>
-    <mergeCell ref="U65:Y65"/>
-    <mergeCell ref="Z65:AA65"/>
-    <mergeCell ref="AB65:AD65"/>
-    <mergeCell ref="AI63:AJ63"/>
-    <mergeCell ref="AK63:AL63"/>
-    <mergeCell ref="AM63:AN63"/>
-    <mergeCell ref="AO63:BB63"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="C63:K63"/>
-    <mergeCell ref="L63:T63"/>
-    <mergeCell ref="AB23:AD23"/>
-    <mergeCell ref="AE23:AF23"/>
-    <mergeCell ref="AG23:AH23"/>
-    <mergeCell ref="AI23:AJ23"/>
-    <mergeCell ref="AK23:AL23"/>
-    <mergeCell ref="AM23:AN23"/>
-    <mergeCell ref="AO23:BB23"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:K55"/>
-    <mergeCell ref="L55:T55"/>
-    <mergeCell ref="U55:Y55"/>
-    <mergeCell ref="AK51:AL51"/>
-    <mergeCell ref="AM51:AN51"/>
-    <mergeCell ref="AO51:BB51"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:K51"/>
-    <mergeCell ref="L51:T51"/>
-    <mergeCell ref="U51:Y51"/>
-    <mergeCell ref="Z51:AA51"/>
-    <mergeCell ref="AB51:AD51"/>
-    <mergeCell ref="AE51:AF51"/>
-    <mergeCell ref="AG51:AH51"/>
-    <mergeCell ref="AI51:AJ51"/>
-    <mergeCell ref="AI55:AJ55"/>
-    <mergeCell ref="AK55:AL55"/>
-    <mergeCell ref="AM55:AN55"/>
-    <mergeCell ref="AO55:BB55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C56:K56"/>
-    <mergeCell ref="L56:T56"/>
-    <mergeCell ref="U56:Y56"/>
-    <mergeCell ref="Z56:AA56"/>
-    <mergeCell ref="AB56:AD56"/>
-    <mergeCell ref="AE56:AF56"/>
-    <mergeCell ref="AG56:AH56"/>
-    <mergeCell ref="AI56:AJ56"/>
-    <mergeCell ref="AK56:AL56"/>
-    <mergeCell ref="AM56:AN56"/>
-    <mergeCell ref="AO56:BB56"/>
-    <mergeCell ref="AK57:AL57"/>
-    <mergeCell ref="AM57:AN57"/>
-    <mergeCell ref="AO57:BB57"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="C59:K59"/>
-    <mergeCell ref="L59:T59"/>
-    <mergeCell ref="U59:Y59"/>
-    <mergeCell ref="Z59:AA59"/>
-    <mergeCell ref="AB59:AD59"/>
-    <mergeCell ref="AE59:AF59"/>
-    <mergeCell ref="AG59:AH59"/>
-    <mergeCell ref="AI59:AJ59"/>
-    <mergeCell ref="AK59:AL59"/>
-    <mergeCell ref="AM59:AN59"/>
-    <mergeCell ref="AO59:BB59"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="C57:K57"/>
-    <mergeCell ref="L57:T57"/>
-    <mergeCell ref="U57:Y57"/>
-    <mergeCell ref="Z57:AA57"/>
-    <mergeCell ref="AB57:AD57"/>
-    <mergeCell ref="AE57:AF57"/>
-    <mergeCell ref="AG57:AH57"/>
-    <mergeCell ref="AI57:AJ57"/>
-    <mergeCell ref="AK60:AL60"/>
-    <mergeCell ref="AM60:AN60"/>
-    <mergeCell ref="AO60:BB60"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:K60"/>
-    <mergeCell ref="L60:T60"/>
-    <mergeCell ref="U60:Y60"/>
-    <mergeCell ref="Z60:AA60"/>
-    <mergeCell ref="AB60:AD60"/>
-    <mergeCell ref="AE60:AF60"/>
-    <mergeCell ref="AG60:AH60"/>
-    <mergeCell ref="AI60:AJ60"/>
+    <mergeCell ref="AE15:AF15"/>
+    <mergeCell ref="AG15:AH15"/>
+    <mergeCell ref="AI15:AJ15"/>
+    <mergeCell ref="AK15:AL15"/>
+    <mergeCell ref="AM15:AN15"/>
+    <mergeCell ref="AO15:BB15"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:K15"/>
+    <mergeCell ref="L15:T15"/>
+    <mergeCell ref="U15:Y15"/>
+    <mergeCell ref="Z15:AA15"/>
+    <mergeCell ref="AB15:AD15"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:K12"/>
+    <mergeCell ref="L12:T12"/>
+    <mergeCell ref="U12:Y12"/>
+    <mergeCell ref="Z12:AA12"/>
+    <mergeCell ref="AB12:AD12"/>
+    <mergeCell ref="AE11:AF11"/>
+    <mergeCell ref="AG11:AH11"/>
+    <mergeCell ref="AI11:AJ11"/>
+    <mergeCell ref="AK11:AL11"/>
+    <mergeCell ref="AM11:AN11"/>
+    <mergeCell ref="AO11:BB11"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:K11"/>
+    <mergeCell ref="L11:T11"/>
+    <mergeCell ref="U11:Y11"/>
+    <mergeCell ref="Z11:AA11"/>
+    <mergeCell ref="AB11:AD11"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:K53"/>
+    <mergeCell ref="L53:T53"/>
+    <mergeCell ref="U53:Y53"/>
+    <mergeCell ref="Z53:AA53"/>
+    <mergeCell ref="AB53:AD53"/>
+    <mergeCell ref="AI52:AJ52"/>
+    <mergeCell ref="AK52:AL52"/>
+    <mergeCell ref="AM52:AN52"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:K52"/>
+    <mergeCell ref="L52:T52"/>
+    <mergeCell ref="U52:Y52"/>
+    <mergeCell ref="Z52:AA52"/>
+    <mergeCell ref="AB52:AD52"/>
+    <mergeCell ref="AE52:AF52"/>
+    <mergeCell ref="AG52:AH52"/>
+    <mergeCell ref="AE10:AF10"/>
+    <mergeCell ref="AG10:AH10"/>
+    <mergeCell ref="AI10:AJ10"/>
+    <mergeCell ref="AK10:AL10"/>
+    <mergeCell ref="AM10:AN10"/>
+    <mergeCell ref="AO10:BB10"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:K10"/>
+    <mergeCell ref="L10:T10"/>
+    <mergeCell ref="U10:Y10"/>
+    <mergeCell ref="Z10:AA10"/>
+    <mergeCell ref="AB10:AD10"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="AG9:AH9"/>
+    <mergeCell ref="AI9:AJ9"/>
+    <mergeCell ref="AK9:AL9"/>
+    <mergeCell ref="AM9:AN9"/>
+    <mergeCell ref="AO9:BB9"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:K9"/>
+    <mergeCell ref="L9:T9"/>
+    <mergeCell ref="U9:Y9"/>
+    <mergeCell ref="Z9:AA9"/>
+    <mergeCell ref="AB9:AD9"/>
+    <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="AG8:AH8"/>
+    <mergeCell ref="AI8:AJ8"/>
+    <mergeCell ref="AK8:AL8"/>
+    <mergeCell ref="AM8:AN8"/>
+    <mergeCell ref="AO8:BB8"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:K8"/>
+    <mergeCell ref="L8:T8"/>
+    <mergeCell ref="U8:Y8"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="AB8:AD8"/>
+    <mergeCell ref="AE7:AF7"/>
+    <mergeCell ref="AG7:AH7"/>
+    <mergeCell ref="AI7:AJ7"/>
+    <mergeCell ref="AK7:AL7"/>
+    <mergeCell ref="AM7:AN7"/>
+    <mergeCell ref="AO7:BB7"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:K7"/>
+    <mergeCell ref="L7:T7"/>
+    <mergeCell ref="U7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="AB7:AD7"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="AG6:AH6"/>
+    <mergeCell ref="AI6:AJ6"/>
+    <mergeCell ref="AK6:AL6"/>
+    <mergeCell ref="AM6:AN6"/>
+    <mergeCell ref="AO6:BB6"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:K6"/>
+    <mergeCell ref="L6:T6"/>
+    <mergeCell ref="U6:Y6"/>
+    <mergeCell ref="Z6:AA6"/>
+    <mergeCell ref="AB6:AD6"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="AM5:AN5"/>
+    <mergeCell ref="AO5:BB5"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:K5"/>
+    <mergeCell ref="L5:T5"/>
+    <mergeCell ref="U5:Y5"/>
+    <mergeCell ref="Z5:AA5"/>
+    <mergeCell ref="AB5:AD5"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="AG4:AH4"/>
+    <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="AK4:AL4"/>
+    <mergeCell ref="AM4:AN4"/>
+    <mergeCell ref="AO4:BB4"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="L4:T4"/>
+    <mergeCell ref="U4:Y4"/>
+    <mergeCell ref="Z4:AA4"/>
+    <mergeCell ref="AB4:AD4"/>
+    <mergeCell ref="AQ1:AZ1"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="O2:X2"/>
+    <mergeCell ref="Y2:AB2"/>
+    <mergeCell ref="AC2:AL2"/>
+    <mergeCell ref="AM2:AP2"/>
+    <mergeCell ref="AQ2:AZ2"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="O1:X1"/>
+    <mergeCell ref="Y1:AB1"/>
+    <mergeCell ref="AC1:AL1"/>
+    <mergeCell ref="AM1:AP1"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:K48"/>
+    <mergeCell ref="L48:T48"/>
+    <mergeCell ref="U48:Y48"/>
+    <mergeCell ref="Z48:AA48"/>
+    <mergeCell ref="AB48:AD48"/>
+    <mergeCell ref="AE48:AF48"/>
+    <mergeCell ref="AG48:AH48"/>
+    <mergeCell ref="AI48:AJ48"/>
+    <mergeCell ref="AK58:AL58"/>
+    <mergeCell ref="AM58:AN58"/>
+    <mergeCell ref="AO58:BB58"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:K58"/>
+    <mergeCell ref="L58:T58"/>
+    <mergeCell ref="U58:Y58"/>
+    <mergeCell ref="Z58:AA58"/>
+    <mergeCell ref="AB58:AD58"/>
+    <mergeCell ref="AE58:AF58"/>
+    <mergeCell ref="AG58:AH58"/>
+    <mergeCell ref="AI58:AJ58"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>